--- a/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
+++ b/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -135,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -187,9 +187,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,23 +201,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,21 +217,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,30 +263,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,7 +271,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,19 +293,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -344,7 +344,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,7 +398,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,79 +500,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,73 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,65 +592,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -673,6 +614,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -687,6 +637,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -695,10 +695,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,136 +707,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -1211,7 +1211,7 @@
   <sheetPr/>
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -8247,8 +8247,8 @@
   <sheetPr/>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -8335,10 +8335,14 @@
       <c r="C4" s="6">
         <v>43640</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="6">
+        <v>43638</v>
+      </c>
+      <c r="E4" s="6">
+        <v>43638</v>
+      </c>
       <c r="F4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>14</v>

--- a/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
+++ b/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhou\Desktop\hgkj_02\卞虹霖\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\hgkj_02\卞虹霖\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E4C452-A890-4C9A-BBAA-31AA341409F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5064EE03-5E3E-4A6B-94A8-733A1939E0DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -22,20 +22,20 @@
     <sheet name="马涛" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">卞虹霖!$G$13:$G$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">黄之贤!$G$12:$G$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">金懿!$G$12:$G$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">马涛!$G$12:$G$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">夏晨青!$G$12:$G$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">赵檬!$G$12:$G$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">周文伟!$G$12:$G$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">卞虹霖!$G$15:$G$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">黄之贤!$G$12:$G$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">金懿!$G$12:$G$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">马涛!$G$12:$G$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">夏晨青!$G$12:$G$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">赵檬!$G$12:$G$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">周文伟!$G$12:$G$20</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="33">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>查询团购信息</t>
-  </si>
-  <si>
-    <t>添加团购信息</t>
   </si>
   <si>
     <t>修改团购信息</t>
@@ -603,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -697,7 +694,9 @@
       <c r="E4" s="5">
         <v>43640</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
@@ -736,7 +735,7 @@
         <v>43641</v>
       </c>
       <c r="F6" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>11</v>
@@ -767,10 +766,10 @@
     </row>
     <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="14">
         <v>43641</v>
       </c>
       <c r="D8" s="4"/>
@@ -787,36 +786,36 @@
     </row>
     <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" s="13"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="5">
         <v>43642</v>
       </c>
-      <c r="D9" s="4"/>
       <c r="E9" s="5">
-        <v>43642</v>
+        <v>43643</v>
       </c>
       <c r="F9" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="14">
         <v>43642</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="5">
+        <v>43642</v>
+      </c>
       <c r="F10" s="6">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -825,47 +824,51 @@
     </row>
     <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="13"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="5">
+        <v>43642</v>
+      </c>
+      <c r="E11" s="5">
         <v>43643</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
       <c r="F11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5">
+        <v>43642</v>
+      </c>
+      <c r="D12" s="5">
+        <v>42548</v>
+      </c>
+      <c r="E12" s="5">
         <v>43643</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
       <c r="F12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="7" t="s">
-        <v>22</v>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C13" s="5">
-        <v>43644</v>
+        <v>43643</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -879,11 +882,11 @@
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="7" t="s">
-        <v>23</v>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="5">
-        <v>43644</v>
+        <v>43643</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -896,12 +899,12 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="5">
-        <v>43645</v>
+        <v>43644</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -914,11 +917,9 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>26</v>
+      <c r="A16" s="13"/>
+      <c r="B16" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C16" s="5">
         <v>43645</v>
@@ -934,9 +935,11 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5">
         <v>43645</v>
@@ -954,10 +957,10 @@
     <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="5">
-        <v>43646</v>
+        <v>43645</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -972,7 +975,7 @@
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="5">
         <v>43646</v>
@@ -990,10 +993,10 @@
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="5">
-        <v>43647</v>
+        <v>43646</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1006,12 +1009,12 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" s="5">
-        <v>43648</v>
+        <v>43647</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1024,11 +1027,13 @@
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="5">
+        <v>43648</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="6">
@@ -1039,15 +1044,21 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
+    <row r="23" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -1960,13 +1971,13 @@
       <c r="H114" s="9"/>
     </row>
     <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
       <c r="H115" s="9"/>
     </row>
     <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
@@ -2000,7 +2011,14 @@
       <c r="H118" s="9"/>
     </row>
     <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A119" s="9"/>
       <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
     </row>
     <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="9"/>
@@ -2011,17 +2029,24 @@
     <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B122" s="9"/>
     </row>
+    <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B123" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A4:A16"/>
+    <mergeCell ref="A17:A22"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G22" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2032,10 +2057,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2135,7 +2160,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
@@ -2293,12 +2318,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="5">
-        <v>43644</v>
+        <v>43645</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2311,17 +2336,21 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="11" t="s">
         <v>24</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C14" s="5">
         <v>43645</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="5">
+        <v>43642</v>
+      </c>
       <c r="F14" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>14</v>
@@ -2329,9 +2358,7 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
@@ -2356,14 +2383,12 @@
         <v>27</v>
       </c>
       <c r="C16" s="5">
-        <v>43645</v>
+        <v>43646</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="5">
-        <v>43642</v>
-      </c>
+      <c r="E16" s="4"/>
       <c r="F16" s="6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>14</v>
@@ -2394,7 +2419,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="5">
-        <v>43646</v>
+        <v>43647</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2407,12 +2432,12 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="5">
-        <v>43647</v>
+        <v>43648</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2425,13 +2450,11 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="5">
-        <v>43648</v>
-      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="6">
@@ -2442,21 +2465,15 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="4"/>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -3369,13 +3386,13 @@
       <c r="H112" s="9"/>
     </row>
     <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
     <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
@@ -3409,14 +3426,7 @@
       <c r="H116" s="9"/>
     </row>
     <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A117" s="9"/>
       <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
     </row>
     <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
@@ -3426,19 +3436,16 @@
     </row>
     <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="9"/>
-    </row>
-    <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B121" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G21" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3449,10 +3456,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3640,12 +3647,14 @@
         <v>43642</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="5">
+        <v>43642</v>
+      </c>
       <c r="F9" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -3658,9 +3667,11 @@
         <v>43643</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="5">
+        <v>43642</v>
+      </c>
       <c r="F10" s="6">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -3676,9 +3687,11 @@
         <v>43643</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="5">
+        <v>43642</v>
+      </c>
       <c r="F11" s="6">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>14</v>
@@ -3694,27 +3707,31 @@
         <v>43644</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="5">
+        <v>43643</v>
+      </c>
       <c r="F12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="5">
-        <v>43644</v>
+        <v>43645</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="5">
+        <v>43643</v>
+      </c>
       <c r="F13" s="6">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>14</v>
@@ -3722,9 +3739,11 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="11" t="s">
         <v>24</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C14" s="5">
         <v>43645</v>
@@ -3740,9 +3759,7 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
@@ -3765,7 +3782,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="5">
-        <v>43645</v>
+        <v>43646</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -3801,7 +3818,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="5">
-        <v>43646</v>
+        <v>43647</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -3814,12 +3831,12 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="5">
-        <v>43647</v>
+        <v>43648</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -3832,13 +3849,11 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="5">
-        <v>43648</v>
-      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="6">
@@ -3849,21 +3864,15 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="4"/>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -4776,13 +4785,13 @@
       <c r="H112" s="9"/>
     </row>
     <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
     <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
@@ -4816,14 +4825,7 @@
       <c r="H116" s="9"/>
     </row>
     <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A117" s="9"/>
       <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
     </row>
     <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
@@ -4833,19 +4835,16 @@
     </row>
     <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="9"/>
-    </row>
-    <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B121" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G21" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4856,10 +4855,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5103,12 +5102,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="5">
-        <v>43644</v>
+        <v>43645</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -5121,9 +5120,11 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="11" t="s">
         <v>24</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C14" s="5">
         <v>43645</v>
@@ -5139,9 +5140,7 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
@@ -5164,7 +5163,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="5">
-        <v>43645</v>
+        <v>43646</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -5200,7 +5199,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="5">
-        <v>43646</v>
+        <v>43647</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -5213,12 +5212,12 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="5">
-        <v>43647</v>
+        <v>43648</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -5231,13 +5230,11 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="5">
-        <v>43648</v>
-      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="6">
@@ -5248,21 +5245,15 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="4"/>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -6175,13 +6166,13 @@
       <c r="H112" s="9"/>
     </row>
     <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
     <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
@@ -6215,14 +6206,7 @@
       <c r="H116" s="9"/>
     </row>
     <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A117" s="9"/>
       <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
     </row>
     <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
@@ -6232,19 +6216,16 @@
     </row>
     <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="9"/>
-    </row>
-    <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B121" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G21" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6255,10 +6236,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6500,12 +6481,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="5">
-        <v>43644</v>
+        <v>43645</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -6518,9 +6499,11 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="11" t="s">
         <v>24</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C14" s="5">
         <v>43645</v>
@@ -6536,9 +6519,7 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
@@ -6561,7 +6542,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="5">
-        <v>43645</v>
+        <v>43646</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -6597,7 +6578,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="5">
-        <v>43646</v>
+        <v>43647</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -6610,12 +6591,12 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="5">
-        <v>43647</v>
+        <v>43648</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -6628,13 +6609,11 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="5">
-        <v>43648</v>
-      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="6">
@@ -6645,21 +6624,15 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="4"/>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -7572,13 +7545,13 @@
       <c r="H112" s="9"/>
     </row>
     <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
     <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
@@ -7612,14 +7585,7 @@
       <c r="H116" s="9"/>
     </row>
     <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A117" s="9"/>
       <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
     </row>
     <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
@@ -7629,19 +7595,16 @@
     </row>
     <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="9"/>
-    </row>
-    <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B121" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G21" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7652,10 +7615,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7897,12 +7860,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="5">
-        <v>43644</v>
+        <v>43645</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -7915,9 +7878,11 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="11" t="s">
         <v>24</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C14" s="5">
         <v>43645</v>
@@ -7933,9 +7898,7 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
@@ -7958,7 +7921,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="5">
-        <v>43645</v>
+        <v>43646</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -7994,7 +7957,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="5">
-        <v>43646</v>
+        <v>43647</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -8007,12 +7970,12 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="5">
-        <v>43647</v>
+        <v>43648</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -8025,13 +7988,11 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="5">
-        <v>43648</v>
-      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="6">
@@ -8042,21 +8003,15 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="4"/>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -8969,13 +8924,13 @@
       <c r="H112" s="9"/>
     </row>
     <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
     <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
@@ -9009,14 +8964,7 @@
       <c r="H116" s="9"/>
     </row>
     <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A117" s="9"/>
       <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
     </row>
     <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
@@ -9026,19 +8974,16 @@
     </row>
     <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="9"/>
-    </row>
-    <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B121" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G21" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9049,10 +8994,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9294,12 +9239,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="5">
-        <v>43644</v>
+        <v>43645</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -9312,9 +9257,11 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="11" t="s">
         <v>24</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C14" s="5">
         <v>43645</v>
@@ -9330,9 +9277,7 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
@@ -9355,7 +9300,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="5">
-        <v>43645</v>
+        <v>43646</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -9391,7 +9336,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="5">
-        <v>43646</v>
+        <v>43647</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -9404,12 +9349,12 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="5">
-        <v>43647</v>
+        <v>43648</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -9422,13 +9367,11 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="5">
-        <v>43648</v>
-      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="6">
@@ -9439,21 +9382,15 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="4"/>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -10366,13 +10303,13 @@
       <c r="H112" s="9"/>
     </row>
     <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
     <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
@@ -10406,14 +10343,7 @@
       <c r="H116" s="9"/>
     </row>
     <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A117" s="9"/>
       <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
     </row>
     <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
@@ -10423,19 +10353,16 @@
     </row>
     <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="9"/>
-    </row>
-    <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B121" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G21" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
+++ b/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\hgkj_02\卞虹霖\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5064EE03-5E3E-4A6B-94A8-733A1939E0DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04167EB-64DF-4C3F-A41A-96128580753B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2060,7 +2060,7 @@
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="A13:XFD13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4858,7 +4858,7 @@
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="A13:XFD13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6239,7 +6239,7 @@
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="A13:XFD13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7618,7 +7618,7 @@
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="A13:XFD13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8997,7 +8997,7 @@
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="A13:XFD13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
+++ b/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7800"/>
+    <workbookView windowWidth="20490" windowHeight="7800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="马涛" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">卞虹霖!$G$13:$G$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">卞虹霖!$G$13:$G$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">黄之贤!$G$12:$G$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">金懿!$G$12:$G$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">马涛!$G$12:$G$21</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="34">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -100,9 +100,6 @@
     <t>查询团购信息</t>
   </si>
   <si>
-    <t>添加团购信息</t>
-  </si>
-  <si>
     <t>修改团购信息</t>
   </si>
   <si>
@@ -129,16 +126,22 @@
   <si>
     <t>后期优化</t>
   </si>
+  <si>
+    <t>添加团购信息</t>
+  </si>
+  <si>
+    <t>设置团购信息</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -180,8 +183,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,22 +201,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -219,7 +215,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -235,15 +268,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,10 +289,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,37 +305,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -310,8 +312,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,13 +347,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,7 +377,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +443,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,127 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,7 +515,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,6 +593,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -605,11 +617,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,6 +638,30 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -648,45 +690,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -695,10 +698,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,133 +710,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
@@ -1209,10 +1212,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1422,7 +1425,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="7">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>14</v>
@@ -1440,7 +1443,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="7">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>14</v>
@@ -1458,7 +1461,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="7">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>14</v>
@@ -1476,7 +1479,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="7">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>14</v>
@@ -1484,17 +1487,17 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" ht="17.25" spans="1:8">
-      <c r="A14" s="9"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="6">
-        <v>43644</v>
+        <v>43645</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="7">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>14</v>
@@ -1502,9 +1505,11 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" ht="17.25" spans="1:8">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="6">
         <v>43645</v>
@@ -1520,9 +1525,7 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" ht="17.25" spans="1:8">
-      <c r="A16" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="A16" s="9"/>
       <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
@@ -1545,7 +1548,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="6">
-        <v>43645</v>
+        <v>43646</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1581,7 +1584,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="6">
-        <v>43646</v>
+        <v>43647</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1594,12 +1597,12 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" ht="17.25" spans="1:8">
-      <c r="A20" s="9"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="6">
-        <v>43647</v>
+        <v>43648</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1612,13 +1615,11 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" ht="17.25" spans="1:8">
-      <c r="A21" s="11"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="6">
-        <v>43648</v>
-      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="7">
@@ -1629,21 +1630,15 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" ht="17.25" spans="1:8">
-      <c r="A22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="5"/>
+    <row r="22" ht="16.5" spans="1:8">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" ht="16.5" spans="1:8">
       <c r="A23" s="12"/>
@@ -2556,13 +2551,13 @@
       <c r="H113" s="13"/>
     </row>
     <row r="114" ht="16.5" spans="1:8">
-      <c r="A114" s="12"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
+      <c r="A114" s="13"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
       <c r="H114" s="13"/>
     </row>
     <row r="115" ht="16.5" spans="1:8">
@@ -2595,15 +2590,8 @@
       <c r="G117" s="13"/>
       <c r="H117" s="13"/>
     </row>
-    <row r="118" ht="16.5" spans="1:8">
-      <c r="A118" s="13"/>
+    <row r="118" ht="16.5" spans="2:2">
       <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13"/>
     </row>
     <row r="119" ht="16.5" spans="2:2">
       <c r="B119" s="13"/>
@@ -2613,20 +2601,17 @@
     </row>
     <row r="121" ht="16.5" spans="2:2">
       <c r="B121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" spans="2:2">
-      <c r="B122" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="A15:A20"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G13 G14:G21">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2894,7 +2879,7 @@
     <row r="13" ht="17.25" spans="1:8">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C13" s="6">
         <v>43644</v>
@@ -2912,7 +2897,7 @@
     <row r="14" ht="17.25" spans="1:8">
       <c r="A14" s="11"/>
       <c r="B14" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="6">
         <v>43645</v>
@@ -2929,10 +2914,10 @@
     </row>
     <row r="15" ht="17.25" spans="1:8">
       <c r="A15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C15" s="6">
         <v>43645</v>
@@ -2950,7 +2935,7 @@
     <row r="16" ht="17.25" spans="1:8">
       <c r="A16" s="9"/>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6">
         <v>43645</v>
@@ -2968,7 +2953,7 @@
     <row r="17" ht="17.25" spans="1:8">
       <c r="A17" s="9"/>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="6">
         <v>43646</v>
@@ -2986,7 +2971,7 @@
     <row r="18" ht="17.25" spans="1:8">
       <c r="A18" s="9"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="6">
         <v>43646</v>
@@ -3004,7 +2989,7 @@
     <row r="19" ht="17.25" spans="1:8">
       <c r="A19" s="9"/>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="6">
         <v>43647</v>
@@ -3022,7 +3007,7 @@
     <row r="20" ht="17.25" spans="1:8">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="6">
         <v>43648</v>
@@ -3039,7 +3024,7 @@
     </row>
     <row r="21" ht="17.25" spans="1:8">
       <c r="A21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -4047,8 +4032,8 @@
   <sheetPr/>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4160,7 +4145,7 @@
         <v>43641</v>
       </c>
       <c r="F5" s="7">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>14</v>
@@ -4180,7 +4165,7 @@
         <v>43641</v>
       </c>
       <c r="F6" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>14</v>
@@ -4200,7 +4185,7 @@
         <v>43641</v>
       </c>
       <c r="F7" s="7">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>14</v>
@@ -4220,7 +4205,7 @@
         <v>43641</v>
       </c>
       <c r="F8" s="7">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>14</v>
@@ -4238,7 +4223,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>14</v>
@@ -4256,7 +4241,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>14</v>
@@ -4274,7 +4259,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="7">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>14</v>
@@ -4292,7 +4277,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>14</v>
@@ -4302,7 +4287,7 @@
     <row r="13" ht="17.25" spans="1:8">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C13" s="6">
         <v>43644</v>
@@ -4310,7 +4295,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>14</v>
@@ -4320,7 +4305,7 @@
     <row r="14" ht="17.25" spans="1:8">
       <c r="A14" s="11"/>
       <c r="B14" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="6">
         <v>43645</v>
@@ -4328,7 +4313,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>14</v>
@@ -4337,10 +4322,10 @@
     </row>
     <row r="15" ht="17.25" spans="1:8">
       <c r="A15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C15" s="6">
         <v>43645</v>
@@ -4348,7 +4333,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="7">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>14</v>
@@ -4358,7 +4343,7 @@
     <row r="16" ht="17.25" spans="1:8">
       <c r="A16" s="9"/>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6">
         <v>43645</v>
@@ -4376,7 +4361,7 @@
     <row r="17" ht="17.25" spans="1:8">
       <c r="A17" s="9"/>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="6">
         <v>43646</v>
@@ -4394,7 +4379,7 @@
     <row r="18" ht="17.25" spans="1:8">
       <c r="A18" s="9"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="6">
         <v>43646</v>
@@ -4412,7 +4397,7 @@
     <row r="19" ht="17.25" spans="1:8">
       <c r="A19" s="9"/>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="6">
         <v>43647</v>
@@ -4430,7 +4415,7 @@
     <row r="20" ht="17.25" spans="1:8">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="6">
         <v>43648</v>
@@ -4447,7 +4432,7 @@
     </row>
     <row r="21" ht="17.25" spans="1:8">
       <c r="A21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -5702,7 +5687,7 @@
     <row r="13" ht="17.25" spans="1:8">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C13" s="6">
         <v>43644</v>
@@ -5720,7 +5705,7 @@
     <row r="14" ht="17.25" spans="1:8">
       <c r="A14" s="11"/>
       <c r="B14" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="6">
         <v>43645</v>
@@ -5737,10 +5722,10 @@
     </row>
     <row r="15" ht="17.25" spans="1:8">
       <c r="A15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C15" s="6">
         <v>43645</v>
@@ -5758,7 +5743,7 @@
     <row r="16" ht="17.25" spans="1:8">
       <c r="A16" s="9"/>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6">
         <v>43645</v>
@@ -5776,7 +5761,7 @@
     <row r="17" ht="17.25" spans="1:8">
       <c r="A17" s="9"/>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="6">
         <v>43646</v>
@@ -5794,7 +5779,7 @@
     <row r="18" ht="17.25" spans="1:8">
       <c r="A18" s="9"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="6">
         <v>43646</v>
@@ -5812,7 +5797,7 @@
     <row r="19" ht="17.25" spans="1:8">
       <c r="A19" s="9"/>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="6">
         <v>43647</v>
@@ -5830,7 +5815,7 @@
     <row r="20" ht="17.25" spans="1:8">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="6">
         <v>43648</v>
@@ -5847,7 +5832,7 @@
     </row>
     <row r="21" ht="17.25" spans="1:8">
       <c r="A21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -7100,7 +7085,7 @@
     <row r="13" ht="17.25" spans="1:8">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C13" s="6">
         <v>43644</v>
@@ -7118,7 +7103,7 @@
     <row r="14" ht="17.25" spans="1:8">
       <c r="A14" s="11"/>
       <c r="B14" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="6">
         <v>43645</v>
@@ -7135,10 +7120,10 @@
     </row>
     <row r="15" ht="17.25" spans="1:8">
       <c r="A15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C15" s="6">
         <v>43645</v>
@@ -7156,7 +7141,7 @@
     <row r="16" ht="17.25" spans="1:8">
       <c r="A16" s="9"/>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6">
         <v>43645</v>
@@ -7174,7 +7159,7 @@
     <row r="17" ht="17.25" spans="1:8">
       <c r="A17" s="9"/>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="6">
         <v>43646</v>
@@ -7192,7 +7177,7 @@
     <row r="18" ht="17.25" spans="1:8">
       <c r="A18" s="9"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="6">
         <v>43646</v>
@@ -7210,7 +7195,7 @@
     <row r="19" ht="17.25" spans="1:8">
       <c r="A19" s="9"/>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="6">
         <v>43647</v>
@@ -7228,7 +7213,7 @@
     <row r="20" ht="17.25" spans="1:8">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="6">
         <v>43648</v>
@@ -7245,7 +7230,7 @@
     </row>
     <row r="21" ht="17.25" spans="1:8">
       <c r="A21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -8498,7 +8483,7 @@
     <row r="13" ht="17.25" spans="1:8">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C13" s="6">
         <v>43644</v>
@@ -8516,7 +8501,7 @@
     <row r="14" ht="17.25" spans="1:8">
       <c r="A14" s="11"/>
       <c r="B14" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="6">
         <v>43645</v>
@@ -8533,10 +8518,10 @@
     </row>
     <row r="15" ht="17.25" spans="1:8">
       <c r="A15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C15" s="6">
         <v>43645</v>
@@ -8554,7 +8539,7 @@
     <row r="16" ht="17.25" spans="1:8">
       <c r="A16" s="9"/>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6">
         <v>43645</v>
@@ -8572,7 +8557,7 @@
     <row r="17" ht="17.25" spans="1:8">
       <c r="A17" s="9"/>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="6">
         <v>43646</v>
@@ -8590,7 +8575,7 @@
     <row r="18" ht="17.25" spans="1:8">
       <c r="A18" s="9"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="6">
         <v>43646</v>
@@ -8608,7 +8593,7 @@
     <row r="19" ht="17.25" spans="1:8">
       <c r="A19" s="9"/>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="6">
         <v>43647</v>
@@ -8626,7 +8611,7 @@
     <row r="20" ht="17.25" spans="1:8">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="6">
         <v>43648</v>
@@ -8643,7 +8628,7 @@
     </row>
     <row r="21" ht="17.25" spans="1:8">
       <c r="A21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -9896,7 +9881,7 @@
     <row r="13" ht="17.25" spans="1:8">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C13" s="6">
         <v>43644</v>
@@ -9914,7 +9899,7 @@
     <row r="14" ht="17.25" spans="1:8">
       <c r="A14" s="11"/>
       <c r="B14" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="6">
         <v>43645</v>
@@ -9931,10 +9916,10 @@
     </row>
     <row r="15" ht="17.25" spans="1:8">
       <c r="A15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C15" s="6">
         <v>43645</v>
@@ -9952,7 +9937,7 @@
     <row r="16" ht="17.25" spans="1:8">
       <c r="A16" s="9"/>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6">
         <v>43645</v>
@@ -9970,7 +9955,7 @@
     <row r="17" ht="17.25" spans="1:8">
       <c r="A17" s="9"/>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="6">
         <v>43646</v>
@@ -9988,7 +9973,7 @@
     <row r="18" ht="17.25" spans="1:8">
       <c r="A18" s="9"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="6">
         <v>43646</v>
@@ -10006,7 +9991,7 @@
     <row r="19" ht="17.25" spans="1:8">
       <c r="A19" s="9"/>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="6">
         <v>43647</v>
@@ -10024,7 +10009,7 @@
     <row r="20" ht="17.25" spans="1:8">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="6">
         <v>43648</v>
@@ -10041,7 +10026,7 @@
     </row>
     <row r="21" ht="17.25" spans="1:8">
       <c r="A21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>

--- a/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
+++ b/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\hgkj_02\卞虹霖\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04167EB-64DF-4C3F-A41A-96128580753B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D159C7E8-F0FB-4CF9-8151-48504137C17A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -603,7 +603,7 @@
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -871,9 +871,11 @@
         <v>43643</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="5">
+        <v>43644</v>
+      </c>
       <c r="F13" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>14</v>
@@ -889,9 +891,11 @@
         <v>43643</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="5">
+        <v>43644</v>
+      </c>
       <c r="F14" s="6">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>14</v>

--- a/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
+++ b/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\hgkj_02\卞虹霖\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D159C7E8-F0FB-4CF9-8151-48504137C17A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="35">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -136,12 +130,20 @@
     <t>未做验证码</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,7 +329,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -599,14 +601,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -618,7 +620,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -630,7 +632,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -656,7 +658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -680,7 +682,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -702,7 +704,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="15"/>
@@ -720,7 +722,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -742,7 +744,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -764,7 +766,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="12"/>
       <c r="B8" s="11" t="s">
         <v>17</v>
@@ -784,7 +786,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="15"/>
@@ -802,7 +804,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="12"/>
       <c r="B10" s="11" t="s">
         <v>18</v>
@@ -822,7 +824,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="15"/>
@@ -840,7 +842,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
@@ -862,7 +864,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
         <v>20</v>
@@ -882,7 +884,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="12"/>
       <c r="B14" s="4" t="s">
         <v>21</v>
@@ -902,7 +904,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="12"/>
       <c r="B15" s="7" t="s">
         <v>22</v>
@@ -920,7 +922,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="13"/>
       <c r="B16" s="7" t="s">
         <v>23</v>
@@ -938,7 +940,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="11" t="s">
         <v>24</v>
       </c>
@@ -958,7 +960,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>26</v>
@@ -976,7 +978,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="12"/>
       <c r="B19" s="4" t="s">
         <v>27</v>
@@ -994,7 +996,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="12"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
@@ -1012,7 +1014,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="16.8">
       <c r="A21" s="12"/>
       <c r="B21" s="4" t="s">
         <v>29</v>
@@ -1030,7 +1032,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="16.8">
       <c r="A22" s="13"/>
       <c r="B22" s="4" t="s">
         <v>30</v>
@@ -1048,7 +1050,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="16.8">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
@@ -1064,7 +1066,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1074,7 +1076,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1084,7 +1086,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1094,7 +1096,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1104,7 +1106,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1114,7 +1116,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1124,7 +1126,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1134,7 +1136,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1144,7 +1146,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1154,7 +1156,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1164,7 +1166,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1174,7 +1176,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1184,7 +1186,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1194,7 +1196,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -1204,7 +1206,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -1214,7 +1216,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -1224,7 +1226,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -1234,7 +1236,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -1244,7 +1246,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1254,7 +1256,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -1264,7 +1266,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -1274,7 +1276,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -1284,7 +1286,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -1294,7 +1296,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -1304,7 +1306,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -1314,7 +1316,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -1324,7 +1326,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -1334,7 +1336,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -1344,7 +1346,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -1354,7 +1356,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -1364,7 +1366,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -1374,7 +1376,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -1384,7 +1386,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -1394,7 +1396,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -1404,7 +1406,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -1414,7 +1416,7 @@
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -1424,7 +1426,7 @@
       <c r="G59" s="8"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -1434,7 +1436,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -1444,7 +1446,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -1454,7 +1456,7 @@
       <c r="G62" s="8"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -1464,7 +1466,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -1474,7 +1476,7 @@
       <c r="G64" s="8"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -1484,7 +1486,7 @@
       <c r="G65" s="8"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -1494,7 +1496,7 @@
       <c r="G66" s="8"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -1504,7 +1506,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -1514,7 +1516,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -1524,7 +1526,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -1534,7 +1536,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -1544,7 +1546,7 @@
       <c r="G71" s="8"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -1554,7 +1556,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -1564,7 +1566,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -1574,7 +1576,7 @@
       <c r="G74" s="8"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -1584,7 +1586,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -1594,7 +1596,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -1604,7 +1606,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -1614,7 +1616,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -1624,7 +1626,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -1634,7 +1636,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -1644,7 +1646,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -1654,7 +1656,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -1664,7 +1666,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -1674,7 +1676,7 @@
       <c r="G84" s="8"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -1684,7 +1686,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -1694,7 +1696,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -1704,7 +1706,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -1714,7 +1716,7 @@
       <c r="G88" s="8"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -1724,7 +1726,7 @@
       <c r="G89" s="8"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -1734,7 +1736,7 @@
       <c r="G90" s="8"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -1744,7 +1746,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -1754,7 +1756,7 @@
       <c r="G92" s="8"/>
       <c r="H92" s="9"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -1764,7 +1766,7 @@
       <c r="G93" s="8"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -1774,7 +1776,7 @@
       <c r="G94" s="8"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -1784,7 +1786,7 @@
       <c r="G95" s="8"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -1794,7 +1796,7 @@
       <c r="G96" s="8"/>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -1804,7 +1806,7 @@
       <c r="G97" s="8"/>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -1814,7 +1816,7 @@
       <c r="G98" s="8"/>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -1824,7 +1826,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -1834,7 +1836,7 @@
       <c r="G100" s="8"/>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -1844,7 +1846,7 @@
       <c r="G101" s="8"/>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -1854,7 +1856,7 @@
       <c r="G102" s="8"/>
       <c r="H102" s="9"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -1864,7 +1866,7 @@
       <c r="G103" s="8"/>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -1874,7 +1876,7 @@
       <c r="G104" s="8"/>
       <c r="H104" s="9"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -1884,7 +1886,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -1894,7 +1896,7 @@
       <c r="G106" s="8"/>
       <c r="H106" s="9"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -1904,7 +1906,7 @@
       <c r="G107" s="8"/>
       <c r="H107" s="9"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -1914,7 +1916,7 @@
       <c r="G108" s="8"/>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -1924,7 +1926,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -1934,7 +1936,7 @@
       <c r="G110" s="8"/>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -1944,7 +1946,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -1954,7 +1956,7 @@
       <c r="G112" s="8"/>
       <c r="H112" s="9"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -1964,7 +1966,7 @@
       <c r="G113" s="8"/>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -1974,7 +1976,7 @@
       <c r="G114" s="8"/>
       <c r="H114" s="9"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -1984,7 +1986,7 @@
       <c r="G115" s="8"/>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -1994,7 +1996,7 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -2004,7 +2006,7 @@
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -2014,7 +2016,7 @@
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -2024,16 +2026,16 @@
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="B120" s="9"/>
     </row>
-    <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="15.6">
       <c r="B121" s="9"/>
     </row>
-    <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="15.6">
       <c r="B122" s="9"/>
     </row>
-    <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="15.6">
       <c r="B123" s="9"/>
     </row>
   </sheetData>
@@ -2050,7 +2052,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G23">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2060,14 +2062,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -2079,7 +2081,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2091,7 +2093,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2117,7 +2119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2141,7 +2143,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -2167,7 +2169,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -2187,7 +2189,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -2209,7 +2211,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -2229,7 +2231,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -2247,7 +2249,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -2267,7 +2269,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -2285,7 +2287,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -2303,7 +2305,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="12"/>
       <c r="B12" s="7" t="s">
         <v>22</v>
@@ -2321,7 +2323,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="13"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
@@ -2339,7 +2341,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
@@ -2361,7 +2363,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -2381,7 +2383,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -2399,7 +2401,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -2417,7 +2419,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -2435,7 +2437,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="13"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -2453,7 +2455,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -2469,7 +2471,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -2479,7 +2481,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -2489,7 +2491,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2499,7 +2501,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -2509,7 +2511,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2519,7 +2521,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -2529,7 +2531,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -2539,7 +2541,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -2549,7 +2551,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -2559,7 +2561,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -2569,7 +2571,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2579,7 +2581,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2589,7 +2591,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2599,7 +2601,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -2609,7 +2611,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -2619,7 +2621,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -2629,7 +2631,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -2639,7 +2641,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -2649,7 +2651,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2659,7 +2661,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -2669,7 +2671,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -2679,7 +2681,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2689,7 +2691,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -2699,7 +2701,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -2709,7 +2711,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2719,7 +2721,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -2729,7 +2731,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -2739,7 +2741,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2749,7 +2751,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -2759,7 +2761,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -2769,7 +2771,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -2779,7 +2781,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -2789,7 +2791,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -2799,7 +2801,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -2809,7 +2811,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -2819,7 +2821,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -2829,7 +2831,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -2839,7 +2841,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -2849,7 +2851,7 @@
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -2859,7 +2861,7 @@
       <c r="G59" s="8"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -2869,7 +2871,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -2879,7 +2881,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -2889,7 +2891,7 @@
       <c r="G62" s="8"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -2899,7 +2901,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -2909,7 +2911,7 @@
       <c r="G64" s="8"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -2919,7 +2921,7 @@
       <c r="G65" s="8"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -2929,7 +2931,7 @@
       <c r="G66" s="8"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -2939,7 +2941,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -2949,7 +2951,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -2959,7 +2961,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -2969,7 +2971,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -2979,7 +2981,7 @@
       <c r="G71" s="8"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -2989,7 +2991,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -2999,7 +3001,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -3009,7 +3011,7 @@
       <c r="G74" s="8"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -3019,7 +3021,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -3029,7 +3031,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -3039,7 +3041,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -3049,7 +3051,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -3059,7 +3061,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -3069,7 +3071,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -3079,7 +3081,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -3089,7 +3091,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -3099,7 +3101,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -3109,7 +3111,7 @@
       <c r="G84" s="8"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -3119,7 +3121,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -3129,7 +3131,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -3139,7 +3141,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -3149,7 +3151,7 @@
       <c r="G88" s="8"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -3159,7 +3161,7 @@
       <c r="G89" s="8"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -3169,7 +3171,7 @@
       <c r="G90" s="8"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -3179,7 +3181,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -3189,7 +3191,7 @@
       <c r="G92" s="8"/>
       <c r="H92" s="9"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -3199,7 +3201,7 @@
       <c r="G93" s="8"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -3209,7 +3211,7 @@
       <c r="G94" s="8"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -3219,7 +3221,7 @@
       <c r="G95" s="8"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -3229,7 +3231,7 @@
       <c r="G96" s="8"/>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -3239,7 +3241,7 @@
       <c r="G97" s="8"/>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -3249,7 +3251,7 @@
       <c r="G98" s="8"/>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -3259,7 +3261,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -3269,7 +3271,7 @@
       <c r="G100" s="8"/>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -3279,7 +3281,7 @@
       <c r="G101" s="8"/>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -3289,7 +3291,7 @@
       <c r="G102" s="8"/>
       <c r="H102" s="9"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -3299,7 +3301,7 @@
       <c r="G103" s="8"/>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -3309,7 +3311,7 @@
       <c r="G104" s="8"/>
       <c r="H104" s="9"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -3319,7 +3321,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -3329,7 +3331,7 @@
       <c r="G106" s="8"/>
       <c r="H106" s="9"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -3339,7 +3341,7 @@
       <c r="G107" s="8"/>
       <c r="H107" s="9"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -3349,7 +3351,7 @@
       <c r="G108" s="8"/>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -3359,7 +3361,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -3369,7 +3371,7 @@
       <c r="G110" s="8"/>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -3379,7 +3381,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -3389,7 +3391,7 @@
       <c r="G112" s="8"/>
       <c r="H112" s="9"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -3399,7 +3401,7 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -3409,7 +3411,7 @@
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -3419,7 +3421,7 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -3429,16 +3431,16 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="B117" s="9"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="B118" s="9"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="B119" s="9"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="B120" s="9"/>
     </row>
   </sheetData>
@@ -3449,7 +3451,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3459,14 +3461,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -3478,7 +3480,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3490,7 +3492,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3516,7 +3518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -3540,7 +3542,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -3562,7 +3564,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -3582,7 +3584,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -3602,7 +3604,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -3622,7 +3624,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -3642,7 +3644,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -3662,7 +3664,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -3682,7 +3684,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -3702,7 +3704,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="12"/>
       <c r="B12" s="7" t="s">
         <v>22</v>
@@ -3722,7 +3724,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="13"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
@@ -3742,7 +3744,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
@@ -3762,7 +3764,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -3780,7 +3782,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -3798,7 +3800,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -3816,7 +3818,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -3834,7 +3836,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="13"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -3852,7 +3854,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -3868,7 +3870,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -3878,7 +3880,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3888,7 +3890,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -3898,7 +3900,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -3908,7 +3910,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3918,7 +3920,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3928,7 +3930,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3938,7 +3940,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -3948,7 +3950,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -3958,7 +3960,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -3968,7 +3970,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -3978,7 +3980,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -3988,7 +3990,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -3998,7 +4000,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -4008,7 +4010,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -4018,7 +4020,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -4028,7 +4030,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -4038,7 +4040,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -4048,7 +4050,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -4058,7 +4060,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -4068,7 +4070,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -4078,7 +4080,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4088,7 +4090,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -4098,7 +4100,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -4108,7 +4110,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -4118,7 +4120,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -4128,7 +4130,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -4138,7 +4140,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -4148,7 +4150,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -4158,7 +4160,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -4168,7 +4170,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -4178,7 +4180,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -4188,7 +4190,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -4198,7 +4200,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -4208,7 +4210,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -4218,7 +4220,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -4228,7 +4230,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -4238,7 +4240,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -4248,7 +4250,7 @@
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -4258,7 +4260,7 @@
       <c r="G59" s="8"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -4268,7 +4270,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -4278,7 +4280,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -4288,7 +4290,7 @@
       <c r="G62" s="8"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -4298,7 +4300,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -4308,7 +4310,7 @@
       <c r="G64" s="8"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -4318,7 +4320,7 @@
       <c r="G65" s="8"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -4328,7 +4330,7 @@
       <c r="G66" s="8"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -4338,7 +4340,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -4348,7 +4350,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -4358,7 +4360,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -4368,7 +4370,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -4378,7 +4380,7 @@
       <c r="G71" s="8"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -4388,7 +4390,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -4398,7 +4400,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -4408,7 +4410,7 @@
       <c r="G74" s="8"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -4418,7 +4420,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -4428,7 +4430,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -4438,7 +4440,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -4448,7 +4450,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -4458,7 +4460,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -4468,7 +4470,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -4478,7 +4480,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -4488,7 +4490,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -4498,7 +4500,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -4508,7 +4510,7 @@
       <c r="G84" s="8"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -4518,7 +4520,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -4528,7 +4530,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -4538,7 +4540,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -4548,7 +4550,7 @@
       <c r="G88" s="8"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -4558,7 +4560,7 @@
       <c r="G89" s="8"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -4568,7 +4570,7 @@
       <c r="G90" s="8"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -4578,7 +4580,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -4588,7 +4590,7 @@
       <c r="G92" s="8"/>
       <c r="H92" s="9"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -4598,7 +4600,7 @@
       <c r="G93" s="8"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -4608,7 +4610,7 @@
       <c r="G94" s="8"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -4618,7 +4620,7 @@
       <c r="G95" s="8"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -4628,7 +4630,7 @@
       <c r="G96" s="8"/>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -4638,7 +4640,7 @@
       <c r="G97" s="8"/>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -4648,7 +4650,7 @@
       <c r="G98" s="8"/>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -4658,7 +4660,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -4668,7 +4670,7 @@
       <c r="G100" s="8"/>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -4678,7 +4680,7 @@
       <c r="G101" s="8"/>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -4688,7 +4690,7 @@
       <c r="G102" s="8"/>
       <c r="H102" s="9"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -4698,7 +4700,7 @@
       <c r="G103" s="8"/>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -4708,7 +4710,7 @@
       <c r="G104" s="8"/>
       <c r="H104" s="9"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -4718,7 +4720,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -4728,7 +4730,7 @@
       <c r="G106" s="8"/>
       <c r="H106" s="9"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -4738,7 +4740,7 @@
       <c r="G107" s="8"/>
       <c r="H107" s="9"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -4748,7 +4750,7 @@
       <c r="G108" s="8"/>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -4758,7 +4760,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -4768,7 +4770,7 @@
       <c r="G110" s="8"/>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -4778,7 +4780,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -4788,7 +4790,7 @@
       <c r="G112" s="8"/>
       <c r="H112" s="9"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -4798,7 +4800,7 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -4808,7 +4810,7 @@
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -4818,7 +4820,7 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -4828,16 +4830,16 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="B117" s="9"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="B118" s="9"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="B119" s="9"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="B120" s="9"/>
     </row>
   </sheetData>
@@ -4848,7 +4850,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4858,14 +4860,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -4877,7 +4879,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -4889,7 +4891,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4915,7 +4917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -4939,7 +4941,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -4954,14 +4956,14 @@
         <v>43640</v>
       </c>
       <c r="F4" s="6">
-        <v>0.35</v>
+        <v>0.99</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -4972,14 +4974,14 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -4990,14 +4992,14 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -5015,7 +5017,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -5033,7 +5035,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -5044,14 +5046,14 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -5069,7 +5071,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -5087,7 +5089,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="12"/>
       <c r="B12" s="7" t="s">
         <v>22</v>
@@ -5105,7 +5107,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="13"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
@@ -5123,7 +5125,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
@@ -5143,7 +5145,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -5161,7 +5163,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -5179,7 +5181,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -5197,7 +5199,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -5215,7 +5217,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="13"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -5233,7 +5235,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -5249,7 +5251,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -5259,7 +5261,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -5269,7 +5271,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -5279,7 +5281,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -5289,7 +5291,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -5299,7 +5301,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -5309,7 +5311,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -5319,7 +5321,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -5329,7 +5331,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -5339,7 +5341,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -5349,7 +5351,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -5359,7 +5361,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -5369,7 +5371,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -5379,7 +5381,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -5389,7 +5391,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -5399,7 +5401,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -5409,7 +5411,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -5419,7 +5421,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -5429,7 +5431,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -5439,7 +5441,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -5449,7 +5451,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -5459,7 +5461,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -5469,7 +5471,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -5479,7 +5481,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -5489,7 +5491,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -5499,7 +5501,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -5509,7 +5511,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -5519,7 +5521,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -5529,7 +5531,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -5539,7 +5541,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -5549,7 +5551,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -5559,7 +5561,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -5569,7 +5571,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -5579,7 +5581,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -5589,7 +5591,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -5599,7 +5601,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -5609,7 +5611,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -5619,7 +5621,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -5629,7 +5631,7 @@
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -5639,7 +5641,7 @@
       <c r="G59" s="8"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -5649,7 +5651,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -5659,7 +5661,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -5669,7 +5671,7 @@
       <c r="G62" s="8"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -5679,7 +5681,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -5689,7 +5691,7 @@
       <c r="G64" s="8"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -5699,7 +5701,7 @@
       <c r="G65" s="8"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -5709,7 +5711,7 @@
       <c r="G66" s="8"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -5719,7 +5721,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -5729,7 +5731,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -5739,7 +5741,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -5749,7 +5751,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -5759,7 +5761,7 @@
       <c r="G71" s="8"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -5769,7 +5771,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -5779,7 +5781,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -5789,7 +5791,7 @@
       <c r="G74" s="8"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -5799,7 +5801,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -5809,7 +5811,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -5819,7 +5821,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -5829,7 +5831,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -5839,7 +5841,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -5849,7 +5851,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -5859,7 +5861,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -5869,7 +5871,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -5879,7 +5881,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -5889,7 +5891,7 @@
       <c r="G84" s="8"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -5899,7 +5901,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -5909,7 +5911,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -5919,7 +5921,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -5929,7 +5931,7 @@
       <c r="G88" s="8"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -5939,7 +5941,7 @@
       <c r="G89" s="8"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -5949,7 +5951,7 @@
       <c r="G90" s="8"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -5959,7 +5961,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -5969,7 +5971,7 @@
       <c r="G92" s="8"/>
       <c r="H92" s="9"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -5979,7 +5981,7 @@
       <c r="G93" s="8"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -5989,7 +5991,7 @@
       <c r="G94" s="8"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -5999,7 +6001,7 @@
       <c r="G95" s="8"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -6009,7 +6011,7 @@
       <c r="G96" s="8"/>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -6019,7 +6021,7 @@
       <c r="G97" s="8"/>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -6029,7 +6031,7 @@
       <c r="G98" s="8"/>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -6039,7 +6041,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -6049,7 +6051,7 @@
       <c r="G100" s="8"/>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -6059,7 +6061,7 @@
       <c r="G101" s="8"/>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -6069,7 +6071,7 @@
       <c r="G102" s="8"/>
       <c r="H102" s="9"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -6079,7 +6081,7 @@
       <c r="G103" s="8"/>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -6089,7 +6091,7 @@
       <c r="G104" s="8"/>
       <c r="H104" s="9"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -6099,7 +6101,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -6109,7 +6111,7 @@
       <c r="G106" s="8"/>
       <c r="H106" s="9"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -6119,7 +6121,7 @@
       <c r="G107" s="8"/>
       <c r="H107" s="9"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -6129,7 +6131,7 @@
       <c r="G108" s="8"/>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -6139,7 +6141,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -6149,7 +6151,7 @@
       <c r="G110" s="8"/>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -6159,7 +6161,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -6169,7 +6171,7 @@
       <c r="G112" s="8"/>
       <c r="H112" s="9"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -6179,7 +6181,7 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -6189,7 +6191,7 @@
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -6199,7 +6201,7 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -6209,16 +6211,16 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="B117" s="9"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="B118" s="9"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="B119" s="9"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="B120" s="9"/>
     </row>
   </sheetData>
@@ -6229,7 +6231,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6239,14 +6241,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -6258,7 +6260,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -6270,7 +6272,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6296,7 +6298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -6320,7 +6322,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -6340,7 +6342,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -6358,7 +6360,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -6376,7 +6378,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -6394,7 +6396,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -6412,7 +6414,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -6430,7 +6432,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -6448,7 +6450,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -6466,7 +6468,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="12"/>
       <c r="B12" s="7" t="s">
         <v>22</v>
@@ -6484,7 +6486,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="13"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
@@ -6502,7 +6504,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
@@ -6522,7 +6524,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -6540,7 +6542,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -6558,7 +6560,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -6576,7 +6578,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -6594,7 +6596,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="13"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -6612,7 +6614,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -6628,7 +6630,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -6638,7 +6640,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -6648,7 +6650,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -6658,7 +6660,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -6668,7 +6670,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -6678,7 +6680,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -6688,7 +6690,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -6698,7 +6700,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -6708,7 +6710,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -6718,7 +6720,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -6728,7 +6730,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -6738,7 +6740,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -6748,7 +6750,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -6758,7 +6760,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -6768,7 +6770,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -6778,7 +6780,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -6788,7 +6790,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -6798,7 +6800,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -6808,7 +6810,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -6818,7 +6820,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -6828,7 +6830,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -6838,7 +6840,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -6848,7 +6850,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -6858,7 +6860,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -6868,7 +6870,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -6878,7 +6880,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -6888,7 +6890,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -6898,7 +6900,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -6908,7 +6910,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -6918,7 +6920,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -6928,7 +6930,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -6938,7 +6940,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -6948,7 +6950,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -6958,7 +6960,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -6968,7 +6970,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -6978,7 +6980,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -6988,7 +6990,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -6998,7 +7000,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -7008,7 +7010,7 @@
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -7018,7 +7020,7 @@
       <c r="G59" s="8"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -7028,7 +7030,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -7038,7 +7040,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -7048,7 +7050,7 @@
       <c r="G62" s="8"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -7058,7 +7060,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -7068,7 +7070,7 @@
       <c r="G64" s="8"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -7078,7 +7080,7 @@
       <c r="G65" s="8"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -7088,7 +7090,7 @@
       <c r="G66" s="8"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -7098,7 +7100,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -7108,7 +7110,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -7118,7 +7120,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -7128,7 +7130,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -7138,7 +7140,7 @@
       <c r="G71" s="8"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -7148,7 +7150,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -7158,7 +7160,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -7168,7 +7170,7 @@
       <c r="G74" s="8"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -7178,7 +7180,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -7188,7 +7190,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -7198,7 +7200,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -7208,7 +7210,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -7218,7 +7220,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -7228,7 +7230,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -7238,7 +7240,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -7248,7 +7250,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -7258,7 +7260,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -7268,7 +7270,7 @@
       <c r="G84" s="8"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -7278,7 +7280,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -7288,7 +7290,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -7298,7 +7300,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -7308,7 +7310,7 @@
       <c r="G88" s="8"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -7318,7 +7320,7 @@
       <c r="G89" s="8"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -7328,7 +7330,7 @@
       <c r="G90" s="8"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -7338,7 +7340,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -7348,7 +7350,7 @@
       <c r="G92" s="8"/>
       <c r="H92" s="9"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -7358,7 +7360,7 @@
       <c r="G93" s="8"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -7368,7 +7370,7 @@
       <c r="G94" s="8"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -7378,7 +7380,7 @@
       <c r="G95" s="8"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -7388,7 +7390,7 @@
       <c r="G96" s="8"/>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -7398,7 +7400,7 @@
       <c r="G97" s="8"/>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -7408,7 +7410,7 @@
       <c r="G98" s="8"/>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -7418,7 +7420,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -7428,7 +7430,7 @@
       <c r="G100" s="8"/>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -7438,7 +7440,7 @@
       <c r="G101" s="8"/>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -7448,7 +7450,7 @@
       <c r="G102" s="8"/>
       <c r="H102" s="9"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -7458,7 +7460,7 @@
       <c r="G103" s="8"/>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -7468,7 +7470,7 @@
       <c r="G104" s="8"/>
       <c r="H104" s="9"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -7478,7 +7480,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -7488,7 +7490,7 @@
       <c r="G106" s="8"/>
       <c r="H106" s="9"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -7498,7 +7500,7 @@
       <c r="G107" s="8"/>
       <c r="H107" s="9"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -7508,7 +7510,7 @@
       <c r="G108" s="8"/>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -7518,7 +7520,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -7528,7 +7530,7 @@
       <c r="G110" s="8"/>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -7538,7 +7540,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -7548,7 +7550,7 @@
       <c r="G112" s="8"/>
       <c r="H112" s="9"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -7558,7 +7560,7 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -7568,7 +7570,7 @@
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -7578,7 +7580,7 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -7588,16 +7590,16 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="B117" s="9"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="B118" s="9"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="B119" s="9"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="B120" s="9"/>
     </row>
   </sheetData>
@@ -7608,7 +7610,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7618,14 +7620,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -7637,7 +7639,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -7649,7 +7651,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7675,7 +7677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -7699,7 +7701,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -7719,7 +7721,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -7737,7 +7739,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -7755,7 +7757,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -7773,7 +7775,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -7791,7 +7793,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -7809,7 +7811,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -7827,7 +7829,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -7845,7 +7847,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="12"/>
       <c r="B12" s="7" t="s">
         <v>22</v>
@@ -7863,7 +7865,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="13"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
@@ -7881,7 +7883,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
@@ -7901,7 +7903,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -7919,7 +7921,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -7937,7 +7939,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -7955,7 +7957,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -7973,7 +7975,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="13"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -7991,7 +7993,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -8007,7 +8009,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -8017,7 +8019,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -8027,7 +8029,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -8037,7 +8039,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -8047,7 +8049,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -8057,7 +8059,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -8067,7 +8069,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -8077,7 +8079,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -8087,7 +8089,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -8097,7 +8099,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -8107,7 +8109,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -8117,7 +8119,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -8127,7 +8129,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -8137,7 +8139,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -8147,7 +8149,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -8157,7 +8159,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -8167,7 +8169,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -8177,7 +8179,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -8187,7 +8189,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -8197,7 +8199,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -8207,7 +8209,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -8217,7 +8219,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -8227,7 +8229,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -8237,7 +8239,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -8247,7 +8249,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -8257,7 +8259,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -8267,7 +8269,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -8277,7 +8279,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -8287,7 +8289,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -8297,7 +8299,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -8307,7 +8309,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -8317,7 +8319,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -8327,7 +8329,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -8337,7 +8339,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -8347,7 +8349,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -8357,7 +8359,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -8367,7 +8369,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -8377,7 +8379,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -8387,7 +8389,7 @@
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -8397,7 +8399,7 @@
       <c r="G59" s="8"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -8407,7 +8409,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -8417,7 +8419,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -8427,7 +8429,7 @@
       <c r="G62" s="8"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -8437,7 +8439,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -8447,7 +8449,7 @@
       <c r="G64" s="8"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -8457,7 +8459,7 @@
       <c r="G65" s="8"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -8467,7 +8469,7 @@
       <c r="G66" s="8"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -8477,7 +8479,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -8487,7 +8489,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -8497,7 +8499,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -8507,7 +8509,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -8517,7 +8519,7 @@
       <c r="G71" s="8"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -8527,7 +8529,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -8537,7 +8539,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -8547,7 +8549,7 @@
       <c r="G74" s="8"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -8557,7 +8559,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -8567,7 +8569,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -8577,7 +8579,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -8587,7 +8589,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -8597,7 +8599,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -8607,7 +8609,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -8617,7 +8619,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -8627,7 +8629,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -8637,7 +8639,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -8647,7 +8649,7 @@
       <c r="G84" s="8"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -8657,7 +8659,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -8667,7 +8669,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -8677,7 +8679,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -8687,7 +8689,7 @@
       <c r="G88" s="8"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -8697,7 +8699,7 @@
       <c r="G89" s="8"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -8707,7 +8709,7 @@
       <c r="G90" s="8"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -8717,7 +8719,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -8727,7 +8729,7 @@
       <c r="G92" s="8"/>
       <c r="H92" s="9"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -8737,7 +8739,7 @@
       <c r="G93" s="8"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -8747,7 +8749,7 @@
       <c r="G94" s="8"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -8757,7 +8759,7 @@
       <c r="G95" s="8"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -8767,7 +8769,7 @@
       <c r="G96" s="8"/>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -8777,7 +8779,7 @@
       <c r="G97" s="8"/>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -8787,7 +8789,7 @@
       <c r="G98" s="8"/>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -8797,7 +8799,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -8807,7 +8809,7 @@
       <c r="G100" s="8"/>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -8817,7 +8819,7 @@
       <c r="G101" s="8"/>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -8827,7 +8829,7 @@
       <c r="G102" s="8"/>
       <c r="H102" s="9"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -8837,7 +8839,7 @@
       <c r="G103" s="8"/>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -8847,7 +8849,7 @@
       <c r="G104" s="8"/>
       <c r="H104" s="9"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -8857,7 +8859,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -8867,7 +8869,7 @@
       <c r="G106" s="8"/>
       <c r="H106" s="9"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -8877,7 +8879,7 @@
       <c r="G107" s="8"/>
       <c r="H107" s="9"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -8887,7 +8889,7 @@
       <c r="G108" s="8"/>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -8897,7 +8899,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -8907,7 +8909,7 @@
       <c r="G110" s="8"/>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -8917,7 +8919,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -8927,7 +8929,7 @@
       <c r="G112" s="8"/>
       <c r="H112" s="9"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -8937,7 +8939,7 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -8947,7 +8949,7 @@
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -8957,7 +8959,7 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -8967,16 +8969,16 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="B117" s="9"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="B118" s="9"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="B119" s="9"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="B120" s="9"/>
     </row>
   </sheetData>
@@ -8987,7 +8989,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8997,14 +8999,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -9016,7 +9018,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -9028,7 +9030,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -9054,7 +9056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -9078,7 +9080,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -9098,7 +9100,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -9116,7 +9118,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -9134,7 +9136,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -9152,7 +9154,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -9170,7 +9172,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -9188,7 +9190,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -9206,7 +9208,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -9224,7 +9226,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="12"/>
       <c r="B12" s="7" t="s">
         <v>22</v>
@@ -9242,7 +9244,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="13"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
@@ -9260,7 +9262,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
@@ -9280,7 +9282,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -9298,7 +9300,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -9316,7 +9318,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -9334,7 +9336,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -9352,7 +9354,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="13"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -9370,7 +9372,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -9386,7 +9388,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -9396,7 +9398,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -9406,7 +9408,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -9416,7 +9418,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -9426,7 +9428,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -9436,7 +9438,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -9446,7 +9448,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -9456,7 +9458,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -9466,7 +9468,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -9476,7 +9478,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -9486,7 +9488,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -9496,7 +9498,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -9506,7 +9508,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -9516,7 +9518,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -9526,7 +9528,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -9536,7 +9538,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -9546,7 +9548,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -9556,7 +9558,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -9566,7 +9568,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -9576,7 +9578,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -9586,7 +9588,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -9596,7 +9598,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -9606,7 +9608,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -9616,7 +9618,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -9626,7 +9628,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -9636,7 +9638,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -9646,7 +9648,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -9656,7 +9658,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -9666,7 +9668,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -9676,7 +9678,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -9686,7 +9688,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -9696,7 +9698,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -9706,7 +9708,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -9716,7 +9718,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -9726,7 +9728,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -9736,7 +9738,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -9746,7 +9748,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -9756,7 +9758,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -9766,7 +9768,7 @@
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -9776,7 +9778,7 @@
       <c r="G59" s="8"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -9786,7 +9788,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -9796,7 +9798,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -9806,7 +9808,7 @@
       <c r="G62" s="8"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -9816,7 +9818,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -9826,7 +9828,7 @@
       <c r="G64" s="8"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -9836,7 +9838,7 @@
       <c r="G65" s="8"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -9846,7 +9848,7 @@
       <c r="G66" s="8"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -9856,7 +9858,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -9866,7 +9868,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -9876,7 +9878,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -9886,7 +9888,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -9896,7 +9898,7 @@
       <c r="G71" s="8"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -9906,7 +9908,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -9916,7 +9918,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -9926,7 +9928,7 @@
       <c r="G74" s="8"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -9936,7 +9938,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -9946,7 +9948,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -9956,7 +9958,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -9966,7 +9968,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -9976,7 +9978,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -9986,7 +9988,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -9996,7 +9998,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -10006,7 +10008,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -10016,7 +10018,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -10026,7 +10028,7 @@
       <c r="G84" s="8"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -10036,7 +10038,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -10046,7 +10048,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -10056,7 +10058,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -10066,7 +10068,7 @@
       <c r="G88" s="8"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -10076,7 +10078,7 @@
       <c r="G89" s="8"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -10086,7 +10088,7 @@
       <c r="G90" s="8"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -10096,7 +10098,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -10106,7 +10108,7 @@
       <c r="G92" s="8"/>
       <c r="H92" s="9"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -10116,7 +10118,7 @@
       <c r="G93" s="8"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -10126,7 +10128,7 @@
       <c r="G94" s="8"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -10136,7 +10138,7 @@
       <c r="G95" s="8"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -10146,7 +10148,7 @@
       <c r="G96" s="8"/>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -10156,7 +10158,7 @@
       <c r="G97" s="8"/>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -10166,7 +10168,7 @@
       <c r="G98" s="8"/>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -10176,7 +10178,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -10186,7 +10188,7 @@
       <c r="G100" s="8"/>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -10196,7 +10198,7 @@
       <c r="G101" s="8"/>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -10206,7 +10208,7 @@
       <c r="G102" s="8"/>
       <c r="H102" s="9"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -10216,7 +10218,7 @@
       <c r="G103" s="8"/>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -10226,7 +10228,7 @@
       <c r="G104" s="8"/>
       <c r="H104" s="9"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -10236,7 +10238,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -10246,7 +10248,7 @@
       <c r="G106" s="8"/>
       <c r="H106" s="9"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -10256,7 +10258,7 @@
       <c r="G107" s="8"/>
       <c r="H107" s="9"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -10266,7 +10268,7 @@
       <c r="G108" s="8"/>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -10276,7 +10278,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -10286,7 +10288,7 @@
       <c r="G110" s="8"/>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -10296,7 +10298,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -10306,7 +10308,7 @@
       <c r="G112" s="8"/>
       <c r="H112" s="9"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -10316,7 +10318,7 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -10326,7 +10328,7 @@
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -10336,7 +10338,7 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -10346,16 +10348,16 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="B117" s="9"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="B118" s="9"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="B119" s="9"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="B120" s="9"/>
     </row>
   </sheetData>
@@ -10366,7 +10368,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
+++ b/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
@@ -4864,7 +4864,7 @@
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4951,7 +4951,9 @@
       <c r="C4" s="5">
         <v>43640</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="5">
+        <v>43643</v>
+      </c>
       <c r="E4" s="5">
         <v>43640</v>
       </c>
@@ -4971,8 +4973,12 @@
       <c r="C5" s="5">
         <v>43640</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="5">
+        <v>43643</v>
+      </c>
+      <c r="E5" s="5">
+        <v>43640</v>
+      </c>
       <c r="F5" s="6">
         <v>0.99</v>
       </c>
@@ -4989,8 +4995,12 @@
       <c r="C6" s="5">
         <v>43641</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="5">
+        <v>43643</v>
+      </c>
+      <c r="E6" s="5">
+        <v>43640</v>
+      </c>
       <c r="F6" s="6">
         <v>1</v>
       </c>
@@ -5007,10 +5017,14 @@
       <c r="C7" s="5">
         <v>43641</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="5">
+        <v>43643</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43640</v>
+      </c>
       <c r="F7" s="6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>14</v>
@@ -5025,10 +5039,14 @@
       <c r="C8" s="5">
         <v>43642</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="5">
+        <v>43643</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43640</v>
+      </c>
       <c r="F8" s="6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>14</v>
@@ -5043,8 +5061,12 @@
       <c r="C9" s="5">
         <v>43642</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="5">
+        <v>43643</v>
+      </c>
+      <c r="E9" s="5">
+        <v>43640</v>
+      </c>
       <c r="F9" s="6">
         <v>1</v>
       </c>
@@ -5061,10 +5083,14 @@
       <c r="C10" s="5">
         <v>43643</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="5">
+        <v>43643</v>
+      </c>
+      <c r="E10" s="5">
+        <v>43640</v>
+      </c>
       <c r="F10" s="6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -5079,10 +5105,14 @@
       <c r="C11" s="5">
         <v>43643</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="5">
+        <v>43643</v>
+      </c>
+      <c r="E11" s="5">
+        <v>43640</v>
+      </c>
       <c r="F11" s="6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>14</v>

--- a/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
+++ b/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\hgkj_02\卞虹霖\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6726F9-C5B8-4BA0-9A86-B19CABE50E01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -142,8 +148,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,7 +335,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -601,14 +607,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -620,7 +626,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -632,7 +638,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -658,7 +664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -682,7 +688,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -704,7 +710,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="15"/>
@@ -722,7 +728,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -744,7 +750,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -766,7 +772,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="11" t="s">
         <v>17</v>
@@ -786,7 +792,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="15"/>
@@ -804,7 +810,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="11" t="s">
         <v>18</v>
@@ -824,7 +830,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="15"/>
@@ -842,7 +848,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
@@ -864,7 +870,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
         <v>20</v>
@@ -884,7 +890,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="4" t="s">
         <v>21</v>
@@ -904,7 +910,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="7" t="s">
         <v>22</v>
@@ -912,17 +918,21 @@
       <c r="C15" s="5">
         <v>43644</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="5">
+        <v>43646</v>
+      </c>
+      <c r="E15" s="5">
+        <v>43646</v>
+      </c>
       <c r="F15" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="7" t="s">
         <v>23</v>
@@ -931,16 +941,18 @@
         <v>43645</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="5">
+        <v>43646</v>
+      </c>
       <c r="F16" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>24</v>
       </c>
@@ -960,7 +972,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>26</v>
@@ -978,7 +990,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="4" t="s">
         <v>27</v>
@@ -996,7 +1008,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
@@ -1014,7 +1026,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="16.8">
+    <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="4" t="s">
         <v>29</v>
@@ -1032,7 +1044,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="16.8">
+    <row r="22" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="4" t="s">
         <v>30</v>
@@ -1050,7 +1062,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="16.8">
+    <row r="23" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
@@ -1066,7 +1078,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1076,7 +1088,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1086,7 +1098,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1096,7 +1108,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1106,7 +1118,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1116,7 +1128,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1126,7 +1138,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1136,7 +1148,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1146,7 +1158,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1156,7 +1168,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1166,7 +1178,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1176,7 +1188,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1186,7 +1198,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1196,7 +1208,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -1206,7 +1218,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -1216,7 +1228,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -1226,7 +1238,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -1236,7 +1248,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -1246,7 +1258,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1256,7 +1268,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -1266,7 +1278,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -1276,7 +1288,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -1286,7 +1298,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -1296,7 +1308,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -1306,7 +1318,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -1316,7 +1328,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -1326,7 +1338,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -1336,7 +1348,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -1346,7 +1358,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -1356,7 +1368,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -1366,7 +1378,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -1376,7 +1388,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -1386,7 +1398,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -1396,7 +1408,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -1406,7 +1418,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -1416,7 +1428,7 @@
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -1426,7 +1438,7 @@
       <c r="G59" s="8"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -1436,7 +1448,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -1446,7 +1458,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -1456,7 +1468,7 @@
       <c r="G62" s="8"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -1466,7 +1478,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -1476,7 +1488,7 @@
       <c r="G64" s="8"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -1486,7 +1498,7 @@
       <c r="G65" s="8"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -1496,7 +1508,7 @@
       <c r="G66" s="8"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -1506,7 +1518,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -1516,7 +1528,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -1526,7 +1538,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -1536,7 +1548,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -1546,7 +1558,7 @@
       <c r="G71" s="8"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -1556,7 +1568,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -1566,7 +1578,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -1576,7 +1588,7 @@
       <c r="G74" s="8"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -1586,7 +1598,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -1596,7 +1608,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -1606,7 +1618,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -1616,7 +1628,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -1626,7 +1638,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -1636,7 +1648,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -1646,7 +1658,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -1656,7 +1668,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -1666,7 +1678,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -1676,7 +1688,7 @@
       <c r="G84" s="8"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -1686,7 +1698,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -1696,7 +1708,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -1706,7 +1718,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -1716,7 +1728,7 @@
       <c r="G88" s="8"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -1726,7 +1738,7 @@
       <c r="G89" s="8"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -1736,7 +1748,7 @@
       <c r="G90" s="8"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -1746,7 +1758,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -1756,7 +1768,7 @@
       <c r="G92" s="8"/>
       <c r="H92" s="9"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -1766,7 +1778,7 @@
       <c r="G93" s="8"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -1776,7 +1788,7 @@
       <c r="G94" s="8"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -1786,7 +1798,7 @@
       <c r="G95" s="8"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -1796,7 +1808,7 @@
       <c r="G96" s="8"/>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -1806,7 +1818,7 @@
       <c r="G97" s="8"/>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -1816,7 +1828,7 @@
       <c r="G98" s="8"/>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -1826,7 +1838,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -1836,7 +1848,7 @@
       <c r="G100" s="8"/>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -1846,7 +1858,7 @@
       <c r="G101" s="8"/>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -1856,7 +1868,7 @@
       <c r="G102" s="8"/>
       <c r="H102" s="9"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -1866,7 +1878,7 @@
       <c r="G103" s="8"/>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -1876,7 +1888,7 @@
       <c r="G104" s="8"/>
       <c r="H104" s="9"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -1886,7 +1898,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -1896,7 +1908,7 @@
       <c r="G106" s="8"/>
       <c r="H106" s="9"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -1906,7 +1918,7 @@
       <c r="G107" s="8"/>
       <c r="H107" s="9"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -1916,7 +1928,7 @@
       <c r="G108" s="8"/>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -1926,7 +1938,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -1936,7 +1948,7 @@
       <c r="G110" s="8"/>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -1946,7 +1958,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -1956,7 +1968,7 @@
       <c r="G112" s="8"/>
       <c r="H112" s="9"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -1966,7 +1978,7 @@
       <c r="G113" s="8"/>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -1976,7 +1988,7 @@
       <c r="G114" s="8"/>
       <c r="H114" s="9"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -1986,7 +1998,7 @@
       <c r="G115" s="8"/>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -1996,7 +2008,7 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -2006,7 +2018,7 @@
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -2016,7 +2028,7 @@
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -2026,16 +2038,16 @@
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="9"/>
     </row>
-    <row r="121" spans="1:8" ht="15.6">
+    <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B121" s="9"/>
     </row>
-    <row r="122" spans="1:8" ht="15.6">
+    <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B122" s="9"/>
     </row>
-    <row r="123" spans="1:8" ht="15.6">
+    <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B123" s="9"/>
     </row>
   </sheetData>
@@ -2051,8 +2063,8 @@
     <mergeCell ref="C10:C11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G23">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2062,14 +2074,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -2081,7 +2093,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2093,7 +2105,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2119,7 +2131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2143,7 +2155,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -2169,7 +2181,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -2189,7 +2201,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -2211,7 +2223,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -2231,7 +2243,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -2249,7 +2261,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -2269,7 +2281,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -2287,7 +2299,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -2305,7 +2317,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="7" t="s">
         <v>22</v>
@@ -2323,7 +2335,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
@@ -2341,7 +2353,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
@@ -2363,7 +2375,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -2383,7 +2395,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -2401,7 +2413,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -2419,7 +2431,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -2437,7 +2449,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -2455,7 +2467,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -2471,7 +2483,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -2481,7 +2493,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -2491,7 +2503,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2501,7 +2513,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -2511,7 +2523,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2521,7 +2533,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -2531,7 +2543,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -2541,7 +2553,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -2551,7 +2563,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -2561,7 +2573,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -2571,7 +2583,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2581,7 +2593,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2591,7 +2603,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2601,7 +2613,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -2611,7 +2623,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -2621,7 +2633,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -2631,7 +2643,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -2641,7 +2653,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -2651,7 +2663,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2661,7 +2673,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -2671,7 +2683,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -2681,7 +2693,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2691,7 +2703,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -2701,7 +2713,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -2711,7 +2723,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2721,7 +2733,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -2731,7 +2743,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -2741,7 +2753,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2751,7 +2763,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -2761,7 +2773,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -2771,7 +2783,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -2781,7 +2793,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -2791,7 +2803,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -2801,7 +2813,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -2811,7 +2823,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -2821,7 +2833,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -2831,7 +2843,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -2841,7 +2853,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -2851,7 +2863,7 @@
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -2861,7 +2873,7 @@
       <c r="G59" s="8"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -2871,7 +2883,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -2881,7 +2893,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -2891,7 +2903,7 @@
       <c r="G62" s="8"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -2901,7 +2913,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -2911,7 +2923,7 @@
       <c r="G64" s="8"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -2921,7 +2933,7 @@
       <c r="G65" s="8"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -2931,7 +2943,7 @@
       <c r="G66" s="8"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -2941,7 +2953,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -2951,7 +2963,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -2961,7 +2973,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -2971,7 +2983,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -2981,7 +2993,7 @@
       <c r="G71" s="8"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -2991,7 +3003,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -3001,7 +3013,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -3011,7 +3023,7 @@
       <c r="G74" s="8"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -3021,7 +3033,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -3031,7 +3043,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -3041,7 +3053,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -3051,7 +3063,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -3061,7 +3073,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -3071,7 +3083,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -3081,7 +3093,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -3091,7 +3103,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -3101,7 +3113,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -3111,7 +3123,7 @@
       <c r="G84" s="8"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -3121,7 +3133,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -3131,7 +3143,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -3141,7 +3153,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -3151,7 +3163,7 @@
       <c r="G88" s="8"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -3161,7 +3173,7 @@
       <c r="G89" s="8"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -3171,7 +3183,7 @@
       <c r="G90" s="8"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -3181,7 +3193,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -3191,7 +3203,7 @@
       <c r="G92" s="8"/>
       <c r="H92" s="9"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -3201,7 +3213,7 @@
       <c r="G93" s="8"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -3211,7 +3223,7 @@
       <c r="G94" s="8"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -3221,7 +3233,7 @@
       <c r="G95" s="8"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -3231,7 +3243,7 @@
       <c r="G96" s="8"/>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -3241,7 +3253,7 @@
       <c r="G97" s="8"/>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -3251,7 +3263,7 @@
       <c r="G98" s="8"/>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -3261,7 +3273,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -3271,7 +3283,7 @@
       <c r="G100" s="8"/>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -3281,7 +3293,7 @@
       <c r="G101" s="8"/>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -3291,7 +3303,7 @@
       <c r="G102" s="8"/>
       <c r="H102" s="9"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -3301,7 +3313,7 @@
       <c r="G103" s="8"/>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -3311,7 +3323,7 @@
       <c r="G104" s="8"/>
       <c r="H104" s="9"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -3321,7 +3333,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -3331,7 +3343,7 @@
       <c r="G106" s="8"/>
       <c r="H106" s="9"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -3341,7 +3353,7 @@
       <c r="G107" s="8"/>
       <c r="H107" s="9"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -3351,7 +3363,7 @@
       <c r="G108" s="8"/>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -3361,7 +3373,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -3371,7 +3383,7 @@
       <c r="G110" s="8"/>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -3381,7 +3393,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -3391,7 +3403,7 @@
       <c r="G112" s="8"/>
       <c r="H112" s="9"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -3401,7 +3413,7 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -3411,7 +3423,7 @@
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -3421,7 +3433,7 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -3431,16 +3443,16 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="9"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="9"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="9"/>
     </row>
   </sheetData>
@@ -3451,7 +3463,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3461,14 +3473,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -3480,7 +3492,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3492,7 +3504,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3518,7 +3530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -3542,7 +3554,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -3564,7 +3576,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -3584,7 +3596,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -3604,7 +3616,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -3624,7 +3636,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -3644,7 +3656,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -3664,7 +3676,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -3684,7 +3696,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -3704,7 +3716,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="7" t="s">
         <v>22</v>
@@ -3724,7 +3736,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
@@ -3744,7 +3756,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
@@ -3764,7 +3776,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -3782,7 +3794,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -3800,7 +3812,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -3818,7 +3830,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -3836,7 +3848,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -3854,7 +3866,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -3870,7 +3882,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -3880,7 +3892,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3890,7 +3902,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -3900,7 +3912,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -3910,7 +3922,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3920,7 +3932,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3930,7 +3942,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3940,7 +3952,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -3950,7 +3962,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -3960,7 +3972,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -3970,7 +3982,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -3980,7 +3992,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -3990,7 +4002,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -4000,7 +4012,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -4010,7 +4022,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -4020,7 +4032,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -4030,7 +4042,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -4040,7 +4052,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -4050,7 +4062,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -4060,7 +4072,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -4070,7 +4082,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -4080,7 +4092,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4090,7 +4102,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -4100,7 +4112,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -4110,7 +4122,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -4120,7 +4132,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -4130,7 +4142,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -4140,7 +4152,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -4150,7 +4162,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -4160,7 +4172,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -4170,7 +4182,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -4180,7 +4192,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -4190,7 +4202,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -4200,7 +4212,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -4210,7 +4222,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -4220,7 +4232,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -4230,7 +4242,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -4240,7 +4252,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -4250,7 +4262,7 @@
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -4260,7 +4272,7 @@
       <c r="G59" s="8"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -4270,7 +4282,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -4280,7 +4292,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -4290,7 +4302,7 @@
       <c r="G62" s="8"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -4300,7 +4312,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -4310,7 +4322,7 @@
       <c r="G64" s="8"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -4320,7 +4332,7 @@
       <c r="G65" s="8"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -4330,7 +4342,7 @@
       <c r="G66" s="8"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -4340,7 +4352,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -4350,7 +4362,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -4360,7 +4372,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -4370,7 +4382,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -4380,7 +4392,7 @@
       <c r="G71" s="8"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -4390,7 +4402,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -4400,7 +4412,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -4410,7 +4422,7 @@
       <c r="G74" s="8"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -4420,7 +4432,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -4430,7 +4442,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -4440,7 +4452,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -4450,7 +4462,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -4460,7 +4472,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -4470,7 +4482,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -4480,7 +4492,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -4490,7 +4502,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -4500,7 +4512,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -4510,7 +4522,7 @@
       <c r="G84" s="8"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -4520,7 +4532,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -4530,7 +4542,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -4540,7 +4552,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -4550,7 +4562,7 @@
       <c r="G88" s="8"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -4560,7 +4572,7 @@
       <c r="G89" s="8"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -4570,7 +4582,7 @@
       <c r="G90" s="8"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -4580,7 +4592,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -4590,7 +4602,7 @@
       <c r="G92" s="8"/>
       <c r="H92" s="9"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -4600,7 +4612,7 @@
       <c r="G93" s="8"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -4610,7 +4622,7 @@
       <c r="G94" s="8"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -4620,7 +4632,7 @@
       <c r="G95" s="8"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -4630,7 +4642,7 @@
       <c r="G96" s="8"/>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -4640,7 +4652,7 @@
       <c r="G97" s="8"/>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -4650,7 +4662,7 @@
       <c r="G98" s="8"/>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -4660,7 +4672,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -4670,7 +4682,7 @@
       <c r="G100" s="8"/>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -4680,7 +4692,7 @@
       <c r="G101" s="8"/>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -4690,7 +4702,7 @@
       <c r="G102" s="8"/>
       <c r="H102" s="9"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -4700,7 +4712,7 @@
       <c r="G103" s="8"/>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -4710,7 +4722,7 @@
       <c r="G104" s="8"/>
       <c r="H104" s="9"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -4720,7 +4732,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -4730,7 +4742,7 @@
       <c r="G106" s="8"/>
       <c r="H106" s="9"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -4740,7 +4752,7 @@
       <c r="G107" s="8"/>
       <c r="H107" s="9"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -4750,7 +4762,7 @@
       <c r="G108" s="8"/>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -4760,7 +4772,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -4770,7 +4782,7 @@
       <c r="G110" s="8"/>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -4780,7 +4792,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -4790,7 +4802,7 @@
       <c r="G112" s="8"/>
       <c r="H112" s="9"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -4800,7 +4812,7 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -4810,7 +4822,7 @@
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -4820,7 +4832,7 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -4830,16 +4842,16 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="9"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="9"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="9"/>
     </row>
   </sheetData>
@@ -4850,7 +4862,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4860,14 +4872,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -4879,7 +4891,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -4891,7 +4903,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4917,7 +4929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -4941,7 +4953,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -4965,7 +4977,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -4987,7 +4999,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -5009,7 +5021,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -5031,7 +5043,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -5053,7 +5065,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -5075,7 +5087,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -5097,7 +5109,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -5119,7 +5131,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="7" t="s">
         <v>22</v>
@@ -5137,7 +5149,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
@@ -5155,7 +5167,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
@@ -5175,7 +5187,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -5193,7 +5205,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -5211,7 +5223,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -5229,7 +5241,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -5247,7 +5259,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -5265,7 +5277,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -5281,7 +5293,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -5291,7 +5303,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -5301,7 +5313,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -5311,7 +5323,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -5321,7 +5333,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -5331,7 +5343,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -5341,7 +5353,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -5351,7 +5363,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -5361,7 +5373,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -5371,7 +5383,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -5381,7 +5393,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -5391,7 +5403,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -5401,7 +5413,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -5411,7 +5423,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -5421,7 +5433,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -5431,7 +5443,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -5441,7 +5453,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -5451,7 +5463,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -5461,7 +5473,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -5471,7 +5483,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -5481,7 +5493,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -5491,7 +5503,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -5501,7 +5513,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -5511,7 +5523,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -5521,7 +5533,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -5531,7 +5543,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -5541,7 +5553,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -5551,7 +5563,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -5561,7 +5573,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -5571,7 +5583,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -5581,7 +5593,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -5591,7 +5603,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -5601,7 +5613,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -5611,7 +5623,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -5621,7 +5633,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -5631,7 +5643,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -5641,7 +5653,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -5651,7 +5663,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -5661,7 +5673,7 @@
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -5671,7 +5683,7 @@
       <c r="G59" s="8"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -5681,7 +5693,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -5691,7 +5703,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -5701,7 +5713,7 @@
       <c r="G62" s="8"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -5711,7 +5723,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -5721,7 +5733,7 @@
       <c r="G64" s="8"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -5731,7 +5743,7 @@
       <c r="G65" s="8"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -5741,7 +5753,7 @@
       <c r="G66" s="8"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -5751,7 +5763,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -5761,7 +5773,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -5771,7 +5783,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -5781,7 +5793,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -5791,7 +5803,7 @@
       <c r="G71" s="8"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -5801,7 +5813,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -5811,7 +5823,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -5821,7 +5833,7 @@
       <c r="G74" s="8"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -5831,7 +5843,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -5841,7 +5853,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -5851,7 +5863,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -5861,7 +5873,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -5871,7 +5883,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -5881,7 +5893,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -5891,7 +5903,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -5901,7 +5913,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -5911,7 +5923,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -5921,7 +5933,7 @@
       <c r="G84" s="8"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -5931,7 +5943,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -5941,7 +5953,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -5951,7 +5963,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -5961,7 +5973,7 @@
       <c r="G88" s="8"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -5971,7 +5983,7 @@
       <c r="G89" s="8"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -5981,7 +5993,7 @@
       <c r="G90" s="8"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -5991,7 +6003,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -6001,7 +6013,7 @@
       <c r="G92" s="8"/>
       <c r="H92" s="9"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -6011,7 +6023,7 @@
       <c r="G93" s="8"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -6021,7 +6033,7 @@
       <c r="G94" s="8"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -6031,7 +6043,7 @@
       <c r="G95" s="8"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -6041,7 +6053,7 @@
       <c r="G96" s="8"/>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -6051,7 +6063,7 @@
       <c r="G97" s="8"/>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -6061,7 +6073,7 @@
       <c r="G98" s="8"/>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -6071,7 +6083,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -6081,7 +6093,7 @@
       <c r="G100" s="8"/>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -6091,7 +6103,7 @@
       <c r="G101" s="8"/>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -6101,7 +6113,7 @@
       <c r="G102" s="8"/>
       <c r="H102" s="9"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -6111,7 +6123,7 @@
       <c r="G103" s="8"/>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -6121,7 +6133,7 @@
       <c r="G104" s="8"/>
       <c r="H104" s="9"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -6131,7 +6143,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -6141,7 +6153,7 @@
       <c r="G106" s="8"/>
       <c r="H106" s="9"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -6151,7 +6163,7 @@
       <c r="G107" s="8"/>
       <c r="H107" s="9"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -6161,7 +6173,7 @@
       <c r="G108" s="8"/>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -6171,7 +6183,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -6181,7 +6193,7 @@
       <c r="G110" s="8"/>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -6191,7 +6203,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -6201,7 +6213,7 @@
       <c r="G112" s="8"/>
       <c r="H112" s="9"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -6211,7 +6223,7 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -6221,7 +6233,7 @@
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -6231,7 +6243,7 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -6241,16 +6253,16 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="9"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="9"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="9"/>
     </row>
   </sheetData>
@@ -6261,7 +6273,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6271,14 +6283,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -6290,7 +6302,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -6302,7 +6314,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6328,7 +6340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -6352,7 +6364,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -6372,7 +6384,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -6390,7 +6402,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -6408,7 +6420,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -6426,7 +6438,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -6444,7 +6456,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -6462,7 +6474,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -6480,7 +6492,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -6498,7 +6510,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="7" t="s">
         <v>22</v>
@@ -6516,7 +6528,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
@@ -6534,7 +6546,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
@@ -6554,7 +6566,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -6572,7 +6584,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -6590,7 +6602,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -6608,7 +6620,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -6626,7 +6638,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -6644,7 +6656,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -6660,7 +6672,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -6670,7 +6682,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -6680,7 +6692,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -6690,7 +6702,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -6700,7 +6712,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -6710,7 +6722,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -6720,7 +6732,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -6730,7 +6742,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -6740,7 +6752,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -6750,7 +6762,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -6760,7 +6772,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -6770,7 +6782,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -6780,7 +6792,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -6790,7 +6802,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -6800,7 +6812,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -6810,7 +6822,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -6820,7 +6832,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -6830,7 +6842,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -6840,7 +6852,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -6850,7 +6862,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -6860,7 +6872,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -6870,7 +6882,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -6880,7 +6892,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -6890,7 +6902,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -6900,7 +6912,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -6910,7 +6922,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -6920,7 +6932,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -6930,7 +6942,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -6940,7 +6952,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -6950,7 +6962,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -6960,7 +6972,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -6970,7 +6982,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -6980,7 +6992,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -6990,7 +7002,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -7000,7 +7012,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -7010,7 +7022,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -7020,7 +7032,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -7030,7 +7042,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -7040,7 +7052,7 @@
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -7050,7 +7062,7 @@
       <c r="G59" s="8"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -7060,7 +7072,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -7070,7 +7082,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -7080,7 +7092,7 @@
       <c r="G62" s="8"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -7090,7 +7102,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -7100,7 +7112,7 @@
       <c r="G64" s="8"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -7110,7 +7122,7 @@
       <c r="G65" s="8"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -7120,7 +7132,7 @@
       <c r="G66" s="8"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -7130,7 +7142,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -7140,7 +7152,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -7150,7 +7162,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -7160,7 +7172,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -7170,7 +7182,7 @@
       <c r="G71" s="8"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -7180,7 +7192,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -7190,7 +7202,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -7200,7 +7212,7 @@
       <c r="G74" s="8"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -7210,7 +7222,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -7220,7 +7232,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -7230,7 +7242,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -7240,7 +7252,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -7250,7 +7262,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -7260,7 +7272,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -7270,7 +7282,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -7280,7 +7292,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -7290,7 +7302,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -7300,7 +7312,7 @@
       <c r="G84" s="8"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -7310,7 +7322,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -7320,7 +7332,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -7330,7 +7342,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -7340,7 +7352,7 @@
       <c r="G88" s="8"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -7350,7 +7362,7 @@
       <c r="G89" s="8"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -7360,7 +7372,7 @@
       <c r="G90" s="8"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -7370,7 +7382,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -7380,7 +7392,7 @@
       <c r="G92" s="8"/>
       <c r="H92" s="9"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -7390,7 +7402,7 @@
       <c r="G93" s="8"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -7400,7 +7412,7 @@
       <c r="G94" s="8"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -7410,7 +7422,7 @@
       <c r="G95" s="8"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -7420,7 +7432,7 @@
       <c r="G96" s="8"/>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -7430,7 +7442,7 @@
       <c r="G97" s="8"/>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -7440,7 +7452,7 @@
       <c r="G98" s="8"/>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -7450,7 +7462,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -7460,7 +7472,7 @@
       <c r="G100" s="8"/>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -7470,7 +7482,7 @@
       <c r="G101" s="8"/>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -7480,7 +7492,7 @@
       <c r="G102" s="8"/>
       <c r="H102" s="9"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -7490,7 +7502,7 @@
       <c r="G103" s="8"/>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -7500,7 +7512,7 @@
       <c r="G104" s="8"/>
       <c r="H104" s="9"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -7510,7 +7522,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -7520,7 +7532,7 @@
       <c r="G106" s="8"/>
       <c r="H106" s="9"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -7530,7 +7542,7 @@
       <c r="G107" s="8"/>
       <c r="H107" s="9"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -7540,7 +7552,7 @@
       <c r="G108" s="8"/>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -7550,7 +7562,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -7560,7 +7572,7 @@
       <c r="G110" s="8"/>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -7570,7 +7582,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -7580,7 +7592,7 @@
       <c r="G112" s="8"/>
       <c r="H112" s="9"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -7590,7 +7602,7 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -7600,7 +7612,7 @@
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -7610,7 +7622,7 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -7620,16 +7632,16 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="9"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="9"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="9"/>
     </row>
   </sheetData>
@@ -7640,7 +7652,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7650,14 +7662,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -7669,7 +7681,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -7681,7 +7693,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7707,7 +7719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -7731,7 +7743,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -7751,7 +7763,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -7769,7 +7781,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -7787,7 +7799,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -7805,7 +7817,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -7823,7 +7835,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -7841,7 +7853,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -7859,7 +7871,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -7877,7 +7889,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="7" t="s">
         <v>22</v>
@@ -7895,7 +7907,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
@@ -7913,7 +7925,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
@@ -7933,7 +7945,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -7951,7 +7963,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -7969,7 +7981,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -7987,7 +7999,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -8005,7 +8017,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -8023,7 +8035,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -8039,7 +8051,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -8049,7 +8061,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -8059,7 +8071,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -8069,7 +8081,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -8079,7 +8091,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -8089,7 +8101,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -8099,7 +8111,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -8109,7 +8121,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -8119,7 +8131,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -8129,7 +8141,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -8139,7 +8151,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -8149,7 +8161,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -8159,7 +8171,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -8169,7 +8181,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -8179,7 +8191,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -8189,7 +8201,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -8199,7 +8211,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -8209,7 +8221,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -8219,7 +8231,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -8229,7 +8241,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -8239,7 +8251,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -8249,7 +8261,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -8259,7 +8271,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -8269,7 +8281,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -8279,7 +8291,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -8289,7 +8301,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -8299,7 +8311,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -8309,7 +8321,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -8319,7 +8331,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -8329,7 +8341,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -8339,7 +8351,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -8349,7 +8361,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -8359,7 +8371,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -8369,7 +8381,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -8379,7 +8391,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -8389,7 +8401,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -8399,7 +8411,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -8409,7 +8421,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -8419,7 +8431,7 @@
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -8429,7 +8441,7 @@
       <c r="G59" s="8"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -8439,7 +8451,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -8449,7 +8461,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -8459,7 +8471,7 @@
       <c r="G62" s="8"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -8469,7 +8481,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -8479,7 +8491,7 @@
       <c r="G64" s="8"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -8489,7 +8501,7 @@
       <c r="G65" s="8"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -8499,7 +8511,7 @@
       <c r="G66" s="8"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -8509,7 +8521,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -8519,7 +8531,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -8529,7 +8541,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -8539,7 +8551,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -8549,7 +8561,7 @@
       <c r="G71" s="8"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -8559,7 +8571,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -8569,7 +8581,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -8579,7 +8591,7 @@
       <c r="G74" s="8"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -8589,7 +8601,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -8599,7 +8611,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -8609,7 +8621,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -8619,7 +8631,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -8629,7 +8641,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -8639,7 +8651,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -8649,7 +8661,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -8659,7 +8671,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -8669,7 +8681,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -8679,7 +8691,7 @@
       <c r="G84" s="8"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -8689,7 +8701,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -8699,7 +8711,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -8709,7 +8721,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -8719,7 +8731,7 @@
       <c r="G88" s="8"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -8729,7 +8741,7 @@
       <c r="G89" s="8"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -8739,7 +8751,7 @@
       <c r="G90" s="8"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -8749,7 +8761,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -8759,7 +8771,7 @@
       <c r="G92" s="8"/>
       <c r="H92" s="9"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -8769,7 +8781,7 @@
       <c r="G93" s="8"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -8779,7 +8791,7 @@
       <c r="G94" s="8"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -8789,7 +8801,7 @@
       <c r="G95" s="8"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -8799,7 +8811,7 @@
       <c r="G96" s="8"/>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -8809,7 +8821,7 @@
       <c r="G97" s="8"/>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -8819,7 +8831,7 @@
       <c r="G98" s="8"/>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -8829,7 +8841,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -8839,7 +8851,7 @@
       <c r="G100" s="8"/>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -8849,7 +8861,7 @@
       <c r="G101" s="8"/>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -8859,7 +8871,7 @@
       <c r="G102" s="8"/>
       <c r="H102" s="9"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -8869,7 +8881,7 @@
       <c r="G103" s="8"/>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -8879,7 +8891,7 @@
       <c r="G104" s="8"/>
       <c r="H104" s="9"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -8889,7 +8901,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -8899,7 +8911,7 @@
       <c r="G106" s="8"/>
       <c r="H106" s="9"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -8909,7 +8921,7 @@
       <c r="G107" s="8"/>
       <c r="H107" s="9"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -8919,7 +8931,7 @@
       <c r="G108" s="8"/>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -8929,7 +8941,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -8939,7 +8951,7 @@
       <c r="G110" s="8"/>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -8949,7 +8961,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -8959,7 +8971,7 @@
       <c r="G112" s="8"/>
       <c r="H112" s="9"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -8969,7 +8981,7 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -8979,7 +8991,7 @@
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -8989,7 +9001,7 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -8999,16 +9011,16 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="9"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="9"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="9"/>
     </row>
   </sheetData>
@@ -9019,7 +9031,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9029,14 +9041,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -9048,7 +9060,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -9060,7 +9072,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -9086,7 +9098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -9110,7 +9122,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -9130,7 +9142,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -9148,7 +9160,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -9166,7 +9178,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -9184,7 +9196,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -9202,7 +9214,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -9220,7 +9232,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -9238,7 +9250,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -9256,7 +9268,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="7" t="s">
         <v>22</v>
@@ -9274,7 +9286,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
@@ -9292,7 +9304,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
@@ -9312,7 +9324,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -9330,7 +9342,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -9348,7 +9360,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -9366,7 +9378,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -9384,7 +9396,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -9402,7 +9414,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -9418,7 +9430,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -9428,7 +9440,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -9438,7 +9450,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -9448,7 +9460,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -9458,7 +9470,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -9468,7 +9480,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -9478,7 +9490,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -9488,7 +9500,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -9498,7 +9510,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -9508,7 +9520,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -9518,7 +9530,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -9528,7 +9540,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -9538,7 +9550,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -9548,7 +9560,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -9558,7 +9570,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -9568,7 +9580,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -9578,7 +9590,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -9588,7 +9600,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -9598,7 +9610,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -9608,7 +9620,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -9618,7 +9630,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -9628,7 +9640,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -9638,7 +9650,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -9648,7 +9660,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -9658,7 +9670,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -9668,7 +9680,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -9678,7 +9690,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -9688,7 +9700,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -9698,7 +9710,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -9708,7 +9720,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -9718,7 +9730,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -9728,7 +9740,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -9738,7 +9750,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -9748,7 +9760,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -9758,7 +9770,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -9768,7 +9780,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -9778,7 +9790,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -9788,7 +9800,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -9798,7 +9810,7 @@
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -9808,7 +9820,7 @@
       <c r="G59" s="8"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -9818,7 +9830,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -9828,7 +9840,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -9838,7 +9850,7 @@
       <c r="G62" s="8"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -9848,7 +9860,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -9858,7 +9870,7 @@
       <c r="G64" s="8"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -9868,7 +9880,7 @@
       <c r="G65" s="8"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -9878,7 +9890,7 @@
       <c r="G66" s="8"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -9888,7 +9900,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -9898,7 +9910,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -9908,7 +9920,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -9918,7 +9930,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -9928,7 +9940,7 @@
       <c r="G71" s="8"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -9938,7 +9950,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -9948,7 +9960,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -9958,7 +9970,7 @@
       <c r="G74" s="8"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -9968,7 +9980,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -9978,7 +9990,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -9988,7 +10000,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -9998,7 +10010,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -10008,7 +10020,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -10018,7 +10030,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -10028,7 +10040,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -10038,7 +10050,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -10048,7 +10060,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -10058,7 +10070,7 @@
       <c r="G84" s="8"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -10068,7 +10080,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -10078,7 +10090,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -10088,7 +10100,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -10098,7 +10110,7 @@
       <c r="G88" s="8"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -10108,7 +10120,7 @@
       <c r="G89" s="8"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -10118,7 +10130,7 @@
       <c r="G90" s="8"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -10128,7 +10140,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -10138,7 +10150,7 @@
       <c r="G92" s="8"/>
       <c r="H92" s="9"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -10148,7 +10160,7 @@
       <c r="G93" s="8"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -10158,7 +10170,7 @@
       <c r="G94" s="8"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -10168,7 +10180,7 @@
       <c r="G95" s="8"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -10178,7 +10190,7 @@
       <c r="G96" s="8"/>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -10188,7 +10200,7 @@
       <c r="G97" s="8"/>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -10198,7 +10210,7 @@
       <c r="G98" s="8"/>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -10208,7 +10220,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -10218,7 +10230,7 @@
       <c r="G100" s="8"/>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -10228,7 +10240,7 @@
       <c r="G101" s="8"/>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -10238,7 +10250,7 @@
       <c r="G102" s="8"/>
       <c r="H102" s="9"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -10248,7 +10260,7 @@
       <c r="G103" s="8"/>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -10258,7 +10270,7 @@
       <c r="G104" s="8"/>
       <c r="H104" s="9"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -10268,7 +10280,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -10278,7 +10290,7 @@
       <c r="G106" s="8"/>
       <c r="H106" s="9"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -10288,7 +10300,7 @@
       <c r="G107" s="8"/>
       <c r="H107" s="9"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -10298,7 +10310,7 @@
       <c r="G108" s="8"/>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -10308,7 +10320,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -10318,7 +10330,7 @@
       <c r="G110" s="8"/>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -10328,7 +10340,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -10338,7 +10350,7 @@
       <c r="G112" s="8"/>
       <c r="H112" s="9"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -10348,7 +10360,7 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -10358,7 +10370,7 @@
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -10368,7 +10380,7 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -10378,16 +10390,16 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="9"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="9"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="9"/>
     </row>
   </sheetData>
@@ -10398,7 +10410,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
+++ b/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="36">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>添加团购信息</t>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4876,7 +4884,7 @@
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4970,7 +4978,7 @@
         <v>43640</v>
       </c>
       <c r="F4" s="6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>11</v>
@@ -4992,7 +5000,7 @@
         <v>43640</v>
       </c>
       <c r="F5" s="6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>11</v>
@@ -5036,10 +5044,10 @@
         <v>43640</v>
       </c>
       <c r="F7" s="6">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -5058,10 +5066,10 @@
         <v>43640</v>
       </c>
       <c r="F8" s="6">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -5124,10 +5132,10 @@
         <v>43640</v>
       </c>
       <c r="F11" s="6">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H11" s="4"/>
     </row>

--- a/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
+++ b/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\hgkj_02\卞虹霖\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DE43F4-B4D4-40A8-9CAC-AE95D4DAD90F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23028" windowHeight="9684" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <sheet name="马涛" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">卞虹霖!$G$15:$G$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">卞虹霖!$G$16:$G$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">黄之贤!$G$12:$G$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">金懿!$G$12:$G$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">马涛!$G$12:$G$20</definedName>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="36">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -144,8 +150,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,13 +352,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -615,14 +624,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -634,7 +643,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -646,7 +655,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -672,7 +681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -696,7 +705,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -718,7 +727,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="19"/>
@@ -736,7 +745,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -758,7 +767,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -780,7 +789,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="15" t="s">
         <v>17</v>
@@ -800,7 +809,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="19"/>
@@ -818,7 +827,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="15" t="s">
         <v>18</v>
@@ -838,7 +847,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
@@ -856,7 +865,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
@@ -878,12 +887,12 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="18">
         <v>43643</v>
       </c>
       <c r="D13" s="4"/>
@@ -898,128 +907,136 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="5">
+        <v>43647</v>
+      </c>
+      <c r="E14" s="5">
+        <v>43647</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C15" s="5">
         <v>43643</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5">
+      <c r="D15" s="4"/>
+      <c r="E15" s="5">
         <v>43644</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="6">
         <v>0.4</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.8">
-      <c r="A15" s="16"/>
-      <c r="B15" s="9" t="s">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C16" s="5">
         <v>43644</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D16" s="5">
         <v>43646</v>
       </c>
-      <c r="E15" s="5">
-        <v>43646</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.8">
-      <c r="A16" s="17"/>
-      <c r="B16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="5">
-        <v>43645</v>
-      </c>
-      <c r="D16" s="4"/>
       <c r="E16" s="5">
         <v>43646</v>
       </c>
       <c r="F16" s="6">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
-      <c r="A17" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>25</v>
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C17" s="5">
         <v>43645</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="5">
+        <v>43646</v>
+      </c>
       <c r="F17" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
-      <c r="A18" s="16"/>
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="B18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="5">
         <v>43645</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="5">
+        <v>43647</v>
+      </c>
+      <c r="E18" s="5">
+        <v>43647</v>
+      </c>
       <c r="F18" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="5">
-        <v>43646</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+        <v>43645</v>
+      </c>
+      <c r="D19" s="5">
+        <v>43647</v>
+      </c>
+      <c r="E19" s="5">
+        <v>43647</v>
+      </c>
       <c r="F19" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="5">
         <v>43646</v>
@@ -1034,13 +1051,13 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="16.8">
+    <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="5">
-        <v>43647</v>
+        <v>43646</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1052,13 +1069,13 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="16.8">
-      <c r="A22" s="17"/>
+    <row r="22" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
       <c r="B22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="5">
-        <v>43648</v>
+        <v>43647</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1070,12 +1087,14 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="16.8">
-      <c r="A23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+    <row r="23" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="5">
+        <v>43648</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="6">
@@ -1086,17 +1105,23 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1106,7 +1131,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -1116,7 +1141,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1126,7 +1151,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1136,7 +1161,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1146,7 +1171,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1156,7 +1181,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1166,7 +1191,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1176,7 +1201,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1186,7 +1211,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1196,7 +1221,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1206,7 +1231,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1216,7 +1241,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1226,7 +1251,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -1236,7 +1261,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -1246,7 +1271,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1256,7 +1281,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -1266,7 +1291,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1276,7 +1301,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -1286,7 +1311,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -1296,7 +1321,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -1306,7 +1331,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -1316,7 +1341,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -1326,7 +1351,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -1336,7 +1361,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -1346,7 +1371,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -1356,7 +1381,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -1366,7 +1391,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -1376,7 +1401,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -1386,7 +1411,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -1396,7 +1421,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -1406,7 +1431,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1416,7 +1441,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -1426,7 +1451,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -1436,7 +1461,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -1446,7 +1471,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -1456,7 +1481,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -1466,7 +1491,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -1476,7 +1501,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -1486,7 +1511,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -1496,7 +1521,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -1506,7 +1531,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -1516,7 +1541,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -1526,7 +1551,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -1536,7 +1561,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -1546,7 +1571,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -1556,7 +1581,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -1566,7 +1591,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -1576,7 +1601,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -1586,7 +1611,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -1596,7 +1621,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -1606,7 +1631,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -1616,7 +1641,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -1626,7 +1651,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -1636,7 +1661,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -1646,7 +1671,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -1656,7 +1681,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -1666,7 +1691,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -1676,7 +1701,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -1686,7 +1711,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -1696,7 +1721,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -1706,7 +1731,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -1716,7 +1741,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -1726,7 +1751,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -1736,7 +1761,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -1746,7 +1771,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -1756,7 +1781,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -1766,7 +1791,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -1776,7 +1801,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -1786,7 +1811,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -1796,7 +1821,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -1806,7 +1831,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -1816,7 +1841,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -1826,7 +1851,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -1836,7 +1861,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -1846,7 +1871,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -1856,7 +1881,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -1866,7 +1891,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -1876,7 +1901,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -1886,7 +1911,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -1896,7 +1921,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -1906,7 +1931,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -1916,7 +1941,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -1926,7 +1951,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -1936,7 +1961,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -1946,7 +1971,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -1956,7 +1981,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -1966,7 +1991,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -1976,7 +2001,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -1986,7 +2011,7 @@
       <c r="G113" s="11"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -1996,7 +2021,7 @@
       <c r="G114" s="11"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -2006,17 +2031,17 @@
       <c r="G115" s="11"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
-      <c r="A116" s="12"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A116" s="11"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -2026,7 +2051,7 @@
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -2036,7 +2061,7 @@
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -2046,33 +2071,45 @@
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A120" s="12"/>
       <c r="B120" s="12"/>
-    </row>
-    <row r="121" spans="1:8" ht="15.6">
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+    </row>
+    <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B121" s="12"/>
     </row>
-    <row r="122" spans="1:8" ht="15.6">
+    <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B122" s="12"/>
     </row>
-    <row r="123" spans="1:8" ht="15.6">
+    <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B123" s="12"/>
     </row>
+    <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B124" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:A16"/>
-    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="A18:A23"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G24" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2082,14 +2119,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -2101,7 +2138,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2113,7 +2150,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2139,7 +2176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2163,7 +2200,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -2189,7 +2226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -2209,7 +2246,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -2231,7 +2268,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -2251,7 +2288,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -2269,7 +2306,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -2289,7 +2326,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -2307,7 +2344,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -2325,7 +2362,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -2343,7 +2380,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -2361,7 +2398,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -2383,7 +2420,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -2403,7 +2440,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -2421,7 +2458,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -2439,7 +2476,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -2457,7 +2494,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -2475,7 +2512,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -2491,7 +2528,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2501,7 +2538,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -2511,7 +2548,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2521,7 +2558,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2531,7 +2568,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2541,7 +2578,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2551,7 +2588,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2561,7 +2598,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2571,7 +2608,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2581,7 +2618,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2591,7 +2628,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2601,7 +2638,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2611,7 +2648,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2621,7 +2658,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -2631,7 +2668,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2641,7 +2678,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2651,7 +2688,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2661,7 +2698,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -2671,7 +2708,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2681,7 +2718,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2691,7 +2728,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -2701,7 +2738,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2711,7 +2748,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -2721,7 +2758,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2731,7 +2768,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2741,7 +2778,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -2751,7 +2788,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -2761,7 +2798,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -2771,7 +2808,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -2781,7 +2818,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -2791,7 +2828,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -2801,7 +2838,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -2811,7 +2848,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -2821,7 +2858,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -2831,7 +2868,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -2841,7 +2878,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -2851,7 +2888,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -2861,7 +2898,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -2871,7 +2908,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -2881,7 +2918,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -2891,7 +2928,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -2901,7 +2938,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -2911,7 +2948,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -2921,7 +2958,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -2931,7 +2968,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -2941,7 +2978,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -2951,7 +2988,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -2961,7 +2998,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -2971,7 +3008,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -2981,7 +3018,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -2991,7 +3028,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -3001,7 +3038,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -3011,7 +3048,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -3021,7 +3058,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -3031,7 +3068,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -3041,7 +3078,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -3051,7 +3088,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -3061,7 +3098,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -3071,7 +3108,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -3081,7 +3118,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -3091,7 +3128,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -3101,7 +3138,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -3111,7 +3148,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -3121,7 +3158,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -3131,7 +3168,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -3141,7 +3178,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -3151,7 +3188,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -3161,7 +3198,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -3171,7 +3208,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -3181,7 +3218,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -3191,7 +3228,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -3201,7 +3238,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -3211,7 +3248,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -3221,7 +3258,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -3231,7 +3268,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -3241,7 +3278,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -3251,7 +3288,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -3261,7 +3298,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -3271,7 +3308,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -3281,7 +3318,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -3291,7 +3328,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -3301,7 +3338,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -3311,7 +3348,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -3321,7 +3358,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -3331,7 +3368,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -3341,7 +3378,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -3351,7 +3388,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -3361,7 +3398,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -3371,7 +3408,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -3381,7 +3418,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -3391,7 +3428,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -3401,7 +3438,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -3411,7 +3448,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -3421,7 +3458,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -3431,7 +3468,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -3441,7 +3478,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -3451,16 +3488,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -3471,7 +3508,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3481,14 +3518,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -3500,7 +3537,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3512,7 +3549,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3538,7 +3575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -3562,7 +3599,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -3584,7 +3621,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -3604,7 +3641,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -3624,7 +3661,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -3644,7 +3681,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -3664,7 +3701,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -3684,7 +3721,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -3704,7 +3741,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -3724,7 +3761,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -3744,7 +3781,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -3764,7 +3801,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -3784,7 +3821,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -3802,7 +3839,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -3820,7 +3857,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -3838,7 +3875,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -3856,7 +3893,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -3874,7 +3911,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -3890,7 +3927,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -3900,7 +3937,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -3910,7 +3947,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -3920,7 +3957,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -3930,7 +3967,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -3940,7 +3977,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -3950,7 +3987,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -3960,7 +3997,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -3970,7 +4007,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -3980,7 +4017,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -3990,7 +4027,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -4000,7 +4037,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -4010,7 +4047,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -4020,7 +4057,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -4030,7 +4067,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -4040,7 +4077,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -4050,7 +4087,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -4060,7 +4097,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -4070,7 +4107,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -4080,7 +4117,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -4090,7 +4127,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -4100,7 +4137,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -4110,7 +4147,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -4120,7 +4157,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -4130,7 +4167,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -4140,7 +4177,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -4150,7 +4187,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -4160,7 +4197,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -4170,7 +4207,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -4180,7 +4217,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -4190,7 +4227,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -4200,7 +4237,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -4210,7 +4247,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -4220,7 +4257,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -4230,7 +4267,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -4240,7 +4277,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -4250,7 +4287,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -4260,7 +4297,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -4270,7 +4307,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -4280,7 +4317,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -4290,7 +4327,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -4300,7 +4337,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -4310,7 +4347,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -4320,7 +4357,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -4330,7 +4367,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -4340,7 +4377,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -4350,7 +4387,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -4360,7 +4397,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -4370,7 +4407,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -4380,7 +4417,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -4390,7 +4427,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -4400,7 +4437,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -4410,7 +4447,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -4420,7 +4457,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -4430,7 +4467,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -4440,7 +4477,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -4450,7 +4487,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -4460,7 +4497,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -4470,7 +4507,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -4480,7 +4517,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -4490,7 +4527,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -4500,7 +4537,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -4510,7 +4547,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -4520,7 +4557,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -4530,7 +4567,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -4540,7 +4577,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -4550,7 +4587,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -4560,7 +4597,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -4570,7 +4607,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -4580,7 +4617,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -4590,7 +4627,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -4600,7 +4637,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -4610,7 +4647,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -4620,7 +4657,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -4630,7 +4667,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -4640,7 +4677,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -4650,7 +4687,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -4660,7 +4697,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -4670,7 +4707,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -4680,7 +4717,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -4690,7 +4727,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -4700,7 +4737,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -4710,7 +4747,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -4720,7 +4757,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -4730,7 +4767,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -4740,7 +4777,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -4750,7 +4787,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -4760,7 +4797,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -4770,7 +4807,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -4780,7 +4817,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -4790,7 +4827,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -4800,7 +4837,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -4810,7 +4847,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -4820,7 +4857,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -4830,7 +4867,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -4840,7 +4877,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -4850,16 +4887,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -4870,7 +4907,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4880,14 +4917,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -4899,7 +4936,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4911,7 +4948,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4937,7 +4974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -4961,7 +4998,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -4985,7 +5022,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -5007,7 +5044,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -5029,7 +5066,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -5051,7 +5088,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -5073,7 +5110,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -5095,7 +5132,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -5117,7 +5154,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -5139,7 +5176,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -5157,7 +5194,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -5175,7 +5212,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -5195,7 +5232,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -5213,7 +5250,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -5231,7 +5268,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -5249,7 +5286,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -5267,7 +5304,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -5285,7 +5322,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -5301,7 +5338,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -5311,7 +5348,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -5321,7 +5358,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -5331,7 +5368,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -5341,7 +5378,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -5351,7 +5388,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -5361,7 +5398,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -5371,7 +5408,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -5381,7 +5418,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -5391,7 +5428,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -5401,7 +5438,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -5411,7 +5448,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -5421,7 +5458,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -5431,7 +5468,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -5441,7 +5478,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -5451,7 +5488,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -5461,7 +5498,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -5471,7 +5508,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -5481,7 +5518,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -5491,7 +5528,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -5501,7 +5538,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -5511,7 +5548,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -5521,7 +5558,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -5531,7 +5568,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -5541,7 +5578,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -5551,7 +5588,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -5561,7 +5598,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -5571,7 +5608,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -5581,7 +5618,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -5591,7 +5628,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -5601,7 +5638,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -5611,7 +5648,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -5621,7 +5658,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -5631,7 +5668,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -5641,7 +5678,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -5651,7 +5688,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -5661,7 +5698,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -5671,7 +5708,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -5681,7 +5718,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -5691,7 +5728,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -5701,7 +5738,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -5711,7 +5748,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -5721,7 +5758,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -5731,7 +5768,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -5741,7 +5778,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -5751,7 +5788,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -5761,7 +5798,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -5771,7 +5808,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -5781,7 +5818,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -5791,7 +5828,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -5801,7 +5838,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -5811,7 +5848,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -5821,7 +5858,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -5831,7 +5868,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -5841,7 +5878,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -5851,7 +5888,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -5861,7 +5898,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -5871,7 +5908,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -5881,7 +5918,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -5891,7 +5928,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -5901,7 +5938,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -5911,7 +5948,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -5921,7 +5958,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -5931,7 +5968,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -5941,7 +5978,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -5951,7 +5988,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -5961,7 +5998,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -5971,7 +6008,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -5981,7 +6018,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -5991,7 +6028,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -6001,7 +6038,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -6011,7 +6048,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -6021,7 +6058,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -6031,7 +6068,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -6041,7 +6078,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -6051,7 +6088,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -6061,7 +6098,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -6071,7 +6108,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -6081,7 +6118,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -6091,7 +6128,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -6101,7 +6138,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -6111,7 +6148,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -6121,7 +6158,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -6131,7 +6168,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -6141,7 +6178,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -6151,7 +6188,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -6161,7 +6198,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -6171,7 +6208,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -6181,7 +6218,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -6191,7 +6228,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -6201,7 +6238,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -6211,7 +6248,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -6221,7 +6258,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -6231,7 +6268,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -6241,7 +6278,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -6251,7 +6288,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -6261,16 +6298,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -6281,7 +6318,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6291,14 +6328,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -6310,7 +6347,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -6322,7 +6359,7 @@
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6348,7 +6385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -6372,7 +6409,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -6396,7 +6433,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -6418,7 +6455,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -6440,7 +6477,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -6460,7 +6497,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -6480,7 +6517,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -6500,7 +6537,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -6522,7 +6559,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -6540,7 +6577,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -6560,7 +6597,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>33</v>
@@ -6578,7 +6615,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
         <v>23</v>
@@ -6596,7 +6633,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
@@ -6620,7 +6657,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="4" t="s">
         <v>26</v>
@@ -6638,7 +6675,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="4" t="s">
         <v>27</v>
@@ -6656,7 +6693,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="4" t="s">
         <v>28</v>
@@ -6674,7 +6711,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>29</v>
@@ -6692,7 +6729,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>30</v>
@@ -6710,7 +6747,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>31</v>
       </c>
@@ -6726,7 +6763,7 @@
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -6736,7 +6773,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -6746,7 +6783,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -6756,7 +6793,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -6766,7 +6803,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -6776,7 +6813,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -6786,7 +6823,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -6796,7 +6833,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -6806,7 +6843,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -6816,7 +6853,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -6826,7 +6863,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -6836,7 +6873,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -6846,7 +6883,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -6856,7 +6893,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -6866,7 +6903,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -6876,7 +6913,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -6886,7 +6923,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -6896,7 +6933,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -6906,7 +6943,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -6916,7 +6953,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -6926,7 +6963,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -6936,7 +6973,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -6946,7 +6983,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -6956,7 +6993,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -6966,7 +7003,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -6976,7 +7013,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -6986,7 +7023,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -6996,7 +7033,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -7006,7 +7043,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -7016,7 +7053,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -7026,7 +7063,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -7036,7 +7073,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -7046,7 +7083,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -7056,7 +7093,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -7066,7 +7103,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -7076,7 +7113,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -7086,7 +7123,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -7096,7 +7133,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -7106,7 +7143,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -7116,7 +7153,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -7126,7 +7163,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -7136,7 +7173,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -7146,7 +7183,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -7156,7 +7193,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -7166,7 +7203,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -7176,7 +7213,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -7186,7 +7223,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -7196,7 +7233,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -7206,7 +7243,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -7216,7 +7253,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -7226,7 +7263,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -7236,7 +7273,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -7246,7 +7283,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -7256,7 +7293,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -7266,7 +7303,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -7276,7 +7313,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -7286,7 +7323,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -7296,7 +7333,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -7306,7 +7343,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -7316,7 +7353,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -7326,7 +7363,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -7336,7 +7373,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -7346,7 +7383,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -7356,7 +7393,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -7366,7 +7403,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -7376,7 +7413,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -7386,7 +7423,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -7396,7 +7433,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -7406,7 +7443,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -7416,7 +7453,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -7426,7 +7463,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -7436,7 +7473,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -7446,7 +7483,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -7456,7 +7493,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -7466,7 +7503,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -7476,7 +7513,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -7486,7 +7523,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -7496,7 +7533,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -7506,7 +7543,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -7516,7 +7553,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -7526,7 +7563,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -7536,7 +7573,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -7546,7 +7583,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -7556,7 +7593,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -7566,7 +7603,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -7576,7 +7613,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -7586,7 +7623,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -7596,7 +7633,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -7606,7 +7643,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -7616,7 +7653,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -7626,7 +7663,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -7636,7 +7673,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -7646,7 +7683,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -7656,7 +7693,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -7666,7 +7703,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -7676,16 +7713,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -7694,7 +7731,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7704,14 +7741,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -7723,7 +7760,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7735,7 +7772,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7761,7 +7798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -7785,7 +7822,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -7805,7 +7842,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -7823,7 +7860,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -7841,7 +7878,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -7859,7 +7896,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -7877,7 +7914,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -7895,7 +7932,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -7913,7 +7950,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -7931,7 +7968,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -7949,7 +7986,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -7967,7 +8004,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -7987,7 +8024,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -8005,7 +8042,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -8023,7 +8060,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -8041,7 +8078,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -8059,7 +8096,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -8077,7 +8114,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -8093,7 +8130,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -8103,7 +8140,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -8113,7 +8150,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -8123,7 +8160,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -8133,7 +8170,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -8143,7 +8180,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -8153,7 +8190,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -8163,7 +8200,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -8173,7 +8210,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -8183,7 +8220,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -8193,7 +8230,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -8203,7 +8240,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -8213,7 +8250,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -8223,7 +8260,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -8233,7 +8270,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -8243,7 +8280,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -8253,7 +8290,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -8263,7 +8300,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -8273,7 +8310,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -8283,7 +8320,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -8293,7 +8330,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -8303,7 +8340,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -8313,7 +8350,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -8323,7 +8360,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -8333,7 +8370,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -8343,7 +8380,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -8353,7 +8390,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -8363,7 +8400,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -8373,7 +8410,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -8383,7 +8420,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -8393,7 +8430,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -8403,7 +8440,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -8413,7 +8450,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -8423,7 +8460,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -8433,7 +8470,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -8443,7 +8480,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -8453,7 +8490,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -8463,7 +8500,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -8473,7 +8510,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -8483,7 +8520,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -8493,7 +8530,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -8503,7 +8540,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -8513,7 +8550,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -8523,7 +8560,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -8533,7 +8570,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -8543,7 +8580,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -8553,7 +8590,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -8563,7 +8600,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -8573,7 +8610,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -8583,7 +8620,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -8593,7 +8630,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -8603,7 +8640,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -8613,7 +8650,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -8623,7 +8660,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -8633,7 +8670,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -8643,7 +8680,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -8653,7 +8690,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -8663,7 +8700,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -8673,7 +8710,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -8683,7 +8720,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -8693,7 +8730,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -8703,7 +8740,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -8713,7 +8750,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -8723,7 +8760,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -8733,7 +8770,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -8743,7 +8780,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -8753,7 +8790,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -8763,7 +8800,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -8773,7 +8810,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -8783,7 +8820,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -8793,7 +8830,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -8803,7 +8840,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -8813,7 +8850,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -8823,7 +8860,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -8833,7 +8870,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -8843,7 +8880,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -8853,7 +8890,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -8863,7 +8900,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -8873,7 +8910,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -8883,7 +8920,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -8893,7 +8930,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -8903,7 +8940,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -8913,7 +8950,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -8923,7 +8960,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -8933,7 +8970,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -8943,7 +8980,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -8953,7 +8990,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -8963,7 +9000,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -8973,7 +9010,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -8983,7 +9020,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -8993,7 +9030,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -9003,7 +9040,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -9013,7 +9050,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -9023,7 +9060,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -9033,7 +9070,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -9043,7 +9080,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -9053,16 +9090,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -9073,7 +9110,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9083,14 +9120,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -9102,7 +9139,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -9114,7 +9151,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -9140,7 +9177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -9164,7 +9201,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -9184,7 +9221,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -9202,7 +9239,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -9220,7 +9257,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -9238,7 +9275,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -9256,7 +9293,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -9274,7 +9311,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -9292,7 +9329,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -9310,7 +9347,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -9328,7 +9365,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -9346,7 +9383,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -9366,7 +9403,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -9384,7 +9421,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -9402,7 +9439,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -9420,7 +9457,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -9438,7 +9475,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -9456,7 +9493,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -9472,7 +9509,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -9482,7 +9519,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -9492,7 +9529,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -9502,7 +9539,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -9512,7 +9549,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -9522,7 +9559,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -9532,7 +9569,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -9542,7 +9579,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -9552,7 +9589,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -9562,7 +9599,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -9572,7 +9609,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -9582,7 +9619,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -9592,7 +9629,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -9602,7 +9639,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -9612,7 +9649,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -9622,7 +9659,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -9632,7 +9669,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -9642,7 +9679,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -9652,7 +9689,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -9662,7 +9699,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -9672,7 +9709,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -9682,7 +9719,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -9692,7 +9729,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -9702,7 +9739,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -9712,7 +9749,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -9722,7 +9759,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -9732,7 +9769,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -9742,7 +9779,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -9752,7 +9789,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -9762,7 +9799,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -9772,7 +9809,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -9782,7 +9819,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -9792,7 +9829,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -9802,7 +9839,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -9812,7 +9849,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -9822,7 +9859,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -9832,7 +9869,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -9842,7 +9879,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -9852,7 +9889,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -9862,7 +9899,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -9872,7 +9909,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -9882,7 +9919,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -9892,7 +9929,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -9902,7 +9939,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -9912,7 +9949,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -9922,7 +9959,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -9932,7 +9969,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -9942,7 +9979,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -9952,7 +9989,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -9962,7 +9999,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -9972,7 +10009,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -9982,7 +10019,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -9992,7 +10029,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -10002,7 +10039,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -10012,7 +10049,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -10022,7 +10059,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -10032,7 +10069,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -10042,7 +10079,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -10052,7 +10089,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -10062,7 +10099,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -10072,7 +10109,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -10082,7 +10119,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -10092,7 +10129,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -10102,7 +10139,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -10112,7 +10149,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -10122,7 +10159,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -10132,7 +10169,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -10142,7 +10179,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -10152,7 +10189,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -10162,7 +10199,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -10172,7 +10209,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -10182,7 +10219,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -10192,7 +10229,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -10202,7 +10239,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -10212,7 +10249,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -10222,7 +10259,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -10232,7 +10269,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -10242,7 +10279,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -10252,7 +10289,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -10262,7 +10299,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -10272,7 +10309,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -10282,7 +10319,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -10292,7 +10329,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -10302,7 +10339,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -10312,7 +10349,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -10322,7 +10359,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -10332,7 +10369,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -10342,7 +10379,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -10352,7 +10389,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -10362,7 +10399,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -10372,7 +10409,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -10382,7 +10419,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -10392,7 +10429,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -10402,7 +10439,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -10412,7 +10449,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -10422,7 +10459,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -10432,16 +10469,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -10452,7 +10489,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
+++ b/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\hgkj_02\卞虹霖\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhou\Desktop\hgkj_02\卞虹霖\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DE43F4-B4D4-40A8-9CAC-AE95D4DAD90F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB26177-2370-4EC4-BE16-294F2936E0D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="37">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>209/6/28</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -2122,8 +2126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2297,7 +2301,9 @@
         <v>43642</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="5">
+        <v>43642</v>
+      </c>
       <c r="F8" s="6">
         <v>0.2</v>
       </c>
@@ -2335,9 +2341,11 @@
         <v>43643</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="5">
+        <v>43643</v>
+      </c>
       <c r="F10" s="6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -2353,9 +2361,11 @@
         <v>43643</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="5">
+        <v>43643</v>
+      </c>
       <c r="F11" s="6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>14</v>
@@ -2370,10 +2380,14 @@
       <c r="C12" s="5">
         <v>43644</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="5">
+        <v>43646</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="F12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>14</v>
@@ -2389,9 +2403,11 @@
         <v>43645</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="5">
+        <v>43647</v>
+      </c>
       <c r="F13" s="6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>14</v>

--- a/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
+++ b/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhou\Desktop\hgkj_02\卞虹霖\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB26177-2370-4EC4-BE16-294F2936E0D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="38">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -150,12 +144,16 @@
     <t>209/6/28</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,7 +354,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -628,14 +626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -647,7 +645,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -659,7 +657,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -685,7 +683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -709,7 +707,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -731,7 +729,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="19"/>
@@ -749,7 +747,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -771,7 +769,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -793,7 +791,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="16"/>
       <c r="B8" s="15" t="s">
         <v>17</v>
@@ -813,7 +811,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="19"/>
@@ -831,7 +829,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="16"/>
       <c r="B10" s="15" t="s">
         <v>18</v>
@@ -851,7 +849,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
@@ -869,7 +867,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="16"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
@@ -891,7 +889,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="16"/>
       <c r="B13" s="15" t="s">
         <v>20</v>
@@ -911,7 +909,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="19"/>
@@ -929,7 +927,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>21</v>
@@ -949,7 +947,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="16"/>
       <c r="B16" s="9" t="s">
         <v>22</v>
@@ -971,7 +969,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="17"/>
       <c r="B17" s="9" t="s">
         <v>23</v>
@@ -991,7 +989,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="15" t="s">
         <v>24</v>
       </c>
@@ -1015,7 +1013,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="16"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
@@ -1037,7 +1035,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="16"/>
       <c r="B20" s="4" t="s">
         <v>27</v>
@@ -1055,7 +1053,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="16.8">
       <c r="A21" s="16"/>
       <c r="B21" s="4" t="s">
         <v>28</v>
@@ -1073,7 +1071,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="16.8">
       <c r="A22" s="16"/>
       <c r="B22" s="4" t="s">
         <v>29</v>
@@ -1091,7 +1089,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="16.8">
       <c r="A23" s="17"/>
       <c r="B23" s="4" t="s">
         <v>30</v>
@@ -1109,7 +1107,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="16.8">
       <c r="A24" s="4" t="s">
         <v>31</v>
       </c>
@@ -1125,7 +1123,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1135,7 +1133,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -1145,7 +1143,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1155,7 +1153,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1165,7 +1163,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1175,7 +1173,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1185,7 +1183,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1195,7 +1193,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1205,7 +1203,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1215,7 +1213,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1225,7 +1223,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1235,7 +1233,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1245,7 +1243,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1255,7 +1253,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -1265,7 +1263,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -1275,7 +1273,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1285,7 +1283,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -1295,7 +1293,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1305,7 +1303,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -1315,7 +1313,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -1325,7 +1323,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -1335,7 +1333,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -1345,7 +1343,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -1355,7 +1353,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -1365,7 +1363,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -1375,7 +1373,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -1385,7 +1383,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -1395,7 +1393,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -1405,7 +1403,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -1415,7 +1413,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -1425,7 +1423,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -1435,7 +1433,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1445,7 +1443,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -1455,7 +1453,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -1465,7 +1463,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -1475,7 +1473,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -1485,7 +1483,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -1495,7 +1493,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -1505,7 +1503,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -1515,7 +1513,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -1525,7 +1523,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -1535,7 +1533,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -1545,7 +1543,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -1555,7 +1553,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -1565,7 +1563,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -1575,7 +1573,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -1585,7 +1583,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -1595,7 +1593,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -1605,7 +1603,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -1615,7 +1613,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -1625,7 +1623,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -1635,7 +1633,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -1645,7 +1643,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -1655,7 +1653,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -1665,7 +1663,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -1675,7 +1673,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -1685,7 +1683,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -1695,7 +1693,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -1705,7 +1703,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -1715,7 +1713,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -1725,7 +1723,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -1735,7 +1733,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -1745,7 +1743,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -1755,7 +1753,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -1765,7 +1763,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -1775,7 +1773,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -1785,7 +1783,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -1795,7 +1793,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -1805,7 +1803,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -1815,7 +1813,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -1825,7 +1823,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -1835,7 +1833,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -1845,7 +1843,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -1855,7 +1853,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -1865,7 +1863,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -1875,7 +1873,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -1885,7 +1883,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -1895,7 +1893,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -1905,7 +1903,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -1915,7 +1913,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -1925,7 +1923,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -1935,7 +1933,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -1945,7 +1943,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -1955,7 +1953,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -1965,7 +1963,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -1975,7 +1973,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -1985,7 +1983,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -1995,7 +1993,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -2005,7 +2003,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -2015,7 +2013,7 @@
       <c r="G113" s="11"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -2025,7 +2023,7 @@
       <c r="G114" s="11"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -2035,7 +2033,7 @@
       <c r="G115" s="11"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -2045,7 +2043,7 @@
       <c r="G116" s="11"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -2055,7 +2053,7 @@
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -2065,7 +2063,7 @@
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -2075,7 +2073,7 @@
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -2085,16 +2083,16 @@
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
     </row>
-    <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="15.6">
       <c r="B121" s="12"/>
     </row>
-    <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="15.6">
       <c r="B122" s="12"/>
     </row>
-    <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="15.6">
       <c r="B123" s="12"/>
     </row>
-    <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="15.6">
       <c r="B124" s="12"/>
     </row>
   </sheetData>
@@ -2113,7 +2111,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G24" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G24">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2123,14 +2121,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -2142,7 +2140,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2154,7 +2152,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2180,7 +2178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2204,7 +2202,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -2230,7 +2228,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -2250,7 +2248,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -2272,7 +2270,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -2292,7 +2290,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -2312,7 +2310,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -2332,7 +2330,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -2352,7 +2350,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -2372,7 +2370,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -2394,7 +2392,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -2414,7 +2412,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -2436,7 +2434,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -2456,7 +2454,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -2474,7 +2472,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -2492,7 +2490,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -2510,7 +2508,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -2528,7 +2526,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -2544,7 +2542,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2554,7 +2552,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -2564,7 +2562,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2574,7 +2572,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2584,7 +2582,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2594,7 +2592,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2604,7 +2602,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2614,7 +2612,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2624,7 +2622,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2634,7 +2632,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2644,7 +2642,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2654,7 +2652,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2664,7 +2662,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2674,7 +2672,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -2684,7 +2682,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2694,7 +2692,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2704,7 +2702,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2714,7 +2712,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -2724,7 +2722,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2734,7 +2732,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2744,7 +2742,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -2754,7 +2752,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2764,7 +2762,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -2774,7 +2772,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2784,7 +2782,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2794,7 +2792,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -2804,7 +2802,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -2814,7 +2812,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -2824,7 +2822,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -2834,7 +2832,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -2844,7 +2842,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -2854,7 +2852,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -2864,7 +2862,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -2874,7 +2872,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -2884,7 +2882,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -2894,7 +2892,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -2904,7 +2902,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -2914,7 +2912,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -2924,7 +2922,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -2934,7 +2932,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -2944,7 +2942,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -2954,7 +2952,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -2964,7 +2962,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -2974,7 +2972,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -2984,7 +2982,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -2994,7 +2992,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -3004,7 +3002,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -3014,7 +3012,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -3024,7 +3022,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -3034,7 +3032,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -3044,7 +3042,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -3054,7 +3052,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -3064,7 +3062,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -3074,7 +3072,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -3084,7 +3082,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -3094,7 +3092,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -3104,7 +3102,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -3114,7 +3112,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -3124,7 +3122,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -3134,7 +3132,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -3144,7 +3142,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -3154,7 +3152,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -3164,7 +3162,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -3174,7 +3172,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -3184,7 +3182,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -3194,7 +3192,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -3204,7 +3202,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -3214,7 +3212,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -3224,7 +3222,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -3234,7 +3232,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -3244,7 +3242,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -3254,7 +3252,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -3264,7 +3262,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -3274,7 +3272,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -3284,7 +3282,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -3294,7 +3292,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -3304,7 +3302,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -3314,7 +3312,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -3324,7 +3322,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -3334,7 +3332,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -3344,7 +3342,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -3354,7 +3352,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -3364,7 +3362,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -3374,7 +3372,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -3384,7 +3382,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -3394,7 +3392,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -3404,7 +3402,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -3414,7 +3412,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -3424,7 +3422,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -3434,7 +3432,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -3444,7 +3442,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -3454,7 +3452,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -3464,7 +3462,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -3474,7 +3472,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -3484,7 +3482,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -3494,7 +3492,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -3504,16 +3502,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -3524,7 +3522,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3534,14 +3532,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -3553,7 +3551,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3565,7 +3563,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3591,7 +3589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -3615,7 +3613,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -3637,7 +3635,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -3657,7 +3655,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -3677,7 +3675,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -3697,7 +3695,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -3717,7 +3715,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -3737,7 +3735,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -3757,7 +3755,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -3777,7 +3775,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -3797,7 +3795,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -3817,7 +3815,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -3837,7 +3835,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -3855,7 +3853,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -3873,7 +3871,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -3891,7 +3889,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -3909,7 +3907,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -3927,7 +3925,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -3943,7 +3941,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -3953,7 +3951,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -3963,7 +3961,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -3973,7 +3971,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -3983,7 +3981,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -3993,7 +3991,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -4003,7 +4001,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -4013,7 +4011,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4023,7 +4021,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -4033,7 +4031,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -4043,7 +4041,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -4053,7 +4051,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -4063,7 +4061,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -4073,7 +4071,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -4083,7 +4081,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -4093,7 +4091,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -4103,7 +4101,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -4113,7 +4111,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -4123,7 +4121,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -4133,7 +4131,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -4143,7 +4141,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -4153,7 +4151,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -4163,7 +4161,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -4173,7 +4171,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -4183,7 +4181,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -4193,7 +4191,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -4203,7 +4201,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -4213,7 +4211,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -4223,7 +4221,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -4233,7 +4231,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -4243,7 +4241,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -4253,7 +4251,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -4263,7 +4261,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -4273,7 +4271,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -4283,7 +4281,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -4293,7 +4291,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -4303,7 +4301,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -4313,7 +4311,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -4323,7 +4321,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -4333,7 +4331,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -4343,7 +4341,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -4353,7 +4351,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -4363,7 +4361,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -4373,7 +4371,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -4383,7 +4381,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -4393,7 +4391,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -4403,7 +4401,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -4413,7 +4411,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -4423,7 +4421,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -4433,7 +4431,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -4443,7 +4441,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -4453,7 +4451,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -4463,7 +4461,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -4473,7 +4471,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -4483,7 +4481,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -4493,7 +4491,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -4503,7 +4501,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -4513,7 +4511,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -4523,7 +4521,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -4533,7 +4531,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -4543,7 +4541,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -4553,7 +4551,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -4563,7 +4561,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -4573,7 +4571,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -4583,7 +4581,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -4593,7 +4591,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -4603,7 +4601,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -4613,7 +4611,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -4623,7 +4621,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -4633,7 +4631,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -4643,7 +4641,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -4653,7 +4651,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -4663,7 +4661,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -4673,7 +4671,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -4683,7 +4681,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -4693,7 +4691,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -4703,7 +4701,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -4713,7 +4711,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -4723,7 +4721,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -4733,7 +4731,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -4743,7 +4741,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -4753,7 +4751,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -4763,7 +4761,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -4773,7 +4771,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -4783,7 +4781,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -4793,7 +4791,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -4803,7 +4801,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -4813,7 +4811,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -4823,7 +4821,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -4833,7 +4831,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -4843,7 +4841,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -4853,7 +4851,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -4863,7 +4861,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -4873,7 +4871,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -4883,7 +4881,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -4893,7 +4891,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -4903,16 +4901,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -4923,7 +4921,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4933,14 +4931,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -4952,7 +4950,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4964,7 +4962,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4990,7 +4988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -5014,7 +5012,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -5038,7 +5036,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -5060,7 +5058,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -5082,7 +5080,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -5104,7 +5102,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -5126,7 +5124,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -5148,7 +5146,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -5170,7 +5168,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -5192,7 +5190,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -5200,17 +5198,21 @@
       <c r="C12" s="5">
         <v>43644</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="5">
+        <v>43648</v>
+      </c>
+      <c r="E12" s="5">
+        <v>43648</v>
+      </c>
       <c r="F12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -5218,17 +5220,21 @@
       <c r="C13" s="5">
         <v>43645</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="5">
+        <v>43648</v>
+      </c>
+      <c r="E13" s="5">
+        <v>43648</v>
+      </c>
       <c r="F13" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -5248,7 +5254,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -5266,7 +5272,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -5284,7 +5290,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -5302,7 +5308,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -5320,7 +5326,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -5338,7 +5344,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -5354,7 +5360,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -5364,7 +5370,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -5374,7 +5380,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -5384,7 +5390,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -5394,7 +5400,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -5404,7 +5410,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -5414,7 +5420,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -5424,7 +5430,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -5434,7 +5440,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -5444,7 +5450,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -5454,7 +5460,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -5464,7 +5470,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -5474,7 +5480,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -5484,7 +5490,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -5494,7 +5500,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -5504,7 +5510,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -5514,7 +5520,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -5524,7 +5530,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -5534,7 +5540,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -5544,7 +5550,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -5554,7 +5560,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -5564,7 +5570,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -5574,7 +5580,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -5584,7 +5590,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -5594,7 +5600,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -5604,7 +5610,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -5614,7 +5620,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -5624,7 +5630,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -5634,7 +5640,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -5644,7 +5650,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -5654,7 +5660,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -5664,7 +5670,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -5674,7 +5680,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -5684,7 +5690,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -5694,7 +5700,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -5704,7 +5710,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -5714,7 +5720,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -5724,7 +5730,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -5734,7 +5740,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -5744,7 +5750,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -5754,7 +5760,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -5764,7 +5770,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -5774,7 +5780,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -5784,7 +5790,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -5794,7 +5800,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -5804,7 +5810,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -5814,7 +5820,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -5824,7 +5830,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -5834,7 +5840,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -5844,7 +5850,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -5854,7 +5860,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -5864,7 +5870,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -5874,7 +5880,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -5884,7 +5890,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -5894,7 +5900,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -5904,7 +5910,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -5914,7 +5920,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -5924,7 +5930,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -5934,7 +5940,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -5944,7 +5950,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -5954,7 +5960,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -5964,7 +5970,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -5974,7 +5980,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -5984,7 +5990,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -5994,7 +6000,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -6004,7 +6010,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -6014,7 +6020,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -6024,7 +6030,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -6034,7 +6040,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -6044,7 +6050,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -6054,7 +6060,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -6064,7 +6070,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -6074,7 +6080,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -6084,7 +6090,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -6094,7 +6100,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -6104,7 +6110,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -6114,7 +6120,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -6124,7 +6130,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -6134,7 +6140,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -6144,7 +6150,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -6154,7 +6160,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -6164,7 +6170,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -6174,7 +6180,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -6184,7 +6190,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -6194,7 +6200,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -6204,7 +6210,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -6214,7 +6220,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -6224,7 +6230,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -6234,7 +6240,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -6244,7 +6250,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -6254,7 +6260,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -6264,7 +6270,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -6274,7 +6280,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -6284,7 +6290,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -6294,7 +6300,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -6304,7 +6310,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -6314,16 +6320,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -6334,7 +6340,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6344,14 +6350,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -6363,7 +6369,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -6375,7 +6381,7 @@
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6401,7 +6407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -6425,7 +6431,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -6449,7 +6455,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="8"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -6471,7 +6477,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="8"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -6493,7 +6499,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="8"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -6513,7 +6519,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="8"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -6533,7 +6539,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="8"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -6553,7 +6559,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="8"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -6575,7 +6581,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="8"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -6593,7 +6599,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -6613,7 +6619,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>33</v>
@@ -6631,7 +6637,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
         <v>23</v>
@@ -6649,7 +6655,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
@@ -6673,7 +6679,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="8"/>
       <c r="B16" s="4" t="s">
         <v>26</v>
@@ -6691,7 +6697,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="8"/>
       <c r="B17" s="4" t="s">
         <v>27</v>
@@ -6709,7 +6715,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="8"/>
       <c r="B18" s="4" t="s">
         <v>28</v>
@@ -6727,7 +6733,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>29</v>
@@ -6745,7 +6751,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>30</v>
@@ -6763,7 +6769,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="11" t="s">
         <v>31</v>
       </c>
@@ -6779,7 +6785,7 @@
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -6789,7 +6795,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -6799,7 +6805,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -6809,7 +6815,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -6819,7 +6825,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -6829,7 +6835,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -6839,7 +6845,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -6849,7 +6855,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -6859,7 +6865,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -6869,7 +6875,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -6879,7 +6885,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -6889,7 +6895,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -6899,7 +6905,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -6909,7 +6915,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -6919,7 +6925,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -6929,7 +6935,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -6939,7 +6945,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -6949,7 +6955,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -6959,7 +6965,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -6969,7 +6975,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -6979,7 +6985,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -6989,7 +6995,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -6999,7 +7005,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -7009,7 +7015,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -7019,7 +7025,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -7029,7 +7035,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -7039,7 +7045,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -7049,7 +7055,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -7059,7 +7065,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -7069,7 +7075,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -7079,7 +7085,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -7089,7 +7095,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -7099,7 +7105,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -7109,7 +7115,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -7119,7 +7125,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -7129,7 +7135,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -7139,7 +7145,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -7149,7 +7155,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -7159,7 +7165,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -7169,7 +7175,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -7179,7 +7185,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -7189,7 +7195,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -7199,7 +7205,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -7209,7 +7215,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -7219,7 +7225,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -7229,7 +7235,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -7239,7 +7245,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -7249,7 +7255,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -7259,7 +7265,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -7269,7 +7275,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -7279,7 +7285,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -7289,7 +7295,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -7299,7 +7305,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -7309,7 +7315,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -7319,7 +7325,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -7329,7 +7335,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -7339,7 +7345,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -7349,7 +7355,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -7359,7 +7365,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -7369,7 +7375,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -7379,7 +7385,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -7389,7 +7395,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -7399,7 +7405,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -7409,7 +7415,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -7419,7 +7425,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -7429,7 +7435,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -7439,7 +7445,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -7449,7 +7455,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -7459,7 +7465,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -7469,7 +7475,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -7479,7 +7485,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -7489,7 +7495,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -7499,7 +7505,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -7509,7 +7515,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -7519,7 +7525,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -7529,7 +7535,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -7539,7 +7545,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -7549,7 +7555,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -7559,7 +7565,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -7569,7 +7575,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -7579,7 +7585,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -7589,7 +7595,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -7599,7 +7605,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -7609,7 +7615,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -7619,7 +7625,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -7629,7 +7635,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -7639,7 +7645,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -7649,7 +7655,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -7659,7 +7665,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -7669,7 +7675,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -7679,7 +7685,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -7689,7 +7695,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -7699,7 +7705,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -7709,7 +7715,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -7719,7 +7725,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -7729,16 +7735,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -7747,7 +7753,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7757,14 +7763,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -7776,7 +7782,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7788,7 +7794,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7814,7 +7820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -7838,7 +7844,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -7858,7 +7864,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -7876,7 +7882,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -7894,7 +7900,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -7912,7 +7918,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -7930,7 +7936,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -7948,7 +7954,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -7966,7 +7972,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -7984,7 +7990,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -8002,7 +8008,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -8020,7 +8026,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -8040,7 +8046,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -8058,7 +8064,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -8076,7 +8082,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -8094,7 +8100,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -8112,7 +8118,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -8130,7 +8136,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -8146,7 +8152,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -8156,7 +8162,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -8166,7 +8172,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -8176,7 +8182,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -8186,7 +8192,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -8196,7 +8202,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -8206,7 +8212,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -8216,7 +8222,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -8226,7 +8232,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -8236,7 +8242,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -8246,7 +8252,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -8256,7 +8262,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -8266,7 +8272,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -8276,7 +8282,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -8286,7 +8292,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -8296,7 +8302,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -8306,7 +8312,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -8316,7 +8322,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -8326,7 +8332,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -8336,7 +8342,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -8346,7 +8352,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -8356,7 +8362,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -8366,7 +8372,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -8376,7 +8382,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -8386,7 +8392,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -8396,7 +8402,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -8406,7 +8412,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -8416,7 +8422,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -8426,7 +8432,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -8436,7 +8442,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -8446,7 +8452,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -8456,7 +8462,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -8466,7 +8472,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -8476,7 +8482,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -8486,7 +8492,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -8496,7 +8502,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -8506,7 +8512,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -8516,7 +8522,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -8526,7 +8532,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -8536,7 +8542,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -8546,7 +8552,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -8556,7 +8562,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -8566,7 +8572,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -8576,7 +8582,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -8586,7 +8592,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -8596,7 +8602,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -8606,7 +8612,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -8616,7 +8622,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -8626,7 +8632,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -8636,7 +8642,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -8646,7 +8652,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -8656,7 +8662,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -8666,7 +8672,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -8676,7 +8682,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -8686,7 +8692,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -8696,7 +8702,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -8706,7 +8712,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -8716,7 +8722,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -8726,7 +8732,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -8736,7 +8742,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -8746,7 +8752,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -8756,7 +8762,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -8766,7 +8772,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -8776,7 +8782,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -8786,7 +8792,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -8796,7 +8802,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -8806,7 +8812,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -8816,7 +8822,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -8826,7 +8832,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -8836,7 +8842,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -8846,7 +8852,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -8856,7 +8862,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -8866,7 +8872,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -8876,7 +8882,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -8886,7 +8892,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -8896,7 +8902,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -8906,7 +8912,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -8916,7 +8922,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -8926,7 +8932,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -8936,7 +8942,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -8946,7 +8952,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -8956,7 +8962,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -8966,7 +8972,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -8976,7 +8982,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -8986,7 +8992,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -8996,7 +9002,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -9006,7 +9012,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -9016,7 +9022,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -9026,7 +9032,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -9036,7 +9042,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -9046,7 +9052,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -9056,7 +9062,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -9066,7 +9072,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -9076,7 +9082,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -9086,7 +9092,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -9096,7 +9102,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -9106,16 +9112,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -9126,7 +9132,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9136,14 +9142,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -9155,7 +9161,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -9167,7 +9173,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -9193,7 +9199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -9217,7 +9223,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -9237,7 +9243,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -9255,7 +9261,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -9273,7 +9279,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -9291,7 +9297,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -9309,7 +9315,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -9327,7 +9333,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -9345,7 +9351,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -9363,7 +9369,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -9381,7 +9387,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -9399,7 +9405,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -9419,7 +9425,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -9437,7 +9443,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -9455,7 +9461,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -9473,7 +9479,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -9491,7 +9497,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -9509,7 +9515,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -9525,7 +9531,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -9535,7 +9541,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -9545,7 +9551,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -9555,7 +9561,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -9565,7 +9571,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -9575,7 +9581,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -9585,7 +9591,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -9595,7 +9601,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -9605,7 +9611,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -9615,7 +9621,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -9625,7 +9631,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -9635,7 +9641,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -9645,7 +9651,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -9655,7 +9661,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -9665,7 +9671,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -9675,7 +9681,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -9685,7 +9691,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -9695,7 +9701,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -9705,7 +9711,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -9715,7 +9721,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -9725,7 +9731,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -9735,7 +9741,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -9745,7 +9751,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -9755,7 +9761,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -9765,7 +9771,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -9775,7 +9781,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -9785,7 +9791,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -9795,7 +9801,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -9805,7 +9811,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -9815,7 +9821,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -9825,7 +9831,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -9835,7 +9841,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -9845,7 +9851,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -9855,7 +9861,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -9865,7 +9871,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -9875,7 +9881,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -9885,7 +9891,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -9895,7 +9901,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -9905,7 +9911,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -9915,7 +9921,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -9925,7 +9931,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -9935,7 +9941,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -9945,7 +9951,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -9955,7 +9961,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -9965,7 +9971,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -9975,7 +9981,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -9985,7 +9991,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -9995,7 +10001,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -10005,7 +10011,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -10015,7 +10021,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -10025,7 +10031,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -10035,7 +10041,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -10045,7 +10051,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -10055,7 +10061,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -10065,7 +10071,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -10075,7 +10081,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -10085,7 +10091,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -10095,7 +10101,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -10105,7 +10111,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -10115,7 +10121,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -10125,7 +10131,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -10135,7 +10141,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -10145,7 +10151,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -10155,7 +10161,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -10165,7 +10171,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -10175,7 +10181,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -10185,7 +10191,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -10195,7 +10201,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -10205,7 +10211,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -10215,7 +10221,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -10225,7 +10231,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -10235,7 +10241,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -10245,7 +10251,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -10255,7 +10261,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -10265,7 +10271,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -10275,7 +10281,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -10285,7 +10291,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -10295,7 +10301,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -10305,7 +10311,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -10315,7 +10321,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -10325,7 +10331,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -10335,7 +10341,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -10345,7 +10351,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -10355,7 +10361,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -10365,7 +10371,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -10375,7 +10381,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -10385,7 +10391,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -10395,7 +10401,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -10405,7 +10411,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -10415,7 +10421,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -10425,7 +10431,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -10435,7 +10441,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -10445,7 +10451,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -10455,7 +10461,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -10465,7 +10471,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -10475,7 +10481,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -10485,16 +10491,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -10505,7 +10511,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
+++ b/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\hgkj_02\卞虹霖\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CA22A8-96AF-4CCE-BF96-8766EE7FEB32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <sheet name="马涛" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">卞虹霖!$G$16:$G$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">卞虹霖!$G$17:$G$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">黄之贤!$G$12:$G$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">金懿!$G$12:$G$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">马涛!$G$12:$G$20</definedName>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="38">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -152,8 +158,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,7 +293,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -330,6 +336,9 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -351,10 +360,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -626,14 +641,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H124"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -645,19 +660,19 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -683,7 +698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -707,14 +722,14 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="19">
         <v>43640</v>
       </c>
       <c r="D4" s="4"/>
@@ -729,10 +744,10 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="5">
         <v>43641</v>
       </c>
@@ -747,8 +762,8 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
-      <c r="A6" s="16"/>
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
@@ -769,8 +784,8 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
-      <c r="A7" s="16"/>
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
@@ -791,12 +806,12 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
-      <c r="A8" s="16"/>
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="19">
         <v>43641</v>
       </c>
       <c r="D8" s="4"/>
@@ -811,10 +826,10 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="19"/>
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="5">
         <v>43642</v>
       </c>
@@ -829,12 +844,12 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
-      <c r="A10" s="16"/>
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="19">
         <v>43642</v>
       </c>
       <c r="D10" s="4"/>
@@ -849,10 +864,10 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="19"/>
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="5">
         <v>43642</v>
       </c>
@@ -867,8 +882,8 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
-      <c r="A12" s="16"/>
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
@@ -889,12 +904,12 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
-      <c r="A13" s="16"/>
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="19">
         <v>43643</v>
       </c>
       <c r="D13" s="4"/>
@@ -909,10 +924,10 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="19"/>
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="5">
         <v>43647</v>
       </c>
@@ -927,12 +942,12 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
-      <c r="A15" s="16"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="19">
         <v>43643</v>
       </c>
       <c r="D15" s="4"/>
@@ -947,19 +962,15 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
-      <c r="A16" s="16"/>
-      <c r="B16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="5">
-        <v>43644</v>
-      </c>
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="5">
-        <v>43646</v>
+        <v>43648</v>
       </c>
       <c r="E16" s="5">
-        <v>43646</v>
+        <v>43648</v>
       </c>
       <c r="F16" s="6">
         <v>1</v>
@@ -969,63 +980,57 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="5">
-        <v>43645</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>43644</v>
+      </c>
+      <c r="D17" s="5">
+        <v>43646</v>
+      </c>
       <c r="E17" s="5">
         <v>43646</v>
       </c>
       <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="19">
+        <v>43645</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5">
+        <v>43646</v>
+      </c>
+      <c r="F18" s="6">
         <v>0.7</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.8">
-      <c r="A18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="5">
-        <v>43645</v>
-      </c>
-      <c r="D18" s="5">
-        <v>43647</v>
-      </c>
-      <c r="E18" s="5">
-        <v>43647</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
-      <c r="A19" s="16"/>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="5">
-        <v>43645</v>
-      </c>
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="5">
-        <v>43647</v>
+        <v>43648</v>
       </c>
       <c r="E19" s="5">
-        <v>43647</v>
+        <v>43648</v>
       </c>
       <c r="F19" s="6">
         <v>1</v>
@@ -1035,49 +1040,59 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
-      <c r="A20" s="16"/>
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="5">
+        <v>43645</v>
+      </c>
+      <c r="D20" s="5">
+        <v>43647</v>
+      </c>
+      <c r="E20" s="5">
+        <v>43647</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="5">
+        <v>43645</v>
+      </c>
+      <c r="D21" s="5">
+        <v>43647</v>
+      </c>
+      <c r="E21" s="5">
+        <v>43647</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C22" s="5">
         <v>43646</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.8">
-      <c r="A21" s="16"/>
-      <c r="B21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="5">
-        <v>43646</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.8">
-      <c r="A22" s="16"/>
-      <c r="B22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="5">
-        <v>43647</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1089,13 +1104,13 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="16.8">
+    <row r="23" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="5">
-        <v>43648</v>
+        <v>43646</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1107,12 +1122,14 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.8">
-      <c r="A24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+    <row r="24" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="5">
+        <v>43647</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="6">
@@ -1123,27 +1140,41 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.6">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="5">
+        <v>43648</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1153,7 +1184,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1163,7 +1194,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1173,7 +1204,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1183,7 +1214,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1193,7 +1224,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1203,7 +1234,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1213,7 +1244,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1223,7 +1254,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1233,7 +1264,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1243,7 +1274,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1253,7 +1284,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -1263,7 +1294,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -1273,7 +1304,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1283,7 +1314,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -1293,7 +1324,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1303,7 +1334,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -1313,7 +1344,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -1323,7 +1354,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -1333,7 +1364,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -1343,7 +1374,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -1353,7 +1384,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -1363,7 +1394,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -1373,7 +1404,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -1383,7 +1414,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -1393,7 +1424,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -1403,7 +1434,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -1413,7 +1444,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -1423,7 +1454,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -1433,7 +1464,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1443,7 +1474,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -1453,7 +1484,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -1463,7 +1494,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -1473,7 +1504,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -1483,7 +1514,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -1493,7 +1524,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -1503,7 +1534,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -1513,7 +1544,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -1523,7 +1554,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -1533,7 +1564,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -1543,7 +1574,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -1553,7 +1584,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -1563,7 +1594,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -1573,7 +1604,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -1583,7 +1614,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -1593,7 +1624,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -1603,7 +1634,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -1613,7 +1644,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -1623,7 +1654,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -1633,7 +1664,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -1643,7 +1674,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -1653,7 +1684,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -1663,7 +1694,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -1673,7 +1704,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -1683,7 +1714,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -1693,7 +1724,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -1703,7 +1734,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -1713,7 +1744,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -1723,7 +1754,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -1733,7 +1764,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -1743,7 +1774,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -1753,7 +1784,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -1763,7 +1794,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -1773,7 +1804,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -1783,7 +1814,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -1793,7 +1824,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -1803,7 +1834,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -1813,7 +1844,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -1823,7 +1854,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -1833,7 +1864,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -1843,7 +1874,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -1853,7 +1884,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -1863,7 +1894,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -1873,7 +1904,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -1883,7 +1914,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -1893,7 +1924,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -1903,7 +1934,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -1913,7 +1944,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -1923,7 +1954,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -1933,7 +1964,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -1943,7 +1974,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -1953,7 +1984,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -1963,7 +1994,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -1973,7 +2004,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -1983,7 +2014,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -1993,7 +2024,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -2003,7 +2034,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -2013,7 +2044,7 @@
       <c r="G113" s="11"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -2023,7 +2054,7 @@
       <c r="G114" s="11"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -2033,7 +2064,7 @@
       <c r="G115" s="11"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -2043,27 +2074,27 @@
       <c r="G116" s="11"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
-      <c r="A117" s="12"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
       <c r="H117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
-      <c r="A118" s="12"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A118" s="11"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
       <c r="H118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -2073,7 +2104,7 @@
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -2083,23 +2114,43 @@
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
     </row>
-    <row r="121" spans="1:8" ht="15.6">
+    <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A121" s="12"/>
       <c r="B121" s="12"/>
-    </row>
-    <row r="122" spans="1:8" ht="15.6">
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+    </row>
+    <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A122" s="12"/>
       <c r="B122" s="12"/>
-    </row>
-    <row r="123" spans="1:8" ht="15.6">
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+    </row>
+    <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B123" s="12"/>
     </row>
-    <row r="124" spans="1:8" ht="15.6">
+    <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B124" s="12"/>
     </row>
+    <row r="125" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B125" s="12"/>
+    </row>
+    <row r="126" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B126" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="A20:A25"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
@@ -2108,10 +2159,14 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G26" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2121,14 +2176,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -2140,19 +2195,19 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2178,7 +2233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2202,8 +2257,8 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2228,8 +2283,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2248,8 +2303,8 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
-      <c r="A6" s="16"/>
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
@@ -2270,8 +2325,8 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
-      <c r="A7" s="16"/>
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
@@ -2290,8 +2345,8 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
-      <c r="A8" s="16"/>
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -2310,8 +2365,8 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
-      <c r="A9" s="16"/>
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
@@ -2330,8 +2385,8 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
-      <c r="A10" s="16"/>
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2405,8 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
-      <c r="A11" s="16"/>
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
@@ -2370,8 +2425,8 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
-      <c r="A12" s="16"/>
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
@@ -2392,8 +2447,8 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
@@ -2412,8 +2467,8 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2434,8 +2489,8 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
-      <c r="A15" s="16"/>
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
@@ -2454,8 +2509,8 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
-      <c r="A16" s="16"/>
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
@@ -2472,8 +2527,8 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
       </c>
@@ -2490,8 +2545,8 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
-      <c r="A18" s="16"/>
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
       </c>
@@ -2508,8 +2563,8 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
@@ -2526,7 +2581,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -2542,7 +2597,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2552,7 +2607,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -2562,7 +2617,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2572,7 +2627,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2582,7 +2637,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2592,7 +2647,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2602,7 +2657,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2612,7 +2667,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2622,7 +2677,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2632,7 +2687,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2642,7 +2697,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2652,7 +2707,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2662,7 +2717,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2672,7 +2727,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -2682,7 +2737,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2692,7 +2747,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2702,7 +2757,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2712,7 +2767,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -2722,7 +2777,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2732,7 +2787,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2742,7 +2797,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -2752,7 +2807,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2762,7 +2817,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -2772,7 +2827,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2782,7 +2837,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2792,7 +2847,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -2802,7 +2857,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -2812,7 +2867,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -2822,7 +2877,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -2832,7 +2887,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -2842,7 +2897,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -2852,7 +2907,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -2862,7 +2917,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -2872,7 +2927,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -2882,7 +2937,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -2892,7 +2947,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -2902,7 +2957,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -2912,7 +2967,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -2922,7 +2977,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -2932,7 +2987,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -2942,7 +2997,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -2952,7 +3007,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -2962,7 +3017,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -2972,7 +3027,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -2982,7 +3037,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -2992,7 +3047,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -3002,7 +3057,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -3012,7 +3067,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -3022,7 +3077,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -3032,7 +3087,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -3042,7 +3097,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -3052,7 +3107,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -3062,7 +3117,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -3072,7 +3127,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -3082,7 +3137,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -3092,7 +3147,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -3102,7 +3157,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -3112,7 +3167,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -3122,7 +3177,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -3132,7 +3187,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -3142,7 +3197,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -3152,7 +3207,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -3162,7 +3217,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -3172,7 +3227,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -3182,7 +3237,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -3192,7 +3247,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -3202,7 +3257,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -3212,7 +3267,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -3222,7 +3277,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -3232,7 +3287,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -3242,7 +3297,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -3252,7 +3307,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -3262,7 +3317,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -3272,7 +3327,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -3282,7 +3337,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -3292,7 +3347,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -3302,7 +3357,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -3312,7 +3367,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -3322,7 +3377,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -3332,7 +3387,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -3342,7 +3397,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -3352,7 +3407,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -3362,7 +3417,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -3372,7 +3427,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -3382,7 +3437,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -3392,7 +3447,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -3402,7 +3457,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -3412,7 +3467,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -3422,7 +3477,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -3432,7 +3487,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -3442,7 +3497,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -3452,7 +3507,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -3462,7 +3517,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -3472,7 +3527,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -3482,7 +3537,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -3492,7 +3547,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -3502,16 +3557,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -3522,7 +3577,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3532,14 +3587,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -3551,19 +3606,19 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3589,7 +3644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -3613,8 +3668,8 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -3635,8 +3690,8 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
@@ -3655,8 +3710,8 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
-      <c r="A6" s="16"/>
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
@@ -3675,8 +3730,8 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
-      <c r="A7" s="16"/>
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
@@ -3695,8 +3750,8 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
-      <c r="A8" s="16"/>
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -3715,8 +3770,8 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
-      <c r="A9" s="16"/>
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
@@ -3735,8 +3790,8 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
-      <c r="A10" s="16"/>
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
@@ -3755,8 +3810,8 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
-      <c r="A11" s="16"/>
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
@@ -3775,8 +3830,8 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
-      <c r="A12" s="16"/>
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
@@ -3795,8 +3850,8 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
@@ -3815,8 +3870,8 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3835,8 +3890,8 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
-      <c r="A15" s="16"/>
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
@@ -3853,8 +3908,8 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
-      <c r="A16" s="16"/>
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
@@ -3871,8 +3926,8 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
       </c>
@@ -3889,8 +3944,8 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
-      <c r="A18" s="16"/>
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
       </c>
@@ -3907,8 +3962,8 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
@@ -3925,7 +3980,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -3941,7 +3996,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -3951,7 +4006,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -3961,7 +4016,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -3971,7 +4026,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -3981,7 +4036,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -3991,7 +4046,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -4001,7 +4056,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -4011,7 +4066,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4021,7 +4076,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -4031,7 +4086,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -4041,7 +4096,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -4051,7 +4106,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -4061,7 +4116,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -4071,7 +4126,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -4081,7 +4136,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -4091,7 +4146,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -4101,7 +4156,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -4111,7 +4166,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -4121,7 +4176,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -4131,7 +4186,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -4141,7 +4196,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -4151,7 +4206,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -4161,7 +4216,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -4171,7 +4226,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -4181,7 +4236,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -4191,7 +4246,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -4201,7 +4256,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -4211,7 +4266,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -4221,7 +4276,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -4231,7 +4286,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -4241,7 +4296,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -4251,7 +4306,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -4261,7 +4316,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -4271,7 +4326,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -4281,7 +4336,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -4291,7 +4346,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -4301,7 +4356,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -4311,7 +4366,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -4321,7 +4376,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -4331,7 +4386,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -4341,7 +4396,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -4351,7 +4406,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -4361,7 +4416,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -4371,7 +4426,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -4381,7 +4436,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -4391,7 +4446,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -4401,7 +4456,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -4411,7 +4466,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -4421,7 +4476,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -4431,7 +4486,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -4441,7 +4496,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -4451,7 +4506,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -4461,7 +4516,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -4471,7 +4526,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -4481,7 +4536,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -4491,7 +4546,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -4501,7 +4556,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -4511,7 +4566,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -4521,7 +4576,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -4531,7 +4586,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -4541,7 +4596,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -4551,7 +4606,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -4561,7 +4616,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -4571,7 +4626,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -4581,7 +4636,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -4591,7 +4646,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -4601,7 +4656,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -4611,7 +4666,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -4621,7 +4676,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -4631,7 +4686,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -4641,7 +4696,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -4651,7 +4706,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -4661,7 +4716,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -4671,7 +4726,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -4681,7 +4736,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -4691,7 +4746,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -4701,7 +4756,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -4711,7 +4766,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -4721,7 +4776,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -4731,7 +4786,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -4741,7 +4796,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -4751,7 +4806,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -4761,7 +4816,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -4771,7 +4826,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -4781,7 +4836,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -4791,7 +4846,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -4801,7 +4856,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -4811,7 +4866,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -4821,7 +4876,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -4831,7 +4886,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -4841,7 +4896,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -4851,7 +4906,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -4861,7 +4916,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -4871,7 +4926,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -4881,7 +4936,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -4891,7 +4946,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -4901,16 +4956,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -4921,7 +4976,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4931,14 +4986,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -4950,19 +5005,19 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4988,7 +5043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -5012,8 +5067,8 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -5036,8 +5091,8 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
@@ -5058,8 +5113,8 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
-      <c r="A6" s="16"/>
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
@@ -5080,8 +5135,8 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
-      <c r="A7" s="16"/>
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
@@ -5102,8 +5157,8 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
-      <c r="A8" s="16"/>
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -5124,8 +5179,8 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
-      <c r="A9" s="16"/>
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
@@ -5146,8 +5201,8 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
-      <c r="A10" s="16"/>
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
@@ -5168,8 +5223,8 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
-      <c r="A11" s="16"/>
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
@@ -5190,8 +5245,8 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
-      <c r="A12" s="16"/>
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
@@ -5212,8 +5267,8 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
@@ -5234,8 +5289,8 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -5254,8 +5309,8 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
-      <c r="A15" s="16"/>
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
@@ -5272,8 +5327,8 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
-      <c r="A16" s="16"/>
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
@@ -5290,8 +5345,8 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
       </c>
@@ -5308,8 +5363,8 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
-      <c r="A18" s="16"/>
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
       </c>
@@ -5326,8 +5381,8 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
@@ -5344,7 +5399,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -5360,7 +5415,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -5370,7 +5425,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -5380,7 +5435,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -5390,7 +5445,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -5400,7 +5455,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -5410,7 +5465,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -5420,7 +5475,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -5430,7 +5485,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -5440,7 +5495,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -5450,7 +5505,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -5460,7 +5515,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -5470,7 +5525,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -5480,7 +5535,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -5490,7 +5545,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -5500,7 +5555,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -5510,7 +5565,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -5520,7 +5575,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -5530,7 +5585,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -5540,7 +5595,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -5550,7 +5605,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -5560,7 +5615,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -5570,7 +5625,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -5580,7 +5635,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -5590,7 +5645,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -5600,7 +5655,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -5610,7 +5665,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -5620,7 +5675,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -5630,7 +5685,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -5640,7 +5695,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -5650,7 +5705,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -5660,7 +5715,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -5670,7 +5725,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -5680,7 +5735,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -5690,7 +5745,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -5700,7 +5755,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -5710,7 +5765,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -5720,7 +5775,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -5730,7 +5785,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -5740,7 +5795,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -5750,7 +5805,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -5760,7 +5815,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -5770,7 +5825,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -5780,7 +5835,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -5790,7 +5845,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -5800,7 +5855,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -5810,7 +5865,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -5820,7 +5875,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -5830,7 +5885,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -5840,7 +5895,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -5850,7 +5905,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -5860,7 +5915,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -5870,7 +5925,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -5880,7 +5935,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -5890,7 +5945,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -5900,7 +5955,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -5910,7 +5965,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -5920,7 +5975,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -5930,7 +5985,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -5940,7 +5995,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -5950,7 +6005,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -5960,7 +6015,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -5970,7 +6025,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -5980,7 +6035,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -5990,7 +6045,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -6000,7 +6055,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -6010,7 +6065,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -6020,7 +6075,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -6030,7 +6085,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -6040,7 +6095,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -6050,7 +6105,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -6060,7 +6115,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -6070,7 +6125,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -6080,7 +6135,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -6090,7 +6145,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -6100,7 +6155,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -6110,7 +6165,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -6120,7 +6175,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -6130,7 +6185,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -6140,7 +6195,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -6150,7 +6205,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -6160,7 +6215,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -6170,7 +6225,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -6180,7 +6235,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -6190,7 +6245,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -6200,7 +6255,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -6210,7 +6265,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -6220,7 +6275,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -6230,7 +6285,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -6240,7 +6295,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -6250,7 +6305,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -6260,7 +6315,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -6270,7 +6325,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -6280,7 +6335,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -6290,7 +6345,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -6300,7 +6355,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -6310,7 +6365,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -6320,16 +6375,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -6340,7 +6395,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6350,14 +6405,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -6369,19 +6424,19 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6407,7 +6462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -6431,7 +6486,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -6455,7 +6510,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -6477,7 +6532,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -6499,7 +6554,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -6519,7 +6574,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -6539,7 +6594,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -6559,7 +6614,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -6581,7 +6636,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -6599,7 +6654,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -6619,7 +6674,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>33</v>
@@ -6637,7 +6692,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
         <v>23</v>
@@ -6655,7 +6710,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
@@ -6679,7 +6734,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="4" t="s">
         <v>26</v>
@@ -6697,7 +6752,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="4" t="s">
         <v>27</v>
@@ -6715,7 +6770,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="4" t="s">
         <v>28</v>
@@ -6733,7 +6788,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>29</v>
@@ -6751,7 +6806,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>30</v>
@@ -6769,7 +6824,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>31</v>
       </c>
@@ -6785,7 +6840,7 @@
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -6795,7 +6850,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -6805,7 +6860,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -6815,7 +6870,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -6825,7 +6880,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -6835,7 +6890,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -6845,7 +6900,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -6855,7 +6910,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -6865,7 +6920,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -6875,7 +6930,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -6885,7 +6940,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -6895,7 +6950,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -6905,7 +6960,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -6915,7 +6970,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -6925,7 +6980,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -6935,7 +6990,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -6945,7 +7000,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -6955,7 +7010,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -6965,7 +7020,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -6975,7 +7030,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -6985,7 +7040,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -6995,7 +7050,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -7005,7 +7060,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -7015,7 +7070,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -7025,7 +7080,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -7035,7 +7090,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -7045,7 +7100,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -7055,7 +7110,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -7065,7 +7120,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -7075,7 +7130,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -7085,7 +7140,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -7095,7 +7150,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -7105,7 +7160,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -7115,7 +7170,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -7125,7 +7180,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -7135,7 +7190,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -7145,7 +7200,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -7155,7 +7210,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -7165,7 +7220,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -7175,7 +7230,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -7185,7 +7240,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -7195,7 +7250,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -7205,7 +7260,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -7215,7 +7270,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -7225,7 +7280,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -7235,7 +7290,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -7245,7 +7300,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -7255,7 +7310,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -7265,7 +7320,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -7275,7 +7330,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -7285,7 +7340,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -7295,7 +7350,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -7305,7 +7360,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -7315,7 +7370,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -7325,7 +7380,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -7335,7 +7390,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -7345,7 +7400,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -7355,7 +7410,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -7365,7 +7420,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -7375,7 +7430,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -7385,7 +7440,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -7395,7 +7450,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -7405,7 +7460,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -7415,7 +7470,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -7425,7 +7480,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -7435,7 +7490,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -7445,7 +7500,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -7455,7 +7510,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -7465,7 +7520,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -7475,7 +7530,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -7485,7 +7540,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -7495,7 +7550,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -7505,7 +7560,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -7515,7 +7570,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -7525,7 +7580,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -7535,7 +7590,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -7545,7 +7600,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -7555,7 +7610,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -7565,7 +7620,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -7575,7 +7630,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -7585,7 +7640,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -7595,7 +7650,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -7605,7 +7660,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -7615,7 +7670,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -7625,7 +7680,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -7635,7 +7690,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -7645,7 +7700,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -7655,7 +7710,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -7665,7 +7720,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -7675,7 +7730,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -7685,7 +7740,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -7695,7 +7750,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -7705,7 +7760,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -7715,7 +7770,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -7725,7 +7780,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -7735,16 +7790,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -7753,7 +7808,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7763,14 +7818,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -7782,19 +7837,19 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7820,7 +7875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -7844,8 +7899,8 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -7864,8 +7919,8 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
@@ -7882,8 +7937,8 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
-      <c r="A6" s="16"/>
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
@@ -7900,8 +7955,8 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
-      <c r="A7" s="16"/>
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
@@ -7918,8 +7973,8 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
-      <c r="A8" s="16"/>
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -7936,8 +7991,8 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
-      <c r="A9" s="16"/>
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
@@ -7954,8 +8009,8 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
-      <c r="A10" s="16"/>
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
@@ -7972,8 +8027,8 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
-      <c r="A11" s="16"/>
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
@@ -7990,8 +8045,8 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
-      <c r="A12" s="16"/>
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
@@ -8008,8 +8063,8 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
@@ -8026,8 +8081,8 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -8046,8 +8101,8 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
-      <c r="A15" s="16"/>
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
@@ -8064,8 +8119,8 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
-      <c r="A16" s="16"/>
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
@@ -8082,8 +8137,8 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
       </c>
@@ -8100,8 +8155,8 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
-      <c r="A18" s="16"/>
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
       </c>
@@ -8118,8 +8173,8 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
@@ -8136,7 +8191,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -8152,7 +8207,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -8162,7 +8217,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -8172,7 +8227,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -8182,7 +8237,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -8192,7 +8247,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -8202,7 +8257,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -8212,7 +8267,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -8222,7 +8277,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -8232,7 +8287,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -8242,7 +8297,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -8252,7 +8307,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -8262,7 +8317,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -8272,7 +8327,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -8282,7 +8337,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -8292,7 +8347,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -8302,7 +8357,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -8312,7 +8367,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -8322,7 +8377,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -8332,7 +8387,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -8342,7 +8397,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -8352,7 +8407,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -8362,7 +8417,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -8372,7 +8427,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -8382,7 +8437,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -8392,7 +8447,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -8402,7 +8457,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -8412,7 +8467,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -8422,7 +8477,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -8432,7 +8487,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -8442,7 +8497,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -8452,7 +8507,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -8462,7 +8517,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -8472,7 +8527,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -8482,7 +8537,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -8492,7 +8547,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -8502,7 +8557,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -8512,7 +8567,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -8522,7 +8577,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -8532,7 +8587,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -8542,7 +8597,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -8552,7 +8607,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -8562,7 +8617,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -8572,7 +8627,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -8582,7 +8637,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -8592,7 +8647,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -8602,7 +8657,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -8612,7 +8667,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -8622,7 +8677,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -8632,7 +8687,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -8642,7 +8697,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -8652,7 +8707,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -8662,7 +8717,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -8672,7 +8727,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -8682,7 +8737,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -8692,7 +8747,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -8702,7 +8757,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -8712,7 +8767,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -8722,7 +8777,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -8732,7 +8787,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -8742,7 +8797,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -8752,7 +8807,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -8762,7 +8817,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -8772,7 +8827,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -8782,7 +8837,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -8792,7 +8847,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -8802,7 +8857,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -8812,7 +8867,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -8822,7 +8877,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -8832,7 +8887,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -8842,7 +8897,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -8852,7 +8907,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -8862,7 +8917,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -8872,7 +8927,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -8882,7 +8937,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -8892,7 +8947,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -8902,7 +8957,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -8912,7 +8967,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -8922,7 +8977,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -8932,7 +8987,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -8942,7 +8997,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -8952,7 +9007,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -8962,7 +9017,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -8972,7 +9027,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -8982,7 +9037,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -8992,7 +9047,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -9002,7 +9057,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -9012,7 +9067,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -9022,7 +9077,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -9032,7 +9087,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -9042,7 +9097,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -9052,7 +9107,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -9062,7 +9117,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -9072,7 +9127,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -9082,7 +9137,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -9092,7 +9147,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -9102,7 +9157,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -9112,16 +9167,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -9132,7 +9187,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9142,14 +9197,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -9161,19 +9216,19 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -9199,7 +9254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -9223,8 +9278,8 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -9243,8 +9298,8 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
@@ -9261,8 +9316,8 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
-      <c r="A6" s="16"/>
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
@@ -9279,8 +9334,8 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
-      <c r="A7" s="16"/>
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
@@ -9297,8 +9352,8 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
-      <c r="A8" s="16"/>
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -9315,8 +9370,8 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
-      <c r="A9" s="16"/>
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
@@ -9333,8 +9388,8 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
-      <c r="A10" s="16"/>
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
@@ -9351,8 +9406,8 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
-      <c r="A11" s="16"/>
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
@@ -9369,8 +9424,8 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
-      <c r="A12" s="16"/>
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
@@ -9387,8 +9442,8 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
@@ -9405,8 +9460,8 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -9425,8 +9480,8 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
-      <c r="A15" s="16"/>
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
@@ -9443,8 +9498,8 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
-      <c r="A16" s="16"/>
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
@@ -9461,8 +9516,8 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
       </c>
@@ -9479,8 +9534,8 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
-      <c r="A18" s="16"/>
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
       </c>
@@ -9497,8 +9552,8 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
@@ -9515,7 +9570,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -9531,7 +9586,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -9541,7 +9596,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -9551,7 +9606,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -9561,7 +9616,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -9571,7 +9626,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -9581,7 +9636,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -9591,7 +9646,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -9601,7 +9656,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -9611,7 +9666,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -9621,7 +9676,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -9631,7 +9686,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -9641,7 +9696,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -9651,7 +9706,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -9661,7 +9716,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -9671,7 +9726,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -9681,7 +9736,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -9691,7 +9746,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -9701,7 +9756,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -9711,7 +9766,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -9721,7 +9776,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -9731,7 +9786,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -9741,7 +9796,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -9751,7 +9806,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -9761,7 +9816,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -9771,7 +9826,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -9781,7 +9836,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -9791,7 +9846,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -9801,7 +9856,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -9811,7 +9866,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -9821,7 +9876,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -9831,7 +9886,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -9841,7 +9896,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -9851,7 +9906,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -9861,7 +9916,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -9871,7 +9926,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -9881,7 +9936,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -9891,7 +9946,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -9901,7 +9956,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -9911,7 +9966,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -9921,7 +9976,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -9931,7 +9986,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -9941,7 +9996,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -9951,7 +10006,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -9961,7 +10016,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -9971,7 +10026,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -9981,7 +10036,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -9991,7 +10046,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -10001,7 +10056,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -10011,7 +10066,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -10021,7 +10076,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -10031,7 +10086,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -10041,7 +10096,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -10051,7 +10106,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -10061,7 +10116,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -10071,7 +10126,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -10081,7 +10136,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -10091,7 +10146,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -10101,7 +10156,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -10111,7 +10166,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -10121,7 +10176,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -10131,7 +10186,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -10141,7 +10196,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -10151,7 +10206,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -10161,7 +10216,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -10171,7 +10226,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -10181,7 +10236,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -10191,7 +10246,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -10201,7 +10256,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -10211,7 +10266,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -10221,7 +10276,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -10231,7 +10286,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -10241,7 +10296,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -10251,7 +10306,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -10261,7 +10316,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -10271,7 +10326,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -10281,7 +10336,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -10291,7 +10346,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -10301,7 +10356,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -10311,7 +10366,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -10321,7 +10376,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -10331,7 +10386,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -10341,7 +10396,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -10351,7 +10406,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -10361,7 +10416,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -10371,7 +10426,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -10381,7 +10436,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -10391,7 +10446,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -10401,7 +10456,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -10411,7 +10466,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -10421,7 +10476,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -10431,7 +10486,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -10441,7 +10496,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -10451,7 +10506,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -10461,7 +10516,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -10471,7 +10526,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -10481,7 +10536,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -10491,16 +10546,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -10511,7 +10566,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
+++ b/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\hgkj_02\卞虹霖\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CA22A8-96AF-4CCE-BF96-8766EE7FEB32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB41DC6-6503-4A35-AD7A-56F24516F97A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -357,13 +357,13 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="19">
@@ -1024,7 +1024,7 @@
     </row>
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="23"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="20"/>
       <c r="D19" s="5">
         <v>43648</v>
@@ -3590,8 +3590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3881,9 +3881,11 @@
         <v>43645</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="5">
+        <v>43643</v>
+      </c>
       <c r="F14" s="6">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>14</v>
@@ -3899,9 +3901,11 @@
         <v>43645</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="5">
+        <v>43644</v>
+      </c>
       <c r="F15" s="6">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>14</v>
@@ -3917,9 +3921,11 @@
         <v>43646</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="5">
+        <v>43648</v>
+      </c>
       <c r="F16" s="6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>14</v>
@@ -6425,16 +6431,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
+++ b/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\hgkj_02\卞虹霖\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BE998D-A94B-491B-AFD2-1059423E6672}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19896" windowHeight="7536" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -147,8 +153,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,13 +361,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -624,14 +633,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -643,7 +652,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -655,7 +664,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -681,7 +690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -705,7 +714,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -727,7 +736,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="21"/>
@@ -745,7 +754,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -767,7 +776,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -789,7 +798,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="15" t="s">
         <v>17</v>
@@ -809,7 +818,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="21"/>
@@ -827,7 +836,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="15" t="s">
         <v>18</v>
@@ -847,7 +856,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="21"/>
@@ -865,7 +874,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
@@ -887,7 +896,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="15" t="s">
         <v>20</v>
@@ -907,7 +916,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="21"/>
@@ -925,7 +934,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="15" t="s">
         <v>21</v>
@@ -945,7 +954,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="21"/>
@@ -963,7 +972,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="9" t="s">
         <v>22</v>
@@ -985,7 +994,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="18" t="s">
         <v>23</v>
@@ -1005,7 +1014,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="19"/>
       <c r="C19" s="21"/>
@@ -1023,7 +1032,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>24</v>
       </c>
@@ -1047,7 +1056,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="16.8">
+    <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="4" t="s">
         <v>26</v>
@@ -1069,7 +1078,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="16.8">
+    <row r="22" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="4" t="s">
         <v>27</v>
@@ -1078,16 +1087,18 @@
         <v>43646</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="5">
+        <v>43649</v>
+      </c>
       <c r="F22" s="6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="16.8">
+    <row r="23" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="4" t="s">
         <v>28</v>
@@ -1105,7 +1116,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.8">
+    <row r="24" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="4" t="s">
         <v>29</v>
@@ -1123,7 +1134,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="16.8">
+    <row r="25" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="4" t="s">
         <v>30</v>
@@ -1141,7 +1152,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="16.8">
+    <row r="26" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
@@ -1157,7 +1168,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1167,7 +1178,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1177,7 +1188,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1187,7 +1198,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1197,7 +1208,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1207,7 +1218,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1217,7 +1228,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1227,7 +1238,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1237,7 +1248,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1247,7 +1258,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1257,7 +1268,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1267,7 +1278,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -1277,7 +1288,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -1287,7 +1298,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1297,7 +1308,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -1307,7 +1318,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1317,7 +1328,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -1327,7 +1338,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -1337,7 +1348,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -1347,7 +1358,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -1357,7 +1368,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -1367,7 +1378,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -1377,7 +1388,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -1387,7 +1398,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -1397,7 +1408,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -1407,7 +1418,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -1417,7 +1428,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -1427,7 +1438,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -1437,7 +1448,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -1447,7 +1458,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1457,7 +1468,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -1467,7 +1478,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -1477,7 +1488,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -1487,7 +1498,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -1497,7 +1508,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -1507,7 +1518,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -1517,7 +1528,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -1527,7 +1538,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -1537,7 +1548,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -1547,7 +1558,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -1557,7 +1568,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -1567,7 +1578,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -1577,7 +1588,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -1587,7 +1598,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -1597,7 +1608,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -1607,7 +1618,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -1617,7 +1628,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -1627,7 +1638,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -1637,7 +1648,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -1647,7 +1658,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -1657,7 +1668,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -1667,7 +1678,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -1677,7 +1688,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -1687,7 +1698,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -1697,7 +1708,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -1707,7 +1718,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -1717,7 +1728,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -1727,7 +1738,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -1737,7 +1748,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -1747,7 +1758,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -1757,7 +1768,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -1767,7 +1778,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -1777,7 +1788,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -1787,7 +1798,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -1797,7 +1808,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -1807,7 +1818,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -1817,7 +1828,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -1827,7 +1838,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -1837,7 +1848,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -1847,7 +1858,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -1857,7 +1868,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -1867,7 +1878,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -1877,7 +1888,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -1887,7 +1898,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -1897,7 +1908,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -1907,7 +1918,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -1917,7 +1928,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -1927,7 +1938,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -1937,7 +1948,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -1947,7 +1958,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -1957,7 +1968,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -1967,7 +1978,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -1977,7 +1988,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -1987,7 +1998,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -1997,7 +2008,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -2007,7 +2018,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -2017,7 +2028,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -2027,7 +2038,7 @@
       <c r="G113" s="11"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -2037,7 +2048,7 @@
       <c r="G114" s="11"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -2047,7 +2058,7 @@
       <c r="G115" s="11"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -2057,7 +2068,7 @@
       <c r="G116" s="11"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -2067,7 +2078,7 @@
       <c r="G117" s="11"/>
       <c r="H117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -2077,7 +2088,7 @@
       <c r="G118" s="11"/>
       <c r="H118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -2087,7 +2098,7 @@
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -2097,7 +2108,7 @@
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
     </row>
-    <row r="121" spans="1:8" ht="15.6">
+    <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -2107,7 +2118,7 @@
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
     </row>
-    <row r="122" spans="1:8" ht="15.6">
+    <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -2117,16 +2128,16 @@
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
     </row>
-    <row r="123" spans="1:8" ht="15.6">
+    <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B123" s="12"/>
     </row>
-    <row r="124" spans="1:8" ht="15.6">
+    <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B124" s="12"/>
     </row>
-    <row r="125" spans="1:8" ht="15.6">
+    <row r="125" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B125" s="12"/>
     </row>
-    <row r="126" spans="1:8" ht="15.6">
+    <row r="126" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B126" s="12"/>
     </row>
   </sheetData>
@@ -2149,7 +2160,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G26" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2159,14 +2170,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -2178,7 +2189,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2190,7 +2201,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2216,7 +2227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2240,7 +2251,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -2266,7 +2277,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -2286,7 +2297,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -2308,7 +2319,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -2328,7 +2339,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -2348,7 +2359,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -2368,7 +2379,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -2388,7 +2399,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -2408,7 +2419,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -2430,7 +2441,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -2450,7 +2461,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -2472,7 +2483,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -2492,7 +2503,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -2510,7 +2521,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -2528,7 +2539,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -2546,7 +2557,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -2564,7 +2575,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -2580,7 +2591,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2590,7 +2601,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -2600,7 +2611,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2610,7 +2621,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2620,7 +2631,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2630,7 +2641,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2640,7 +2651,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2650,7 +2661,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2660,7 +2671,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2670,7 +2681,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2680,7 +2691,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2690,7 +2701,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2700,7 +2711,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2710,7 +2721,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -2720,7 +2731,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2730,7 +2741,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2740,7 +2751,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2750,7 +2761,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -2760,7 +2771,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2770,7 +2781,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2780,7 +2791,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -2790,7 +2801,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2800,7 +2811,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -2810,7 +2821,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2820,7 +2831,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2830,7 +2841,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -2840,7 +2851,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -2850,7 +2861,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -2860,7 +2871,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -2870,7 +2881,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -2880,7 +2891,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -2890,7 +2901,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -2900,7 +2911,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -2910,7 +2921,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -2920,7 +2931,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -2930,7 +2941,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -2940,7 +2951,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -2950,7 +2961,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -2960,7 +2971,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -2970,7 +2981,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -2980,7 +2991,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -2990,7 +3001,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -3000,7 +3011,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -3010,7 +3021,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -3020,7 +3031,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -3030,7 +3041,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -3040,7 +3051,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -3050,7 +3061,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -3060,7 +3071,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -3070,7 +3081,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -3080,7 +3091,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -3090,7 +3101,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -3100,7 +3111,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -3110,7 +3121,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -3120,7 +3131,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -3130,7 +3141,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -3140,7 +3151,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -3150,7 +3161,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -3160,7 +3171,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -3170,7 +3181,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -3180,7 +3191,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -3190,7 +3201,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -3200,7 +3211,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -3210,7 +3221,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -3220,7 +3231,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -3230,7 +3241,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -3240,7 +3251,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -3250,7 +3261,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -3260,7 +3271,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -3270,7 +3281,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -3280,7 +3291,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -3290,7 +3301,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -3300,7 +3311,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -3310,7 +3321,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -3320,7 +3331,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -3330,7 +3341,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -3340,7 +3351,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -3350,7 +3361,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -3360,7 +3371,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -3370,7 +3381,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -3380,7 +3391,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -3390,7 +3401,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -3400,7 +3411,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -3410,7 +3421,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -3420,7 +3431,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -3430,7 +3441,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -3440,7 +3451,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -3450,7 +3461,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -3460,7 +3471,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -3470,7 +3481,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -3480,7 +3491,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -3490,7 +3501,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -3500,7 +3511,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -3510,7 +3521,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -3520,7 +3531,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -3530,7 +3541,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -3540,16 +3551,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -3560,7 +3571,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3570,14 +3581,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -3589,7 +3600,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3601,7 +3612,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3627,7 +3638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -3651,7 +3662,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -3673,7 +3684,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -3693,7 +3704,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -3713,7 +3724,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -3733,7 +3744,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -3753,7 +3764,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -3773,7 +3784,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -3793,7 +3804,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -3813,7 +3824,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -3833,7 +3844,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -3853,7 +3864,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -3875,7 +3886,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -3895,7 +3906,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -3915,7 +3926,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -3933,7 +3944,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -3951,7 +3962,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -3967,7 +3978,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -3983,7 +3994,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -3993,7 +4004,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -4003,7 +4014,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -4013,7 +4024,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -4023,7 +4034,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -4033,7 +4044,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -4043,7 +4054,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -4053,7 +4064,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4063,7 +4074,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -4073,7 +4084,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -4083,7 +4094,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -4093,7 +4104,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -4103,7 +4114,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -4113,7 +4124,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -4123,7 +4134,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -4133,7 +4144,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -4143,7 +4154,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -4153,7 +4164,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -4163,7 +4174,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -4173,7 +4184,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -4183,7 +4194,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -4193,7 +4204,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -4203,7 +4214,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -4213,7 +4224,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -4223,7 +4234,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -4233,7 +4244,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -4243,7 +4254,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -4253,7 +4264,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -4263,7 +4274,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -4273,7 +4284,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -4283,7 +4294,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -4293,7 +4304,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -4303,7 +4314,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -4313,7 +4324,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -4323,7 +4334,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -4333,7 +4344,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -4343,7 +4354,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -4353,7 +4364,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -4363,7 +4374,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -4373,7 +4384,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -4383,7 +4394,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -4393,7 +4404,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -4403,7 +4414,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -4413,7 +4424,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -4423,7 +4434,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -4433,7 +4444,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -4443,7 +4454,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -4453,7 +4464,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -4463,7 +4474,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -4473,7 +4484,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -4483,7 +4494,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -4493,7 +4504,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -4503,7 +4514,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -4513,7 +4524,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -4523,7 +4534,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -4533,7 +4544,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -4543,7 +4554,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -4553,7 +4564,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -4563,7 +4574,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -4573,7 +4584,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -4583,7 +4594,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -4593,7 +4604,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -4603,7 +4614,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -4613,7 +4624,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -4623,7 +4634,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -4633,7 +4644,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -4643,7 +4654,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -4653,7 +4664,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -4663,7 +4674,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -4673,7 +4684,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -4683,7 +4694,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -4693,7 +4704,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -4703,7 +4714,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -4713,7 +4724,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -4723,7 +4734,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -4733,7 +4744,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -4743,7 +4754,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -4753,7 +4764,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -4763,7 +4774,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -4773,7 +4784,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -4783,7 +4794,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -4793,7 +4804,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -4803,7 +4814,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -4813,7 +4824,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -4823,7 +4834,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -4833,7 +4844,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -4843,7 +4854,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -4853,7 +4864,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -4863,7 +4874,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -4873,7 +4884,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -4883,7 +4894,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -4893,7 +4904,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -4903,7 +4914,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -4913,7 +4924,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -4923,7 +4934,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -4933,7 +4944,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -4943,16 +4954,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -4963,7 +4974,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4973,14 +4984,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -4992,7 +5003,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -5004,7 +5015,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5030,7 +5041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -5054,7 +5065,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -5078,7 +5089,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -5100,7 +5111,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -5122,7 +5133,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -5144,7 +5155,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -5166,7 +5177,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -5188,7 +5199,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -5210,7 +5221,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -5232,7 +5243,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -5254,7 +5265,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -5276,7 +5287,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -5300,7 +5311,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -5318,7 +5329,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -5336,7 +5347,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -5354,7 +5365,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -5372,7 +5383,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -5390,7 +5401,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -5406,7 +5417,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -5416,7 +5427,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -5426,7 +5437,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -5436,7 +5447,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -5446,7 +5457,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -5456,7 +5467,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -5466,7 +5477,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -5476,7 +5487,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -5486,7 +5497,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -5496,7 +5507,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -5506,7 +5517,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -5516,7 +5527,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -5526,7 +5537,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -5536,7 +5547,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -5546,7 +5557,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -5556,7 +5567,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -5566,7 +5577,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -5576,7 +5587,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -5586,7 +5597,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -5596,7 +5607,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -5606,7 +5617,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -5616,7 +5627,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -5626,7 +5637,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -5636,7 +5647,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -5646,7 +5657,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -5656,7 +5667,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -5666,7 +5677,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -5676,7 +5687,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -5686,7 +5697,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -5696,7 +5707,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -5706,7 +5717,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -5716,7 +5727,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -5726,7 +5737,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -5736,7 +5747,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -5746,7 +5757,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -5756,7 +5767,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -5766,7 +5777,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -5776,7 +5787,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -5786,7 +5797,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -5796,7 +5807,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -5806,7 +5817,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -5816,7 +5827,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -5826,7 +5837,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -5836,7 +5847,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -5846,7 +5857,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -5856,7 +5867,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -5866,7 +5877,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -5876,7 +5887,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -5886,7 +5897,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -5896,7 +5907,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -5906,7 +5917,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -5916,7 +5927,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -5926,7 +5937,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -5936,7 +5947,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -5946,7 +5957,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -5956,7 +5967,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -5966,7 +5977,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -5976,7 +5987,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -5986,7 +5997,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -5996,7 +6007,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -6006,7 +6017,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -6016,7 +6027,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -6026,7 +6037,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -6036,7 +6047,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -6046,7 +6057,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -6056,7 +6067,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -6066,7 +6077,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -6076,7 +6087,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -6086,7 +6097,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -6096,7 +6107,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -6106,7 +6117,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -6116,7 +6127,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -6126,7 +6137,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -6136,7 +6147,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -6146,7 +6157,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -6156,7 +6167,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -6166,7 +6177,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -6176,7 +6187,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -6186,7 +6197,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -6196,7 +6207,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -6206,7 +6217,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -6216,7 +6227,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -6226,7 +6237,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -6236,7 +6247,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -6246,7 +6257,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -6256,7 +6267,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -6266,7 +6277,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -6276,7 +6287,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -6286,7 +6297,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -6296,7 +6307,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -6306,7 +6317,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -6316,7 +6327,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -6326,7 +6337,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -6336,7 +6347,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -6346,7 +6357,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -6356,7 +6367,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -6366,16 +6377,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -6386,7 +6397,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6396,14 +6407,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -6415,7 +6426,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -6427,7 +6438,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6453,7 +6464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -6477,7 +6488,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -6501,7 +6512,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -6523,7 +6534,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -6545,7 +6556,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -6565,7 +6576,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -6585,7 +6596,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -6605,7 +6616,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -6627,7 +6638,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -6645,7 +6656,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -6665,7 +6676,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>34</v>
@@ -6683,7 +6694,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
         <v>23</v>
@@ -6701,7 +6712,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
@@ -6725,7 +6736,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="4" t="s">
         <v>26</v>
@@ -6743,7 +6754,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="4" t="s">
         <v>27</v>
@@ -6761,7 +6772,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="4" t="s">
         <v>28</v>
@@ -6779,7 +6790,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>29</v>
@@ -6797,7 +6808,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>30</v>
@@ -6815,7 +6826,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>31</v>
       </c>
@@ -6831,7 +6842,7 @@
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -6841,7 +6852,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -6851,7 +6862,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -6861,7 +6872,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -6871,7 +6882,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -6881,7 +6892,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -6891,7 +6902,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -6901,7 +6912,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -6911,7 +6922,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -6921,7 +6932,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -6931,7 +6942,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -6941,7 +6952,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -6951,7 +6962,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -6961,7 +6972,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -6971,7 +6982,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -6981,7 +6992,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -6991,7 +7002,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -7001,7 +7012,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -7011,7 +7022,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -7021,7 +7032,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -7031,7 +7042,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -7041,7 +7052,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -7051,7 +7062,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -7061,7 +7072,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -7071,7 +7082,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -7081,7 +7092,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -7091,7 +7102,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -7101,7 +7112,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -7111,7 +7122,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -7121,7 +7132,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -7131,7 +7142,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -7141,7 +7152,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -7151,7 +7162,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -7161,7 +7172,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -7171,7 +7182,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -7181,7 +7192,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -7191,7 +7202,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -7201,7 +7212,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -7211,7 +7222,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -7221,7 +7232,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -7231,7 +7242,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -7241,7 +7252,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -7251,7 +7262,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -7261,7 +7272,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -7271,7 +7282,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -7281,7 +7292,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -7291,7 +7302,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -7301,7 +7312,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -7311,7 +7322,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -7321,7 +7332,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -7331,7 +7342,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -7341,7 +7352,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -7351,7 +7362,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -7361,7 +7372,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -7371,7 +7382,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -7381,7 +7392,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -7391,7 +7402,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -7401,7 +7412,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -7411,7 +7422,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -7421,7 +7432,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -7431,7 +7442,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -7441,7 +7452,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -7451,7 +7462,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -7461,7 +7472,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -7471,7 +7482,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -7481,7 +7492,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -7491,7 +7502,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -7501,7 +7512,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -7511,7 +7522,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -7521,7 +7532,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -7531,7 +7542,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -7541,7 +7552,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -7551,7 +7562,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -7561,7 +7572,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -7571,7 +7582,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -7581,7 +7592,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -7591,7 +7602,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -7601,7 +7612,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -7611,7 +7622,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -7621,7 +7632,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -7631,7 +7642,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -7641,7 +7652,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -7651,7 +7662,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -7661,7 +7672,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -7671,7 +7682,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -7681,7 +7692,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -7691,7 +7702,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -7701,7 +7712,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -7711,7 +7722,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -7721,7 +7732,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -7731,7 +7742,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -7741,7 +7752,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -7751,7 +7762,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -7761,7 +7772,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -7771,7 +7782,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -7781,16 +7792,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -7799,7 +7810,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7809,14 +7820,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -7828,7 +7839,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7840,7 +7851,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7866,7 +7877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -7890,7 +7901,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -7910,7 +7921,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -7928,7 +7939,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -7946,7 +7957,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -7964,7 +7975,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -7982,7 +7993,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -8000,7 +8011,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -8018,7 +8029,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -8036,7 +8047,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -8054,7 +8065,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -8072,7 +8083,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -8092,7 +8103,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -8110,7 +8121,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -8128,7 +8139,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -8146,7 +8157,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -8164,7 +8175,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -8182,7 +8193,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -8198,7 +8209,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -8208,7 +8219,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -8218,7 +8229,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -8228,7 +8239,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -8238,7 +8249,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -8248,7 +8259,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -8258,7 +8269,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -8268,7 +8279,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -8278,7 +8289,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -8288,7 +8299,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -8298,7 +8309,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -8308,7 +8319,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -8318,7 +8329,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -8328,7 +8339,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -8338,7 +8349,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -8348,7 +8359,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -8358,7 +8369,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -8368,7 +8379,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -8378,7 +8389,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -8388,7 +8399,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -8398,7 +8409,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -8408,7 +8419,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -8418,7 +8429,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -8428,7 +8439,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -8438,7 +8449,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -8448,7 +8459,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -8458,7 +8469,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -8468,7 +8479,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -8478,7 +8489,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -8488,7 +8499,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -8498,7 +8509,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -8508,7 +8519,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -8518,7 +8529,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -8528,7 +8539,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -8538,7 +8549,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -8548,7 +8559,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -8558,7 +8569,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -8568,7 +8579,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -8578,7 +8589,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -8588,7 +8599,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -8598,7 +8609,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -8608,7 +8619,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -8618,7 +8629,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -8628,7 +8639,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -8638,7 +8649,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -8648,7 +8659,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -8658,7 +8669,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -8668,7 +8679,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -8678,7 +8689,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -8688,7 +8699,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -8698,7 +8709,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -8708,7 +8719,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -8718,7 +8729,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -8728,7 +8739,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -8738,7 +8749,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -8748,7 +8759,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -8758,7 +8769,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -8768,7 +8779,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -8778,7 +8789,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -8788,7 +8799,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -8798,7 +8809,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -8808,7 +8819,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -8818,7 +8829,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -8828,7 +8839,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -8838,7 +8849,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -8848,7 +8859,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -8858,7 +8869,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -8868,7 +8879,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -8878,7 +8889,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -8888,7 +8899,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -8898,7 +8909,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -8908,7 +8919,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -8918,7 +8929,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -8928,7 +8939,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -8938,7 +8949,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -8948,7 +8959,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -8958,7 +8969,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -8968,7 +8979,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -8978,7 +8989,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -8988,7 +8999,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -8998,7 +9009,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -9008,7 +9019,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -9018,7 +9029,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -9028,7 +9039,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -9038,7 +9049,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -9048,7 +9059,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -9058,7 +9069,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -9068,7 +9079,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -9078,7 +9089,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -9088,7 +9099,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -9098,7 +9109,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -9108,7 +9119,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -9118,7 +9129,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -9128,7 +9139,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -9138,7 +9149,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -9148,7 +9159,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -9158,16 +9169,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -9178,7 +9189,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9188,14 +9199,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -9207,7 +9218,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -9219,7 +9230,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -9245,7 +9256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -9269,7 +9280,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -9289,7 +9300,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -9307,7 +9318,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8">
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -9325,7 +9336,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -9343,7 +9354,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8">
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -9361,7 +9372,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -9379,7 +9390,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -9397,7 +9408,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -9415,7 +9426,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -9433,7 +9444,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -9451,7 +9462,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -9471,7 +9482,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -9489,7 +9500,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8">
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -9507,7 +9518,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8">
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -9525,7 +9536,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8">
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -9543,7 +9554,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8">
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -9561,7 +9572,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -9577,7 +9588,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -9587,7 +9598,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -9597,7 +9608,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -9607,7 +9618,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -9617,7 +9628,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -9627,7 +9638,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -9637,7 +9648,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -9647,7 +9658,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -9657,7 +9668,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -9667,7 +9678,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -9677,7 +9688,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -9687,7 +9698,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -9697,7 +9708,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -9707,7 +9718,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -9717,7 +9728,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -9727,7 +9738,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -9737,7 +9748,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -9747,7 +9758,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -9757,7 +9768,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -9767,7 +9778,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -9777,7 +9788,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -9787,7 +9798,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -9797,7 +9808,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -9807,7 +9818,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -9817,7 +9828,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -9827,7 +9838,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -9837,7 +9848,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -9847,7 +9858,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -9857,7 +9868,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -9867,7 +9878,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -9877,7 +9888,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -9887,7 +9898,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -9897,7 +9908,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -9907,7 +9918,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -9917,7 +9928,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -9927,7 +9938,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -9937,7 +9948,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -9947,7 +9958,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -9957,7 +9968,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -9967,7 +9978,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -9977,7 +9988,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -9987,7 +9998,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -9997,7 +10008,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -10007,7 +10018,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -10017,7 +10028,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -10027,7 +10038,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -10037,7 +10048,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -10047,7 +10058,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -10057,7 +10068,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -10067,7 +10078,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -10077,7 +10088,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -10087,7 +10098,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -10097,7 +10108,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -10107,7 +10118,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -10117,7 +10128,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -10127,7 +10138,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -10137,7 +10148,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -10147,7 +10158,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -10157,7 +10168,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -10167,7 +10178,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -10177,7 +10188,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -10187,7 +10198,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -10197,7 +10208,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -10207,7 +10218,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -10217,7 +10228,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -10227,7 +10238,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -10237,7 +10248,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -10247,7 +10258,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -10257,7 +10268,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -10267,7 +10278,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -10277,7 +10288,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -10287,7 +10298,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -10297,7 +10308,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -10307,7 +10318,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -10317,7 +10328,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -10327,7 +10338,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -10337,7 +10348,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -10347,7 +10358,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -10357,7 +10368,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -10367,7 +10378,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -10377,7 +10388,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -10387,7 +10398,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -10397,7 +10408,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -10407,7 +10418,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -10417,7 +10428,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -10427,7 +10438,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -10437,7 +10448,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -10447,7 +10458,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -10457,7 +10468,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -10467,7 +10478,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -10477,7 +10488,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -10487,7 +10498,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -10497,7 +10508,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -10507,7 +10518,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -10517,7 +10528,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -10527,7 +10538,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -10537,16 +10548,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -10557,7 +10568,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
+++ b/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhou\Desktop\hgkj_02\卞虹霖\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB26177-2370-4EC4-BE16-294F2936E0D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232B2D49-50C0-4E55-B132-37151CFAEFE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2127,7 +2127,7 @@
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5">
-        <v>43641</v>
+        <v>43649</v>
       </c>
       <c r="F7" s="6">
         <v>0.7</v>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5">
-        <v>43642</v>
+        <v>43649</v>
       </c>
       <c r="F8" s="6">
         <v>0.2</v>
@@ -2342,10 +2342,10 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5">
-        <v>43643</v>
+        <v>43649</v>
       </c>
       <c r="F10" s="6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5">
-        <v>43643</v>
+        <v>43649</v>
       </c>
       <c r="F11" s="6">
         <v>0.2</v>
@@ -2407,7 +2407,7 @@
         <v>43647</v>
       </c>
       <c r="F13" s="6">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>14</v>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5">
-        <v>43642</v>
+        <v>43648</v>
       </c>
       <c r="F15" s="6">
         <v>0.5</v>

--- a/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
+++ b/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\hgkj_02\卞虹霖\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED04193-F27A-4994-AC25-D777291BEDCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="37">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -145,12 +139,16 @@
     <t>209/7/2</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +195,20 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -284,7 +296,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -345,19 +357,28 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -629,14 +650,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -648,7 +669,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -660,7 +681,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -686,7 +707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -710,7 +731,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -732,7 +753,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="19"/>
@@ -750,7 +771,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -772,7 +793,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -794,7 +815,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="16"/>
       <c r="B8" s="15" t="s">
         <v>17</v>
@@ -814,7 +835,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="19"/>
@@ -832,7 +853,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="16"/>
       <c r="B10" s="15" t="s">
         <v>18</v>
@@ -852,7 +873,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
@@ -870,7 +891,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="16"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
@@ -892,7 +913,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="16"/>
       <c r="B13" s="15" t="s">
         <v>20</v>
@@ -912,7 +933,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="19"/>
@@ -930,7 +951,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="16"/>
       <c r="B15" s="15" t="s">
         <v>21</v>
@@ -950,7 +971,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="19"/>
@@ -968,7 +989,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="16"/>
       <c r="B17" s="9" t="s">
         <v>22</v>
@@ -990,9 +1011,9 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="17"/>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="18">
@@ -1010,9 +1031,9 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="8"/>
-      <c r="B19" s="22"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="19"/>
       <c r="D19" s="5">
         <v>43648</v>
@@ -1028,7 +1049,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="15" t="s">
         <v>24</v>
       </c>
@@ -1052,7 +1073,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="16.8">
       <c r="A21" s="16"/>
       <c r="B21" s="4" t="s">
         <v>26</v>
@@ -1074,7 +1095,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="16.8">
       <c r="A22" s="16"/>
       <c r="B22" s="4" t="s">
         <v>27</v>
@@ -1094,7 +1115,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="16.8">
       <c r="A23" s="16"/>
       <c r="B23" s="4" t="s">
         <v>28</v>
@@ -1112,7 +1133,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="16.8">
       <c r="A24" s="16"/>
       <c r="B24" s="4" t="s">
         <v>29</v>
@@ -1130,7 +1151,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="16.8">
       <c r="A25" s="17"/>
       <c r="B25" s="4" t="s">
         <v>30</v>
@@ -1148,7 +1169,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="16.8">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
@@ -1164,7 +1185,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1174,7 +1195,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1184,7 +1205,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1194,7 +1215,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1204,7 +1225,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1214,7 +1235,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1224,7 +1245,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1234,7 +1255,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1244,7 +1265,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1254,7 +1275,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1264,7 +1285,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1274,7 +1295,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -1284,7 +1305,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -1294,7 +1315,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1304,7 +1325,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -1314,7 +1335,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1324,7 +1345,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -1334,7 +1355,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -1344,7 +1365,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -1354,7 +1375,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -1364,7 +1385,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -1374,7 +1395,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -1384,7 +1405,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -1394,7 +1415,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -1404,7 +1425,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -1414,7 +1435,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -1424,7 +1445,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -1434,7 +1455,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -1444,7 +1465,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -1454,7 +1475,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1464,7 +1485,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -1474,7 +1495,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -1484,7 +1505,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -1494,7 +1515,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -1504,7 +1525,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -1514,7 +1535,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -1524,7 +1545,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -1534,7 +1555,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -1544,7 +1565,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -1554,7 +1575,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -1564,7 +1585,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -1574,7 +1595,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -1584,7 +1605,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -1594,7 +1615,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -1604,7 +1625,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -1614,7 +1635,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -1624,7 +1645,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -1634,7 +1655,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -1644,7 +1665,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -1654,7 +1675,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -1664,7 +1685,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -1674,7 +1695,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -1684,7 +1705,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -1694,7 +1715,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -1704,7 +1725,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -1714,7 +1735,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -1724,7 +1745,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -1734,7 +1755,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -1744,7 +1765,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -1754,7 +1775,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -1764,7 +1785,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -1774,7 +1795,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -1784,7 +1805,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -1794,7 +1815,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -1804,7 +1825,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -1814,7 +1835,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -1824,7 +1845,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -1834,7 +1855,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -1844,7 +1865,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -1854,7 +1875,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -1864,7 +1885,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -1874,7 +1895,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -1884,7 +1905,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -1894,7 +1915,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -1904,7 +1925,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -1914,7 +1935,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -1924,7 +1945,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -1934,7 +1955,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -1944,7 +1965,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -1954,7 +1975,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -1964,7 +1985,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -1974,7 +1995,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -1984,7 +2005,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -1994,7 +2015,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -2004,7 +2025,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -2014,7 +2035,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -2024,7 +2045,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -2034,7 +2055,7 @@
       <c r="G113" s="11"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -2044,7 +2065,7 @@
       <c r="G114" s="11"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -2054,7 +2075,7 @@
       <c r="G115" s="11"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -2064,7 +2085,7 @@
       <c r="G116" s="11"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -2074,7 +2095,7 @@
       <c r="G117" s="11"/>
       <c r="H117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -2084,7 +2105,7 @@
       <c r="G118" s="11"/>
       <c r="H118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -2094,7 +2115,7 @@
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -2104,7 +2125,7 @@
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
     </row>
-    <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="15.6">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -2114,7 +2135,7 @@
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
     </row>
-    <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="15.6">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -2124,16 +2145,16 @@
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
     </row>
-    <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="15.6">
       <c r="B123" s="12"/>
     </row>
-    <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="15.6">
       <c r="B124" s="12"/>
     </row>
-    <row r="125" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="15.6">
       <c r="B125" s="12"/>
     </row>
-    <row r="126" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="15.6">
       <c r="B126" s="12"/>
     </row>
   </sheetData>
@@ -2156,7 +2177,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G26" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G26">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2166,14 +2187,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -2185,7 +2206,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2197,7 +2218,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2223,7 +2244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2247,7 +2268,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -2273,7 +2294,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -2293,7 +2314,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -2315,7 +2336,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -2335,7 +2356,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -2355,7 +2376,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -2375,7 +2396,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -2395,7 +2416,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -2415,7 +2436,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -2437,7 +2458,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -2457,7 +2478,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -2479,7 +2500,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -2499,7 +2520,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -2517,7 +2538,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -2535,7 +2556,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -2553,7 +2574,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -2571,7 +2592,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -2587,7 +2608,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2597,7 +2618,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -2607,7 +2628,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2617,7 +2638,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2627,7 +2648,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2637,7 +2658,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2647,7 +2668,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2657,7 +2678,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2667,7 +2688,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2677,7 +2698,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2687,7 +2708,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2697,7 +2718,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2707,7 +2728,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2717,7 +2738,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -2727,7 +2748,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2737,7 +2758,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2747,7 +2768,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2757,7 +2778,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -2767,7 +2788,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2777,7 +2798,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2787,7 +2808,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -2797,7 +2818,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2807,7 +2828,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -2817,7 +2838,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2827,7 +2848,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2837,7 +2858,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -2847,7 +2868,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -2857,7 +2878,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -2867,7 +2888,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -2877,7 +2898,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -2887,7 +2908,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -2897,7 +2918,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -2907,7 +2928,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -2917,7 +2938,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -2927,7 +2948,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -2937,7 +2958,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -2947,7 +2968,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -2957,7 +2978,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -2967,7 +2988,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -2977,7 +2998,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -2987,7 +3008,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -2997,7 +3018,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -3007,7 +3028,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -3017,7 +3038,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -3027,7 +3048,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -3037,7 +3058,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -3047,7 +3068,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -3057,7 +3078,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -3067,7 +3088,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -3077,7 +3098,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -3087,7 +3108,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -3097,7 +3118,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -3107,7 +3128,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -3117,7 +3138,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -3127,7 +3148,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -3137,7 +3158,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -3147,7 +3168,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -3157,7 +3178,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -3167,7 +3188,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -3177,7 +3198,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -3187,7 +3208,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -3197,7 +3218,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -3207,7 +3228,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -3217,7 +3238,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -3227,7 +3248,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -3237,7 +3258,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -3247,7 +3268,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -3257,7 +3278,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -3267,7 +3288,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -3277,7 +3298,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -3287,7 +3308,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -3297,7 +3318,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -3307,7 +3328,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -3317,7 +3338,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -3327,7 +3348,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -3337,7 +3358,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -3347,7 +3368,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -3357,7 +3378,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -3367,7 +3388,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -3377,7 +3398,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -3387,7 +3408,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -3397,7 +3418,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -3407,7 +3428,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -3417,7 +3438,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -3427,7 +3448,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -3437,7 +3458,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -3447,7 +3468,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -3457,7 +3478,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -3467,7 +3488,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -3477,7 +3498,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -3487,7 +3508,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -3497,7 +3518,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -3507,7 +3528,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -3517,7 +3538,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -3527,7 +3548,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -3537,7 +3558,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -3547,16 +3568,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -3567,7 +3588,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3577,14 +3598,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -3596,7 +3617,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3608,7 +3629,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3634,7 +3655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -3658,7 +3679,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -3680,7 +3701,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -3700,7 +3721,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -3720,7 +3741,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -3740,7 +3761,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -3760,7 +3781,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -3780,7 +3801,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -3800,7 +3821,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -3820,7 +3841,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -3840,7 +3861,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -3860,7 +3881,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -3882,7 +3903,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -3902,7 +3923,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -3922,7 +3943,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -3942,7 +3963,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -3960,7 +3981,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -3978,7 +3999,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -3994,7 +4015,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -4004,7 +4025,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -4014,7 +4035,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -4024,7 +4045,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -4034,7 +4055,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -4044,7 +4065,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -4054,7 +4075,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -4064,7 +4085,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4074,7 +4095,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -4084,7 +4105,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -4094,7 +4115,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -4104,7 +4125,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -4114,7 +4135,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -4124,7 +4145,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -4134,7 +4155,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -4144,7 +4165,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -4154,7 +4175,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -4164,7 +4185,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -4174,7 +4195,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -4184,7 +4205,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -4194,7 +4215,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -4204,7 +4225,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -4214,7 +4235,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -4224,7 +4245,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -4234,7 +4255,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -4244,7 +4265,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -4254,7 +4275,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -4264,7 +4285,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -4274,7 +4295,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -4284,7 +4305,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -4294,7 +4315,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -4304,7 +4325,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -4314,7 +4335,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -4324,7 +4345,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -4334,7 +4355,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -4344,7 +4365,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -4354,7 +4375,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -4364,7 +4385,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -4374,7 +4395,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -4384,7 +4405,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -4394,7 +4415,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -4404,7 +4425,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -4414,7 +4435,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -4424,7 +4445,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -4434,7 +4455,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -4444,7 +4465,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -4454,7 +4475,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -4464,7 +4485,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -4474,7 +4495,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -4484,7 +4505,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -4494,7 +4515,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -4504,7 +4525,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -4514,7 +4535,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -4524,7 +4545,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -4534,7 +4555,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -4544,7 +4565,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -4554,7 +4575,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -4564,7 +4585,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -4574,7 +4595,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -4584,7 +4605,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -4594,7 +4615,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -4604,7 +4625,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -4614,7 +4635,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -4624,7 +4645,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -4634,7 +4655,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -4644,7 +4665,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -4654,7 +4675,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -4664,7 +4685,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -4674,7 +4695,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -4684,7 +4705,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -4694,7 +4715,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -4704,7 +4725,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -4714,7 +4735,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -4724,7 +4745,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -4734,7 +4755,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -4744,7 +4765,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -4754,7 +4775,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -4764,7 +4785,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -4774,7 +4795,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -4784,7 +4805,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -4794,7 +4815,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -4804,7 +4825,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -4814,7 +4835,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -4824,7 +4845,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -4834,7 +4855,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -4844,7 +4865,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -4854,7 +4875,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -4864,7 +4885,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -4874,7 +4895,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -4884,7 +4905,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -4894,7 +4915,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -4904,7 +4925,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -4914,7 +4935,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -4924,7 +4945,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -4934,7 +4955,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -4944,7 +4965,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -4954,16 +4975,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -4974,7 +4995,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4984,14 +5005,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -5003,7 +5024,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -5015,7 +5036,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5041,7 +5062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -5051,21 +5072,21 @@
       <c r="C3" s="5">
         <v>43638</v>
       </c>
-      <c r="D3" s="5">
-        <v>43638</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="23">
         <v>43640</v>
       </c>
-      <c r="F3" s="6">
+      <c r="E3" s="23">
+        <v>43640</v>
+      </c>
+      <c r="F3" s="24">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="25" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -5075,21 +5096,21 @@
       <c r="C4" s="5">
         <v>43640</v>
       </c>
-      <c r="D4" s="5">
-        <v>43643</v>
-      </c>
-      <c r="E4" s="5">
-        <v>43640</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="D4" s="23">
+        <v>43641</v>
+      </c>
+      <c r="E4" s="23">
+        <v>43642</v>
+      </c>
+      <c r="F4" s="24">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="25" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -5097,21 +5118,21 @@
       <c r="C5" s="5">
         <v>43640</v>
       </c>
-      <c r="D5" s="5">
-        <v>43643</v>
-      </c>
-      <c r="E5" s="5">
-        <v>43640</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="D5" s="23">
+        <v>43641</v>
+      </c>
+      <c r="E5" s="23">
+        <v>43642</v>
+      </c>
+      <c r="F5" s="24">
         <v>1</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="25" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -5119,21 +5140,21 @@
       <c r="C6" s="5">
         <v>43641</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="23">
+        <v>43642</v>
+      </c>
+      <c r="E6" s="23">
         <v>43643</v>
       </c>
-      <c r="E6" s="5">
-        <v>43640</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="F6" s="24">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="25" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -5141,21 +5162,21 @@
       <c r="C7" s="5">
         <v>43641</v>
       </c>
-      <c r="D7" s="5">
-        <v>43643</v>
-      </c>
-      <c r="E7" s="5">
-        <v>43640</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="D7" s="23">
+        <v>43642</v>
+      </c>
+      <c r="E7" s="23">
+        <v>43644</v>
+      </c>
+      <c r="F7" s="24">
         <v>1</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="25" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -5163,21 +5184,21 @@
       <c r="C8" s="5">
         <v>43642</v>
       </c>
-      <c r="D8" s="5">
-        <v>43643</v>
-      </c>
-      <c r="E8" s="5">
-        <v>43640</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="D8" s="23">
+        <v>43644</v>
+      </c>
+      <c r="E8" s="23">
+        <v>43646</v>
+      </c>
+      <c r="F8" s="24">
         <v>1</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="25" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -5185,21 +5206,21 @@
       <c r="C9" s="5">
         <v>43642</v>
       </c>
-      <c r="D9" s="5">
-        <v>43643</v>
-      </c>
-      <c r="E9" s="5">
-        <v>43640</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="23">
+        <v>43645</v>
+      </c>
+      <c r="E9" s="23">
+        <v>43647</v>
+      </c>
+      <c r="F9" s="24">
         <v>1</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="25" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -5207,21 +5228,21 @@
       <c r="C10" s="5">
         <v>43643</v>
       </c>
-      <c r="D10" s="5">
-        <v>43643</v>
-      </c>
-      <c r="E10" s="5">
-        <v>43640</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.95</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>14</v>
+      <c r="D10" s="23">
+        <v>43647</v>
+      </c>
+      <c r="E10" s="23">
+        <v>43648</v>
+      </c>
+      <c r="F10" s="24">
+        <v>1</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -5229,21 +5250,21 @@
       <c r="C11" s="5">
         <v>43643</v>
       </c>
-      <c r="D11" s="5">
-        <v>43643</v>
-      </c>
-      <c r="E11" s="5">
-        <v>43640</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="D11" s="23">
+        <v>43648</v>
+      </c>
+      <c r="E11" s="23">
+        <v>43649</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0.98</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -5251,17 +5272,21 @@
       <c r="C12" s="5">
         <v>43644</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>14</v>
+      <c r="D12" s="23">
+        <v>43648</v>
+      </c>
+      <c r="E12" s="23">
+        <v>43649</v>
+      </c>
+      <c r="F12" s="24">
+        <v>1</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -5269,17 +5294,21 @@
       <c r="C13" s="5">
         <v>43645</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>14</v>
+      <c r="D13" s="23">
+        <v>43649</v>
+      </c>
+      <c r="E13" s="23">
+        <v>43649</v>
+      </c>
+      <c r="F13" s="24">
+        <v>1</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -5289,17 +5318,21 @@
       <c r="C14" s="5">
         <v>43645</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>14</v>
+      <c r="D14" s="23">
+        <v>43650</v>
+      </c>
+      <c r="E14" s="23">
+        <v>43650</v>
+      </c>
+      <c r="F14" s="24">
+        <v>1</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -5307,17 +5340,21 @@
       <c r="C15" s="5">
         <v>43645</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="D15" s="23">
+        <v>43650</v>
+      </c>
+      <c r="E15" s="23">
+        <v>43650</v>
+      </c>
+      <c r="F15" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="G15" s="25" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -5335,7 +5372,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -5353,7 +5390,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -5371,7 +5408,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -5389,7 +5426,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -5405,7 +5442,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -5415,7 +5452,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -5425,7 +5462,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -5435,7 +5472,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -5445,7 +5482,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -5455,7 +5492,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -5465,7 +5502,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -5475,7 +5512,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -5485,7 +5522,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -5495,7 +5532,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -5505,7 +5542,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -5515,7 +5552,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -5525,7 +5562,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -5535,7 +5572,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -5545,7 +5582,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -5555,7 +5592,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -5565,7 +5602,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -5575,7 +5612,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -5585,7 +5622,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -5595,7 +5632,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -5605,7 +5642,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -5615,7 +5652,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -5625,7 +5662,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -5635,7 +5672,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -5645,7 +5682,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -5655,7 +5692,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -5665,7 +5702,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -5675,7 +5712,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -5685,7 +5722,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -5695,7 +5732,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -5705,7 +5742,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -5715,7 +5752,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -5725,7 +5762,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -5735,7 +5772,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -5745,7 +5782,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -5755,7 +5792,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -5765,7 +5802,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -5775,7 +5812,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -5785,7 +5822,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -5795,7 +5832,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -5805,7 +5842,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -5815,7 +5852,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -5825,7 +5862,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -5835,7 +5872,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -5845,7 +5882,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -5855,7 +5892,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -5865,7 +5902,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -5875,7 +5912,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -5885,7 +5922,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -5895,7 +5932,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -5905,7 +5942,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -5915,7 +5952,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -5925,7 +5962,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -5935,7 +5972,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -5945,7 +5982,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -5955,7 +5992,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -5965,7 +6002,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -5975,7 +6012,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -5985,7 +6022,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -5995,7 +6032,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -6005,7 +6042,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -6015,7 +6052,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -6025,7 +6062,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -6035,7 +6072,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -6045,7 +6082,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -6055,7 +6092,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -6065,7 +6102,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -6075,7 +6112,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -6085,7 +6122,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -6095,7 +6132,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -6105,7 +6142,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -6115,7 +6152,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -6125,7 +6162,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -6135,7 +6172,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -6145,7 +6182,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -6155,7 +6192,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -6165,7 +6202,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -6175,7 +6212,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -6185,7 +6222,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -6195,7 +6232,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -6205,7 +6242,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -6215,7 +6252,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -6225,7 +6262,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -6235,7 +6272,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -6245,7 +6282,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -6255,7 +6292,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -6265,7 +6302,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -6275,7 +6312,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -6285,7 +6322,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -6295,7 +6332,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -6305,7 +6342,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -6315,7 +6352,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -6325,7 +6362,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -6335,7 +6372,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -6345,7 +6382,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -6355,7 +6392,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -6365,16 +6402,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -6385,7 +6422,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6395,14 +6432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -6414,19 +6451,19 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6452,7 +6489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -6476,7 +6513,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -6500,7 +6537,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="8"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -6522,7 +6559,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="8"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -6544,7 +6581,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="8"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -6564,7 +6601,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="8"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -6584,7 +6621,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="8"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -6604,7 +6641,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="8"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -6626,7 +6663,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="8"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -6644,7 +6681,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -6664,7 +6701,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>34</v>
@@ -6682,7 +6719,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
         <v>23</v>
@@ -6700,7 +6737,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
@@ -6724,7 +6761,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="8"/>
       <c r="B16" s="4" t="s">
         <v>26</v>
@@ -6742,7 +6779,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="8"/>
       <c r="B17" s="4" t="s">
         <v>27</v>
@@ -6760,7 +6797,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="8"/>
       <c r="B18" s="4" t="s">
         <v>28</v>
@@ -6778,7 +6815,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>29</v>
@@ -6796,7 +6833,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>30</v>
@@ -6814,7 +6851,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="11" t="s">
         <v>31</v>
       </c>
@@ -6830,7 +6867,7 @@
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -6840,7 +6877,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -6850,7 +6887,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -6860,7 +6897,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -6870,7 +6907,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -6880,7 +6917,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -6890,7 +6927,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -6900,7 +6937,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -6910,7 +6947,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -6920,7 +6957,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -6930,7 +6967,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -6940,7 +6977,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -6950,7 +6987,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -6960,7 +6997,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -6970,7 +7007,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -6980,7 +7017,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -6990,7 +7027,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -7000,7 +7037,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -7010,7 +7047,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -7020,7 +7057,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -7030,7 +7067,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -7040,7 +7077,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -7050,7 +7087,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -7060,7 +7097,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -7070,7 +7107,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -7080,7 +7117,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -7090,7 +7127,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -7100,7 +7137,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -7110,7 +7147,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -7120,7 +7157,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -7130,7 +7167,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -7140,7 +7177,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -7150,7 +7187,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -7160,7 +7197,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -7170,7 +7207,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -7180,7 +7217,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -7190,7 +7227,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -7200,7 +7237,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -7210,7 +7247,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -7220,7 +7257,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -7230,7 +7267,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -7240,7 +7277,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -7250,7 +7287,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -7260,7 +7297,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -7270,7 +7307,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -7280,7 +7317,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -7290,7 +7327,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -7300,7 +7337,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -7310,7 +7347,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -7320,7 +7357,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -7330,7 +7367,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -7340,7 +7377,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -7350,7 +7387,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -7360,7 +7397,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -7370,7 +7407,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -7380,7 +7417,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -7390,7 +7427,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -7400,7 +7437,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -7410,7 +7447,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -7420,7 +7457,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -7430,7 +7467,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -7440,7 +7477,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -7450,7 +7487,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -7460,7 +7497,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -7470,7 +7507,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -7480,7 +7517,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -7490,7 +7527,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -7500,7 +7537,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -7510,7 +7547,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -7520,7 +7557,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -7530,7 +7567,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -7540,7 +7577,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -7550,7 +7587,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -7560,7 +7597,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -7570,7 +7607,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -7580,7 +7617,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -7590,7 +7627,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -7600,7 +7637,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -7610,7 +7647,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -7620,7 +7657,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -7630,7 +7667,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -7640,7 +7677,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -7650,7 +7687,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -7660,7 +7697,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -7670,7 +7707,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -7680,7 +7717,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -7690,7 +7727,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -7700,7 +7737,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -7710,7 +7747,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -7720,7 +7757,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -7730,7 +7767,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -7740,7 +7777,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -7750,7 +7787,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -7760,7 +7797,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -7770,7 +7807,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -7780,16 +7817,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -7798,7 +7835,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7808,14 +7845,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -7827,7 +7864,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7839,7 +7876,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7865,7 +7902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -7889,7 +7926,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -7909,7 +7946,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -7927,7 +7964,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -7945,7 +7982,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -7963,7 +8000,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -7981,7 +8018,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -7999,7 +8036,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -8017,7 +8054,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -8035,7 +8072,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -8053,7 +8090,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -8071,7 +8108,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -8091,7 +8128,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -8109,7 +8146,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -8127,7 +8164,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -8145,7 +8182,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -8163,7 +8200,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -8181,7 +8218,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -8197,7 +8234,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -8207,7 +8244,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -8217,7 +8254,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -8227,7 +8264,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -8237,7 +8274,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -8247,7 +8284,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -8257,7 +8294,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -8267,7 +8304,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -8277,7 +8314,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -8287,7 +8324,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -8297,7 +8334,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -8307,7 +8344,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -8317,7 +8354,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -8327,7 +8364,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -8337,7 +8374,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -8347,7 +8384,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -8357,7 +8394,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -8367,7 +8404,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -8377,7 +8414,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -8387,7 +8424,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -8397,7 +8434,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -8407,7 +8444,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -8417,7 +8454,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -8427,7 +8464,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -8437,7 +8474,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -8447,7 +8484,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -8457,7 +8494,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -8467,7 +8504,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -8477,7 +8514,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -8487,7 +8524,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -8497,7 +8534,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -8507,7 +8544,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -8517,7 +8554,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -8527,7 +8564,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -8537,7 +8574,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -8547,7 +8584,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -8557,7 +8594,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -8567,7 +8604,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -8577,7 +8614,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -8587,7 +8624,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -8597,7 +8634,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -8607,7 +8644,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -8617,7 +8654,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -8627,7 +8664,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -8637,7 +8674,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -8647,7 +8684,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -8657,7 +8694,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -8667,7 +8704,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -8677,7 +8714,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -8687,7 +8724,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -8697,7 +8734,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -8707,7 +8744,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -8717,7 +8754,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -8727,7 +8764,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -8737,7 +8774,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -8747,7 +8784,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -8757,7 +8794,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -8767,7 +8804,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -8777,7 +8814,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -8787,7 +8824,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -8797,7 +8834,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -8807,7 +8844,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -8817,7 +8854,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -8827,7 +8864,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -8837,7 +8874,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -8847,7 +8884,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -8857,7 +8894,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -8867,7 +8904,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -8877,7 +8914,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -8887,7 +8924,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -8897,7 +8934,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -8907,7 +8944,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -8917,7 +8954,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -8927,7 +8964,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -8937,7 +8974,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -8947,7 +8984,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -8957,7 +8994,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -8967,7 +9004,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -8977,7 +9014,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -8987,7 +9024,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -8997,7 +9034,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -9007,7 +9044,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -9017,7 +9054,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -9027,7 +9064,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -9037,7 +9074,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -9047,7 +9084,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -9057,7 +9094,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -9067,7 +9104,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -9077,7 +9114,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -9087,7 +9124,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -9097,7 +9134,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -9107,7 +9144,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -9117,7 +9154,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -9127,7 +9164,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -9137,7 +9174,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -9147,7 +9184,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -9157,16 +9194,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -9177,7 +9214,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9187,14 +9224,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -9206,7 +9243,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -9218,7 +9255,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -9244,7 +9281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -9268,7 +9305,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -9288,7 +9325,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -9306,7 +9343,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -9324,7 +9361,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -9342,7 +9379,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -9360,7 +9397,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -9378,7 +9415,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -9396,7 +9433,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -9414,7 +9451,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -9432,7 +9469,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -9450,7 +9487,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -9470,7 +9507,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -9488,7 +9525,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -9506,7 +9543,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -9524,7 +9561,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -9542,7 +9579,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -9560,7 +9597,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -9576,7 +9613,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -9586,7 +9623,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -9596,7 +9633,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -9606,7 +9643,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -9616,7 +9653,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -9626,7 +9663,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -9636,7 +9673,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -9646,7 +9683,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -9656,7 +9693,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -9666,7 +9703,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -9676,7 +9713,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -9686,7 +9723,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -9696,7 +9733,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -9706,7 +9743,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -9716,7 +9753,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -9726,7 +9763,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -9736,7 +9773,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -9746,7 +9783,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -9756,7 +9793,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -9766,7 +9803,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -9776,7 +9813,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -9786,7 +9823,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -9796,7 +9833,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -9806,7 +9843,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -9816,7 +9853,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -9826,7 +9863,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -9836,7 +9873,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -9846,7 +9883,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -9856,7 +9893,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -9866,7 +9903,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -9876,7 +9913,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -9886,7 +9923,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -9896,7 +9933,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -9906,7 +9943,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -9916,7 +9953,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -9926,7 +9963,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -9936,7 +9973,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -9946,7 +9983,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -9956,7 +9993,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -9966,7 +10003,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -9976,7 +10013,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -9986,7 +10023,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -9996,7 +10033,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -10006,7 +10043,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -10016,7 +10053,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -10026,7 +10063,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -10036,7 +10073,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -10046,7 +10083,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -10056,7 +10093,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -10066,7 +10103,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -10076,7 +10113,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -10086,7 +10123,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -10096,7 +10133,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -10106,7 +10143,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -10116,7 +10153,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -10126,7 +10163,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -10136,7 +10173,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -10146,7 +10183,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -10156,7 +10193,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -10166,7 +10203,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -10176,7 +10213,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -10186,7 +10223,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -10196,7 +10233,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -10206,7 +10243,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -10216,7 +10253,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -10226,7 +10263,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -10236,7 +10273,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -10246,7 +10283,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -10256,7 +10293,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -10266,7 +10303,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -10276,7 +10313,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -10286,7 +10323,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -10296,7 +10333,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -10306,7 +10343,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -10316,7 +10353,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -10326,7 +10363,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -10336,7 +10373,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -10346,7 +10383,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -10356,7 +10393,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -10366,7 +10403,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -10376,7 +10413,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -10386,7 +10423,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -10396,7 +10433,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -10406,7 +10443,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -10416,7 +10453,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -10426,7 +10463,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -10436,7 +10473,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -10446,7 +10483,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -10456,7 +10493,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -10466,7 +10503,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -10476,7 +10513,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -10486,7 +10523,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -10496,7 +10533,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -10506,7 +10543,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -10516,7 +10553,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -10526,7 +10563,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -10536,16 +10573,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -10556,7 +10593,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
+++ b/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhou\Desktop\hgkj_02\卞虹霖\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232B2D49-50C0-4E55-B132-37151CFAEFE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBF3BE4-3C11-4D4B-97DD-ADEFF11B17FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="38">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -148,6 +148,10 @@
   </si>
   <si>
     <t>209/6/28</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2127,7 +2131,7 @@
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2265,7 +2269,7 @@
         <v>43641</v>
       </c>
       <c r="F6" s="6">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>14</v>
@@ -2285,7 +2289,7 @@
         <v>43649</v>
       </c>
       <c r="F7" s="6">
-        <v>0.7</v>
+        <v>0.98</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>14</v>
@@ -2305,7 +2309,7 @@
         <v>43649</v>
       </c>
       <c r="F8" s="6">
-        <v>0.2</v>
+        <v>0.98</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>14</v>
@@ -2325,7 +2329,7 @@
         <v>43641</v>
       </c>
       <c r="F9" s="6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>14</v>
@@ -2390,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H12" s="4"/>
     </row>
@@ -2424,15 +2428,17 @@
       <c r="C14" s="5">
         <v>43645</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="5">
+        <v>43650</v>
+      </c>
       <c r="E14" s="5">
-        <v>43642</v>
+        <v>43650</v>
       </c>
       <c r="F14" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H14" s="4"/>
     </row>
@@ -2444,15 +2450,17 @@
       <c r="C15" s="5">
         <v>43645</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="5">
+        <v>43650</v>
+      </c>
       <c r="E15" s="5">
-        <v>43648</v>
+        <v>43650</v>
       </c>
       <c r="F15" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H15" s="4"/>
     </row>

--- a/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
+++ b/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhou\Desktop\hgkj_02\卞虹霖\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\hgkj_02\卞虹霖\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBF3BE4-3C11-4D4B-97DD-ADEFF11B17FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEAD8C9-7A35-4107-A16D-33B6F2B0ACDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="马涛" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">卞虹霖!$G$16:$G$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">卞虹霖!$G$17:$G$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">黄之贤!$G$12:$G$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">金懿!$G$12:$G$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">马涛!$G$12:$G$20</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="38">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -293,7 +293,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -355,6 +355,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -633,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -935,10 +941,10 @@
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="18">
         <v>43643</v>
       </c>
       <c r="D15" s="4"/>
@@ -955,17 +961,13 @@
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
-      <c r="B16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="5">
-        <v>43644</v>
-      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="5">
-        <v>43646</v>
+        <v>43648</v>
       </c>
       <c r="E16" s="5">
-        <v>43646</v>
+        <v>43648</v>
       </c>
       <c r="F16" s="6">
         <v>1</v>
@@ -976,62 +978,56 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="5">
-        <v>43645</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>43644</v>
+      </c>
+      <c r="D17" s="5">
+        <v>43646</v>
+      </c>
       <c r="E17" s="5">
         <v>43646</v>
       </c>
       <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="18">
+        <v>43645</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5">
+        <v>43646</v>
+      </c>
+      <c r="F18" s="6">
         <v>0.7</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="5">
-        <v>43645</v>
-      </c>
-      <c r="D18" s="5">
-        <v>43647</v>
-      </c>
-      <c r="E18" s="5">
-        <v>43647</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="5">
-        <v>43645</v>
-      </c>
+      <c r="A19" s="17"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="5">
-        <v>43647</v>
+        <v>43648</v>
       </c>
       <c r="E19" s="5">
-        <v>43647</v>
+        <v>43648</v>
       </c>
       <c r="F19" s="6">
         <v>1</v>
@@ -1042,53 +1038,65 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="B20" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="5">
-        <v>43646</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+        <v>43645</v>
+      </c>
+      <c r="D20" s="5">
+        <v>43647</v>
+      </c>
+      <c r="E20" s="5">
+        <v>43647</v>
+      </c>
       <c r="F20" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5">
-        <v>43646</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+        <v>43645</v>
+      </c>
+      <c r="D21" s="5">
+        <v>43647</v>
+      </c>
+      <c r="E21" s="5">
+        <v>43647</v>
+      </c>
       <c r="F21" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="5">
-        <v>43647</v>
+        <v>43646</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="5">
+        <v>43650</v>
+      </c>
       <c r="F22" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>14</v>
@@ -1096,12 +1104,12 @@
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="5">
-        <v>43648</v>
+        <v>43646</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1114,11 +1122,13 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="5">
+        <v>43647</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="6">
@@ -1129,25 +1139,39 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
+    <row r="25" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="5">
+        <v>43648</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
@@ -2050,23 +2074,23 @@
       <c r="H116" s="12"/>
     </row>
     <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A117" s="12"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
       <c r="H117" s="12"/>
     </row>
     <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A118" s="12"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
+      <c r="A118" s="11"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
       <c r="H118" s="12"/>
     </row>
     <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
@@ -2090,10 +2114,24 @@
       <c r="H120" s="12"/>
     </row>
     <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A121" s="12"/>
       <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
     </row>
     <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A122" s="12"/>
       <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
     </row>
     <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B123" s="12"/>
@@ -2101,11 +2139,16 @@
     <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B124" s="12"/>
     </row>
+    <row r="125" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B125" s="12"/>
+    </row>
+    <row r="126" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B126" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A20:A25"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
@@ -2114,10 +2157,15 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A4:A19"/>
+    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G24" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G26" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2130,7 +2178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
+++ b/卞虹霖/旅游网项目进度表-卞虹霖组.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\hgkj_02\卞虹霖\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEAD8C9-7A35-4107-A16D-33B6F2B0ACDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="40">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -154,12 +148,20 @@
     <t>已完成</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,19 +356,19 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -638,14 +640,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -657,7 +659,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -669,7 +671,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -695,7 +697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -719,7 +721,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -741,7 +743,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="19"/>
@@ -759,7 +761,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -781,7 +783,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -803,7 +805,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="16"/>
       <c r="B8" s="15" t="s">
         <v>17</v>
@@ -823,7 +825,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="19"/>
@@ -841,7 +843,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="16"/>
       <c r="B10" s="15" t="s">
         <v>18</v>
@@ -861,7 +863,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
@@ -879,7 +881,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="16"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
@@ -901,7 +903,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="16"/>
       <c r="B13" s="15" t="s">
         <v>20</v>
@@ -921,7 +923,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="19"/>
@@ -939,7 +941,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="16"/>
       <c r="B15" s="15" t="s">
         <v>21</v>
@@ -959,7 +961,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="19"/>
@@ -977,7 +979,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="16"/>
       <c r="B17" s="9" t="s">
         <v>22</v>
@@ -999,9 +1001,9 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="16"/>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="18">
@@ -1019,9 +1021,9 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="17"/>
-      <c r="B19" s="22"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="19"/>
       <c r="D19" s="5">
         <v>43648</v>
@@ -1037,7 +1039,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="15" t="s">
         <v>24</v>
       </c>
@@ -1061,7 +1063,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="16.8">
       <c r="A21" s="16"/>
       <c r="B21" s="4" t="s">
         <v>26</v>
@@ -1083,7 +1085,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="16.8">
       <c r="A22" s="16"/>
       <c r="B22" s="4" t="s">
         <v>27</v>
@@ -1103,7 +1105,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="16.8">
       <c r="A23" s="16"/>
       <c r="B23" s="4" t="s">
         <v>28</v>
@@ -1121,7 +1123,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="16.8">
       <c r="A24" s="16"/>
       <c r="B24" s="4" t="s">
         <v>29</v>
@@ -1139,7 +1141,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="16.8">
       <c r="A25" s="17"/>
       <c r="B25" s="4" t="s">
         <v>30</v>
@@ -1157,7 +1159,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="16.8">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
@@ -1173,7 +1175,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1183,7 +1185,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1193,7 +1195,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1203,7 +1205,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1213,7 +1215,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1223,7 +1225,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1233,7 +1235,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1243,7 +1245,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1253,7 +1255,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1263,7 +1265,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1273,7 +1275,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1283,7 +1285,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -1293,7 +1295,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -1303,7 +1305,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1313,7 +1315,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -1323,7 +1325,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1333,7 +1335,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -1343,7 +1345,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -1353,7 +1355,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -1363,7 +1365,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -1373,7 +1375,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -1383,7 +1385,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -1393,7 +1395,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -1403,7 +1405,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -1413,7 +1415,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -1423,7 +1425,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -1433,7 +1435,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -1443,7 +1445,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -1453,7 +1455,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -1463,7 +1465,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1473,7 +1475,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -1483,7 +1485,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -1493,7 +1495,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -1503,7 +1505,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -1513,7 +1515,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -1523,7 +1525,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -1533,7 +1535,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -1543,7 +1545,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -1553,7 +1555,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -1563,7 +1565,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -1573,7 +1575,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -1583,7 +1585,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -1593,7 +1595,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -1603,7 +1605,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -1613,7 +1615,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -1623,7 +1625,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -1633,7 +1635,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -1643,7 +1645,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -1653,7 +1655,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -1663,7 +1665,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -1673,7 +1675,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -1683,7 +1685,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -1693,7 +1695,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -1703,7 +1705,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -1713,7 +1715,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -1723,7 +1725,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -1733,7 +1735,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -1743,7 +1745,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -1753,7 +1755,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -1763,7 +1765,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -1773,7 +1775,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -1783,7 +1785,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -1793,7 +1795,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -1803,7 +1805,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -1813,7 +1815,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -1823,7 +1825,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -1833,7 +1835,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -1843,7 +1845,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -1853,7 +1855,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -1863,7 +1865,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -1873,7 +1875,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -1883,7 +1885,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -1893,7 +1895,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -1903,7 +1905,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -1913,7 +1915,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -1923,7 +1925,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -1933,7 +1935,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -1943,7 +1945,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -1953,7 +1955,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -1963,7 +1965,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -1973,7 +1975,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -1983,7 +1985,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -1993,7 +1995,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -2003,7 +2005,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -2013,7 +2015,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -2023,7 +2025,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -2033,7 +2035,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -2043,7 +2045,7 @@
       <c r="G113" s="11"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -2053,7 +2055,7 @@
       <c r="G114" s="11"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -2063,7 +2065,7 @@
       <c r="G115" s="11"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -2073,7 +2075,7 @@
       <c r="G116" s="11"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -2083,7 +2085,7 @@
       <c r="G117" s="11"/>
       <c r="H117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -2093,7 +2095,7 @@
       <c r="G118" s="11"/>
       <c r="H118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -2103,7 +2105,7 @@
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -2113,7 +2115,7 @@
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
     </row>
-    <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="15.6">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -2123,7 +2125,7 @@
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
     </row>
-    <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="15.6">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -2133,16 +2135,16 @@
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
     </row>
-    <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="15.6">
       <c r="B123" s="12"/>
     </row>
-    <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="15.6">
       <c r="B124" s="12"/>
     </row>
-    <row r="125" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="15.6">
       <c r="B125" s="12"/>
     </row>
-    <row r="126" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="15.6">
       <c r="B126" s="12"/>
     </row>
   </sheetData>
@@ -2165,7 +2167,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G26" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G26">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2175,14 +2177,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -2194,7 +2196,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2206,7 +2208,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2232,7 +2234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2256,7 +2258,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -2282,7 +2284,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -2302,7 +2304,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -2324,7 +2326,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -2344,7 +2346,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -2364,7 +2366,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -2384,7 +2386,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -2404,7 +2406,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -2424,7 +2426,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -2446,7 +2448,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -2466,7 +2468,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -2490,7 +2492,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -2512,7 +2514,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -2530,7 +2532,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -2548,7 +2550,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -2566,7 +2568,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -2584,7 +2586,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -2600,7 +2602,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2610,7 +2612,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -2620,7 +2622,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2630,7 +2632,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2640,7 +2642,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2650,7 +2652,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2660,7 +2662,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2670,7 +2672,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2680,7 +2682,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2690,7 +2692,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2700,7 +2702,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2710,7 +2712,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2720,7 +2722,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2730,7 +2732,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -2740,7 +2742,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2750,7 +2752,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2760,7 +2762,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2770,7 +2772,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -2780,7 +2782,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2790,7 +2792,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2800,7 +2802,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -2810,7 +2812,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2820,7 +2822,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -2830,7 +2832,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2840,7 +2842,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2850,7 +2852,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -2860,7 +2862,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -2870,7 +2872,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -2880,7 +2882,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -2890,7 +2892,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -2900,7 +2902,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -2910,7 +2912,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -2920,7 +2922,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -2930,7 +2932,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -2940,7 +2942,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -2950,7 +2952,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -2960,7 +2962,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -2970,7 +2972,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -2980,7 +2982,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -2990,7 +2992,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -3000,7 +3002,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -3010,7 +3012,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -3020,7 +3022,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -3030,7 +3032,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -3040,7 +3042,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -3050,7 +3052,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -3060,7 +3062,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -3070,7 +3072,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -3080,7 +3082,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -3090,7 +3092,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -3100,7 +3102,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -3110,7 +3112,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -3120,7 +3122,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -3130,7 +3132,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -3140,7 +3142,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -3150,7 +3152,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -3160,7 +3162,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -3170,7 +3172,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -3180,7 +3182,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -3190,7 +3192,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -3200,7 +3202,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -3210,7 +3212,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -3220,7 +3222,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -3230,7 +3232,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -3240,7 +3242,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -3250,7 +3252,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -3260,7 +3262,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -3270,7 +3272,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -3280,7 +3282,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -3290,7 +3292,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -3300,7 +3302,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -3310,7 +3312,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -3320,7 +3322,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -3330,7 +3332,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -3340,7 +3342,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -3350,7 +3352,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -3360,7 +3362,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -3370,7 +3372,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -3380,7 +3382,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -3390,7 +3392,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -3400,7 +3402,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -3410,7 +3412,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -3420,7 +3422,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -3430,7 +3432,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -3440,7 +3442,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -3450,7 +3452,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -3460,7 +3462,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -3470,7 +3472,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -3480,7 +3482,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -3490,7 +3492,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -3500,7 +3502,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -3510,7 +3512,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -3520,7 +3522,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -3530,7 +3532,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -3540,7 +3542,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -3550,7 +3552,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -3560,16 +3562,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="B120" s="12"/>
     </row>
   </sheetData>
@@ -3580,7 +3582,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3590,14 +3592,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -3609,7 +3611,7 @@
     <col min="8" max="8" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3621,7 +3623,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3647,7 +3649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -3671,7 +3673,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.8">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -3693,7 +3695,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.8">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -3713,7 +3715,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.8">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -3733,7 +3735,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.8">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -3753,7 +3755,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.8">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -3773,7 +3775,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.8">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -3793,7 +3795,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.8">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -3813,7 +3815,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.8">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -3833,7 +3835,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.8">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
@@ -3853,7 +3855,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.8">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -3873,7 +3875,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.8">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -3893,7 +3895,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.8">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -3911,7 +3913,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.8">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -3929,7 +3931,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.8">
       <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -3947,7 +3949,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.8">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>29</v>
@@ -3965,7 +3967,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.8">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -3983,7 +3985,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.8">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -3999,7 +4001,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -4009,7 +4011,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -4019,7 +4021,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -4029,7 +4031,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -4039,7 +4041,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -4049,7 +4051,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -4059,7 +4061,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -4069,7 +4071,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4079,7 +4081,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -4089,7 +4091,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -4099,7 +4101,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -4109,7 +4111,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -4119,7 +4121,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -4129,7 +4131,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -4139,7 +4141,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -4149,7 +4151,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -4159,7 +4161,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -4169,7 +4171,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -4179,7 +4181,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -4189,7 +4191,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -4199,7 +4201,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -4209,7 +4211,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -4219,7 +4221,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -4229,7 +4231,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -4239,7 +4241,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -4249,7 +4251,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -4259,7 +4261,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -4269,7 +4271,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -4279,7 +4281,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -4289,7 +4291,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -4299,7 +4301,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -4309,7 +4311,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -4319,7 +4321,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -4329,7 +4331,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -4339,7 +4341,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -4349,7 +4351,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -4359,7 +4361,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -4369,7 +4371,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -4379,7 +4381,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -4389,7 +4391,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -4399,7 +4401,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -4409,7 +4411,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -4419,7 +4421,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <r